--- a/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.911742221417675</v>
+        <v>0.9117422214176756</v>
       </c>
       <c r="D2">
         <v>1.007224882928929</v>
       </c>
       <c r="E2">
-        <v>0.9308598511186089</v>
+        <v>0.9308598511186097</v>
       </c>
       <c r="F2">
         <v>0.9307383197275094</v>
@@ -439,16 +439,16 @@
         <v>1.04018296491944</v>
       </c>
       <c r="J2">
-        <v>0.9369262205371135</v>
+        <v>0.9369262205371139</v>
       </c>
       <c r="K2">
         <v>1.018584473013769</v>
       </c>
       <c r="L2">
-        <v>0.9433745491620709</v>
+        <v>0.9433745491620715</v>
       </c>
       <c r="M2">
-        <v>0.9432550506938693</v>
+        <v>0.9432550506938695</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9275630689458566</v>
+        <v>0.9275630689458567</v>
       </c>
       <c r="D3">
         <v>1.014788309291759</v>
       </c>
       <c r="E3">
-        <v>0.9444629681481364</v>
+        <v>0.9444629681481365</v>
       </c>
       <c r="F3">
         <v>0.946801184314026</v>
@@ -477,13 +477,13 @@
         <v>1.043521406024522</v>
       </c>
       <c r="J3">
-        <v>0.9502440899213196</v>
+        <v>0.9502440899213197</v>
       </c>
       <c r="K3">
         <v>1.025235404000763</v>
       </c>
       <c r="L3">
-        <v>0.9558594899281549</v>
+        <v>0.9558594899281551</v>
       </c>
       <c r="M3">
         <v>0.9581632628548997</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9371100221984499</v>
+        <v>0.9371100221984507</v>
       </c>
       <c r="D4">
-        <v>1.01935940164341</v>
+        <v>1.019359401643411</v>
       </c>
       <c r="E4">
-        <v>0.9526809461492733</v>
+        <v>0.9526809461492742</v>
       </c>
       <c r="F4">
-        <v>0.9564620110315137</v>
+        <v>0.956462011031515</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.045511455987694</v>
       </c>
       <c r="J4">
-        <v>0.9582717700352164</v>
+        <v>0.9582717700352174</v>
       </c>
       <c r="K4">
-        <v>1.029229658308866</v>
+        <v>1.029229658308867</v>
       </c>
       <c r="L4">
-        <v>0.9633861372109132</v>
+        <v>0.9633861372109139</v>
       </c>
       <c r="M4">
-        <v>0.9671159443553705</v>
+        <v>0.9671159443553715</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9409792368351904</v>
+        <v>0.940979236835192</v>
       </c>
       <c r="D5">
-        <v>1.021211745442638</v>
+        <v>1.021211745442639</v>
       </c>
       <c r="E5">
-        <v>0.9560133206511477</v>
+        <v>0.9560133206511492</v>
       </c>
       <c r="F5">
-        <v>0.9603691785795434</v>
+        <v>0.9603691785795448</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046311288129991</v>
+        <v>1.046311288129992</v>
       </c>
       <c r="J5">
-        <v>0.9615229141453886</v>
+        <v>0.9615229141453899</v>
       </c>
       <c r="K5">
         <v>1.030842374418754</v>
       </c>
       <c r="L5">
-        <v>0.9664345219959096</v>
+        <v>0.9664345219959112</v>
       </c>
       <c r="M5">
-        <v>0.9707333753225368</v>
+        <v>0.9707333753225381</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9416209563619711</v>
+        <v>0.9416209563619699</v>
       </c>
       <c r="D6">
         <v>1.021518897478068</v>
       </c>
       <c r="E6">
-        <v>0.9565660963971475</v>
+        <v>0.9565660963971467</v>
       </c>
       <c r="F6">
-        <v>0.9610166974737767</v>
+        <v>0.9610166974737754</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.046443526189244</v>
       </c>
       <c r="J6">
-        <v>0.9620619822097308</v>
+        <v>0.9620619822097299</v>
       </c>
       <c r="K6">
-        <v>1.031109450601353</v>
+        <v>1.031109450601352</v>
       </c>
       <c r="L6">
-        <v>0.9669399775240606</v>
+        <v>0.9669399775240597</v>
       </c>
       <c r="M6">
-        <v>0.9713326791721822</v>
+        <v>0.971332679172181</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9371622656508002</v>
+        <v>0.9371622656508014</v>
       </c>
       <c r="D7">
         <v>1.019384415897328</v>
       </c>
       <c r="E7">
-        <v>0.9527259344897175</v>
+        <v>0.9527259344897185</v>
       </c>
       <c r="F7">
-        <v>0.9565148001952953</v>
+        <v>0.9565148001952961</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.045522283307041</v>
       </c>
       <c r="J7">
-        <v>0.9583156776452302</v>
+        <v>0.9583156776452314</v>
       </c>
       <c r="K7">
-        <v>1.02925145980549</v>
+        <v>1.029251459805489</v>
       </c>
       <c r="L7">
-        <v>0.9634273059934169</v>
+        <v>0.9634273059934179</v>
       </c>
       <c r="M7">
-        <v>0.9671648323214985</v>
+        <v>0.9671648323214992</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9172460443521298</v>
+        <v>0.9172460443521293</v>
       </c>
       <c r="D8">
-        <v>1.009853219407545</v>
+        <v>1.009853219407546</v>
       </c>
       <c r="E8">
-        <v>0.9355898201637903</v>
+        <v>0.9355898201637898</v>
       </c>
       <c r="F8">
-        <v>0.9363329722547366</v>
+        <v>0.9363329722547361</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.041349098676142</v>
       </c>
       <c r="J8">
-        <v>0.9415610737489614</v>
+        <v>0.9415610737489608</v>
       </c>
       <c r="K8">
-        <v>1.020901356419846</v>
+        <v>1.020901356419847</v>
       </c>
       <c r="L8">
-        <v>0.9477192375306581</v>
+        <v>0.9477192375306578</v>
       </c>
       <c r="M8">
-        <v>0.9484504803542637</v>
+        <v>0.9484504803542633</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.875569368142409</v>
+        <v>0.8755693681424085</v>
       </c>
       <c r="D9">
-        <v>0.9901002208757684</v>
+        <v>0.9901002208757674</v>
       </c>
       <c r="E9">
-        <v>0.8998459921604379</v>
+        <v>0.8998459921604378</v>
       </c>
       <c r="F9">
         <v>0.8938471359801037</v>
@@ -702,19 +702,19 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032452016482128</v>
+        <v>1.032452016482127</v>
       </c>
       <c r="J9">
-        <v>0.9064358757925723</v>
+        <v>0.906435875792572</v>
       </c>
       <c r="K9">
-        <v>1.003355983438992</v>
+        <v>1.003355983438991</v>
       </c>
       <c r="L9">
-        <v>0.9148038691690424</v>
+        <v>0.9148038691690422</v>
       </c>
       <c r="M9">
-        <v>0.908934334662908</v>
+        <v>0.9089343346629079</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8405347223874788</v>
+        <v>0.8405347223874781</v>
       </c>
       <c r="D10">
-        <v>0.9739154282037058</v>
+        <v>0.9739154282037051</v>
       </c>
       <c r="E10">
-        <v>0.869955224849423</v>
+        <v>0.8699552248494227</v>
       </c>
       <c r="F10">
-        <v>0.8580316625706906</v>
+        <v>0.8580316625706899</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024972414912415</v>
+        <v>1.024972414912414</v>
       </c>
       <c r="J10">
-        <v>0.8768971004785632</v>
+        <v>0.8768971004785624</v>
       </c>
       <c r="K10">
-        <v>0.988772178978647</v>
+        <v>0.9887721789786466</v>
       </c>
       <c r="L10">
-        <v>0.8871498309490974</v>
+        <v>0.8871498309490971</v>
       </c>
       <c r="M10">
-        <v>0.8755438085574173</v>
+        <v>0.8755438085574164</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8224200015027994</v>
+        <v>0.8224200015028007</v>
       </c>
       <c r="D11">
-        <v>0.965761937854603</v>
+        <v>0.9657619378546032</v>
       </c>
       <c r="E11">
-        <v>0.8545693391249468</v>
+        <v>0.8545693391249479</v>
       </c>
       <c r="F11">
-        <v>0.8395274432730698</v>
+        <v>0.8395274432730712</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021152471677348</v>
+        <v>1.021152471677349</v>
       </c>
       <c r="J11">
-        <v>0.8616371420855381</v>
+        <v>0.8616371420855393</v>
       </c>
       <c r="K11">
-        <v>0.9813597667782874</v>
+        <v>0.9813597667782877</v>
       </c>
       <c r="L11">
-        <v>0.8728763131722126</v>
+        <v>0.8728763131722137</v>
       </c>
       <c r="M11">
-        <v>0.8582770282141985</v>
+        <v>0.8582770282141996</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8150470238543597</v>
+        <v>0.8150470238543619</v>
       </c>
       <c r="D12">
-        <v>0.9624924016131214</v>
+        <v>0.9624924016131222</v>
       </c>
       <c r="E12">
-        <v>0.8483223031177538</v>
+        <v>0.8483223031177562</v>
       </c>
       <c r="F12">
-        <v>0.8320046573618015</v>
+        <v>0.8320046573618038</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.019611923709091</v>
       </c>
       <c r="J12">
-        <v>0.8554306853908451</v>
+        <v>0.8554306853908473</v>
       </c>
       <c r="K12">
-        <v>0.9783752818743785</v>
+        <v>0.9783752818743791</v>
       </c>
       <c r="L12">
-        <v>0.8670739745039028</v>
+        <v>0.867073974503905</v>
       </c>
       <c r="M12">
-        <v>0.8512556177156707</v>
+        <v>0.8512556177156728</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8166626709437916</v>
+        <v>0.8166626709437932</v>
       </c>
       <c r="D13">
-        <v>0.9632062972868802</v>
+        <v>0.9632062972868808</v>
       </c>
       <c r="E13">
-        <v>0.8496904297409025</v>
+        <v>0.8496904297409037</v>
       </c>
       <c r="F13">
-        <v>0.833652583953212</v>
+        <v>0.8336525839532132</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.019948711538154</v>
       </c>
       <c r="J13">
-        <v>0.8567904452844398</v>
+        <v>0.8567904452844411</v>
       </c>
       <c r="K13">
-        <v>0.9790275296707097</v>
+        <v>0.9790275296707106</v>
       </c>
       <c r="L13">
-        <v>0.8683450439621351</v>
+        <v>0.8683450439621363</v>
       </c>
       <c r="M13">
-        <v>0.852793774661798</v>
+        <v>0.8527937746617991</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8218254082527798</v>
+        <v>0.8218254082527792</v>
       </c>
       <c r="D14">
-        <v>0.9654971690340155</v>
+        <v>0.9654971690340153</v>
       </c>
       <c r="E14">
-        <v>0.8540652077252018</v>
+        <v>0.8540652077252011</v>
       </c>
       <c r="F14">
-        <v>0.8389205422103352</v>
+        <v>0.8389205422103347</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021027898539359</v>
       </c>
       <c r="J14">
-        <v>0.8611365110872847</v>
+        <v>0.8611365110872842</v>
       </c>
       <c r="K14">
-        <v>0.981118339747226</v>
+        <v>0.9811183397472254</v>
       </c>
       <c r="L14">
-        <v>0.8724082140144925</v>
+        <v>0.872408214014492</v>
       </c>
       <c r="M14">
-        <v>0.857710604064623</v>
+        <v>0.8577106040646224</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8249124128009604</v>
+        <v>0.8249124128009576</v>
       </c>
       <c r="D15">
-        <v>0.9668738436873987</v>
+        <v>0.966873843687397</v>
       </c>
       <c r="E15">
-        <v>0.8566831889329737</v>
+        <v>0.856683188932971</v>
       </c>
       <c r="F15">
-        <v>0.842071838975207</v>
+        <v>0.8420718389752041</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021675267172001</v>
+        <v>1.021675267172</v>
       </c>
       <c r="J15">
-        <v>0.8637358830212546</v>
+        <v>0.863735883021252</v>
       </c>
       <c r="K15">
-        <v>0.9823731515772764</v>
+        <v>0.9823731515772749</v>
       </c>
       <c r="L15">
-        <v>0.8748387965011287</v>
+        <v>0.8748387965011263</v>
       </c>
       <c r="M15">
-        <v>0.8606516647486037</v>
+        <v>0.8606516647486008</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8416606270141633</v>
+        <v>0.8416606270141628</v>
       </c>
       <c r="D16">
-        <v>0.9744275074455403</v>
+        <v>0.9744275074455396</v>
       </c>
       <c r="E16">
-        <v>0.8709131885496609</v>
+        <v>0.8709131885496607</v>
       </c>
       <c r="F16">
-        <v>0.8591824812972819</v>
+        <v>0.8591824812972816</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025211240514836</v>
+        <v>1.025211240514835</v>
       </c>
       <c r="J16">
-        <v>0.8778459965930571</v>
+        <v>0.8778459965930567</v>
       </c>
       <c r="K16">
-        <v>0.9892362712721695</v>
+        <v>0.9892362712721688</v>
       </c>
       <c r="L16">
-        <v>0.8880377027276983</v>
+        <v>0.8880377027276979</v>
       </c>
       <c r="M16">
-        <v>0.8766174091709642</v>
+        <v>0.8766174091709638</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8512727605434826</v>
+        <v>0.8512727605434841</v>
       </c>
       <c r="D17">
-        <v>0.9788226763410178</v>
+        <v>0.9788226763410188</v>
       </c>
       <c r="E17">
-        <v>0.8790990540632105</v>
+        <v>0.8790990540632121</v>
       </c>
       <c r="F17">
-        <v>0.869009122226472</v>
+        <v>0.8690091222264732</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.027255524638517</v>
       </c>
       <c r="J17">
-        <v>0.8859484675754852</v>
+        <v>0.8859484675754867</v>
       </c>
       <c r="K17">
-        <v>0.9932124969735937</v>
+        <v>0.9932124969735946</v>
       </c>
       <c r="L17">
-        <v>0.8956204849119016</v>
+        <v>0.8956204849119033</v>
       </c>
       <c r="M17">
-        <v>0.8857831203869015</v>
+        <v>0.8857831203869028</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8566130647814039</v>
+        <v>0.856613064781405</v>
       </c>
       <c r="D18">
         <v>0.9812818293280778</v>
       </c>
       <c r="E18">
-        <v>0.883652553116674</v>
+        <v>0.8836525531166753</v>
       </c>
       <c r="F18">
-        <v>0.8744693298075948</v>
+        <v>0.8744693298075955</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028394850089599</v>
+        <v>1.028394850089598</v>
       </c>
       <c r="J18">
-        <v>0.8904509675392017</v>
+        <v>0.8904509675392026</v>
       </c>
       <c r="K18">
-        <v>0.9954316791317313</v>
+        <v>0.9954316791317311</v>
       </c>
       <c r="L18">
-        <v>0.8998352234741914</v>
+        <v>0.8998352234741928</v>
       </c>
       <c r="M18">
-        <v>0.8908747033419698</v>
+        <v>0.8908747033419706</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8583929911252222</v>
+        <v>0.8583929911252238</v>
       </c>
       <c r="D19">
-        <v>0.9821040704471111</v>
+        <v>0.9821040704471123</v>
       </c>
       <c r="E19">
-        <v>0.885171094492998</v>
+        <v>0.8851710944929995</v>
       </c>
       <c r="F19">
-        <v>0.8762892236848246</v>
+        <v>0.8762892236848264</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028775053043841</v>
+        <v>1.028775053043842</v>
       </c>
       <c r="J19">
-        <v>0.8919517630509008</v>
+        <v>0.8919517630509025</v>
       </c>
       <c r="K19">
-        <v>0.9961727845589587</v>
+        <v>0.9961727845589597</v>
       </c>
       <c r="L19">
-        <v>0.9012402561922199</v>
+        <v>0.9012402561922216</v>
       </c>
       <c r="M19">
-        <v>0.8925714890984616</v>
+        <v>0.8925714890984635</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8502700647746193</v>
+        <v>0.8502700647746194</v>
       </c>
       <c r="D20">
-        <v>0.978362286844952</v>
+        <v>0.9783622868449517</v>
       </c>
       <c r="E20">
-        <v>0.8782445268144813</v>
+        <v>0.8782445268144812</v>
       </c>
       <c r="F20">
-        <v>0.8679839425751336</v>
+        <v>0.8679839425751337</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.027041863062952</v>
       </c>
       <c r="J20">
-        <v>0.8851031424510348</v>
+        <v>0.8851031424510349</v>
       </c>
       <c r="K20">
-        <v>0.9927965877267129</v>
+        <v>0.9927965877267131</v>
       </c>
       <c r="L20">
-        <v>0.8948292655460497</v>
+        <v>0.8948292655460495</v>
       </c>
       <c r="M20">
         <v>0.8848270353224358</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8203252825642995</v>
+        <v>0.8203252825643027</v>
       </c>
       <c r="D21">
-        <v>0.9648300178018748</v>
+        <v>0.9648300178018757</v>
       </c>
       <c r="E21">
-        <v>0.8527935742865407</v>
+        <v>0.8527935742865437</v>
       </c>
       <c r="F21">
-        <v>0.8373895324957614</v>
+        <v>0.8373895324957641</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020713862665254</v>
+        <v>1.020713862665255</v>
       </c>
       <c r="J21">
-        <v>0.8598735311129696</v>
+        <v>0.8598735311129722</v>
       </c>
       <c r="K21">
-        <v>0.980509802328527</v>
+        <v>0.980509802328528</v>
       </c>
       <c r="L21">
-        <v>0.8712273550119198</v>
+        <v>0.8712273550119224</v>
       </c>
       <c r="M21">
-        <v>0.8562816802729256</v>
+        <v>0.8562816802729282</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7975197722825327</v>
+        <v>0.7975197722825351</v>
       </c>
       <c r="D22">
-        <v>0.9548449402680729</v>
+        <v>0.9548449402680742</v>
       </c>
       <c r="E22">
-        <v>0.833510266090708</v>
+        <v>0.8335102660907103</v>
       </c>
       <c r="F22">
-        <v>0.8141514444492446</v>
+        <v>0.8141514444492469</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01599013219137</v>
+        <v>1.015990132191371</v>
       </c>
       <c r="J22">
-        <v>0.8406905148855165</v>
+        <v>0.8406905148855185</v>
       </c>
       <c r="K22">
-        <v>0.9713673315739886</v>
+        <v>0.9713673315739896</v>
       </c>
       <c r="L22">
-        <v>0.8533010847937589</v>
+        <v>0.853301084793761</v>
       </c>
       <c r="M22">
-        <v>0.8345902679522973</v>
+        <v>0.8345902679522995</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8101041437440133</v>
+        <v>0.810104143744015</v>
       </c>
       <c r="D23">
-        <v>0.9603174795238366</v>
+        <v>0.9603174795238378</v>
       </c>
       <c r="E23">
-        <v>0.8441395099923287</v>
+        <v>0.8441395099923302</v>
       </c>
       <c r="F23">
-        <v>0.8269651434684617</v>
+        <v>0.8269651434684633</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018584482901217</v>
       </c>
       <c r="J23">
-        <v>0.8512716613680282</v>
+        <v>0.8512716613680298</v>
       </c>
       <c r="K23">
-        <v>0.9763861290273137</v>
+        <v>0.9763861290273147</v>
       </c>
       <c r="L23">
-        <v>0.863186772243321</v>
+        <v>0.8631867722433224</v>
       </c>
       <c r="M23">
-        <v>0.8465516187821854</v>
+        <v>0.846551618782187</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.850723949777705</v>
+        <v>0.8507239497777044</v>
       </c>
       <c r="D24">
-        <v>0.9785706354338261</v>
+        <v>0.9785706354338257</v>
       </c>
       <c r="E24">
-        <v>0.8786313237875918</v>
+        <v>0.8786313237875909</v>
       </c>
       <c r="F24">
-        <v>0.8684480033228288</v>
+        <v>0.8684480033228286</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.027138569312419</v>
       </c>
       <c r="J24">
-        <v>0.8854857885244587</v>
+        <v>0.885485788524458</v>
       </c>
       <c r="K24">
-        <v>0.9929848242050138</v>
+        <v>0.9929848242050137</v>
       </c>
       <c r="L24">
-        <v>0.895187416851519</v>
+        <v>0.8951874168515183</v>
       </c>
       <c r="M24">
-        <v>0.8852598238927926</v>
+        <v>0.8852598238927922</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8873466652882412</v>
+        <v>0.887346665288241</v>
       </c>
       <c r="D25">
-        <v>0.9956397928786457</v>
+        <v>0.9956397928786463</v>
       </c>
       <c r="E25">
-        <v>0.9099285175050857</v>
+        <v>0.9099285175050854</v>
       </c>
       <c r="F25">
-        <v>0.9058758962980161</v>
+        <v>0.9058758962980156</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034975948145106</v>
       </c>
       <c r="J25">
-        <v>0.9163666095836948</v>
+        <v>0.9163666095836946</v>
       </c>
       <c r="K25">
-        <v>1.008306174654949</v>
+        <v>1.00830617465495</v>
       </c>
       <c r="L25">
-        <v>0.9241069800739335</v>
+        <v>0.9241069800739334</v>
       </c>
       <c r="M25">
-        <v>0.9201351776536961</v>
+        <v>0.9201351776536959</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9117422214176756</v>
+        <v>0.911742221417675</v>
       </c>
       <c r="D2">
         <v>1.007224882928929</v>
       </c>
       <c r="E2">
-        <v>0.9308598511186097</v>
+        <v>0.9308598511186089</v>
       </c>
       <c r="F2">
         <v>0.9307383197275094</v>
@@ -439,16 +439,16 @@
         <v>1.04018296491944</v>
       </c>
       <c r="J2">
-        <v>0.9369262205371139</v>
+        <v>0.9369262205371135</v>
       </c>
       <c r="K2">
         <v>1.018584473013769</v>
       </c>
       <c r="L2">
-        <v>0.9433745491620715</v>
+        <v>0.9433745491620709</v>
       </c>
       <c r="M2">
-        <v>0.9432550506938695</v>
+        <v>0.9432550506938693</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9275630689458567</v>
+        <v>0.9275630689458566</v>
       </c>
       <c r="D3">
         <v>1.014788309291759</v>
       </c>
       <c r="E3">
-        <v>0.9444629681481365</v>
+        <v>0.9444629681481364</v>
       </c>
       <c r="F3">
         <v>0.946801184314026</v>
@@ -477,13 +477,13 @@
         <v>1.043521406024522</v>
       </c>
       <c r="J3">
-        <v>0.9502440899213197</v>
+        <v>0.9502440899213196</v>
       </c>
       <c r="K3">
         <v>1.025235404000763</v>
       </c>
       <c r="L3">
-        <v>0.9558594899281551</v>
+        <v>0.9558594899281549</v>
       </c>
       <c r="M3">
         <v>0.9581632628548997</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9371100221984507</v>
+        <v>0.9371100221984499</v>
       </c>
       <c r="D4">
-        <v>1.019359401643411</v>
+        <v>1.01935940164341</v>
       </c>
       <c r="E4">
-        <v>0.9526809461492742</v>
+        <v>0.9526809461492733</v>
       </c>
       <c r="F4">
-        <v>0.956462011031515</v>
+        <v>0.9564620110315137</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.045511455987694</v>
       </c>
       <c r="J4">
-        <v>0.9582717700352174</v>
+        <v>0.9582717700352164</v>
       </c>
       <c r="K4">
-        <v>1.029229658308867</v>
+        <v>1.029229658308866</v>
       </c>
       <c r="L4">
-        <v>0.9633861372109139</v>
+        <v>0.9633861372109132</v>
       </c>
       <c r="M4">
-        <v>0.9671159443553715</v>
+        <v>0.9671159443553705</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.940979236835192</v>
+        <v>0.9409792368351904</v>
       </c>
       <c r="D5">
-        <v>1.021211745442639</v>
+        <v>1.021211745442638</v>
       </c>
       <c r="E5">
-        <v>0.9560133206511492</v>
+        <v>0.9560133206511477</v>
       </c>
       <c r="F5">
-        <v>0.9603691785795448</v>
+        <v>0.9603691785795434</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046311288129992</v>
+        <v>1.046311288129991</v>
       </c>
       <c r="J5">
-        <v>0.9615229141453899</v>
+        <v>0.9615229141453886</v>
       </c>
       <c r="K5">
         <v>1.030842374418754</v>
       </c>
       <c r="L5">
-        <v>0.9664345219959112</v>
+        <v>0.9664345219959096</v>
       </c>
       <c r="M5">
-        <v>0.9707333753225381</v>
+        <v>0.9707333753225368</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9416209563619699</v>
+        <v>0.9416209563619711</v>
       </c>
       <c r="D6">
         <v>1.021518897478068</v>
       </c>
       <c r="E6">
-        <v>0.9565660963971467</v>
+        <v>0.9565660963971475</v>
       </c>
       <c r="F6">
-        <v>0.9610166974737754</v>
+        <v>0.9610166974737767</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.046443526189244</v>
       </c>
       <c r="J6">
-        <v>0.9620619822097299</v>
+        <v>0.9620619822097308</v>
       </c>
       <c r="K6">
-        <v>1.031109450601352</v>
+        <v>1.031109450601353</v>
       </c>
       <c r="L6">
-        <v>0.9669399775240597</v>
+        <v>0.9669399775240606</v>
       </c>
       <c r="M6">
-        <v>0.971332679172181</v>
+        <v>0.9713326791721822</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9371622656508014</v>
+        <v>0.9371622656508002</v>
       </c>
       <c r="D7">
         <v>1.019384415897328</v>
       </c>
       <c r="E7">
-        <v>0.9527259344897185</v>
+        <v>0.9527259344897175</v>
       </c>
       <c r="F7">
-        <v>0.9565148001952961</v>
+        <v>0.9565148001952953</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.045522283307041</v>
       </c>
       <c r="J7">
-        <v>0.9583156776452314</v>
+        <v>0.9583156776452302</v>
       </c>
       <c r="K7">
-        <v>1.029251459805489</v>
+        <v>1.02925145980549</v>
       </c>
       <c r="L7">
-        <v>0.9634273059934179</v>
+        <v>0.9634273059934169</v>
       </c>
       <c r="M7">
-        <v>0.9671648323214992</v>
+        <v>0.9671648323214985</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9172460443521293</v>
+        <v>0.9172460443521298</v>
       </c>
       <c r="D8">
-        <v>1.009853219407546</v>
+        <v>1.009853219407545</v>
       </c>
       <c r="E8">
-        <v>0.9355898201637898</v>
+        <v>0.9355898201637903</v>
       </c>
       <c r="F8">
-        <v>0.9363329722547361</v>
+        <v>0.9363329722547366</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.041349098676142</v>
       </c>
       <c r="J8">
-        <v>0.9415610737489608</v>
+        <v>0.9415610737489614</v>
       </c>
       <c r="K8">
-        <v>1.020901356419847</v>
+        <v>1.020901356419846</v>
       </c>
       <c r="L8">
-        <v>0.9477192375306578</v>
+        <v>0.9477192375306581</v>
       </c>
       <c r="M8">
-        <v>0.9484504803542633</v>
+        <v>0.9484504803542637</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8755693681424085</v>
+        <v>0.875569368142409</v>
       </c>
       <c r="D9">
-        <v>0.9901002208757674</v>
+        <v>0.9901002208757684</v>
       </c>
       <c r="E9">
-        <v>0.8998459921604378</v>
+        <v>0.8998459921604379</v>
       </c>
       <c r="F9">
         <v>0.8938471359801037</v>
@@ -702,19 +702,19 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032452016482127</v>
+        <v>1.032452016482128</v>
       </c>
       <c r="J9">
-        <v>0.906435875792572</v>
+        <v>0.9064358757925723</v>
       </c>
       <c r="K9">
-        <v>1.003355983438991</v>
+        <v>1.003355983438992</v>
       </c>
       <c r="L9">
-        <v>0.9148038691690422</v>
+        <v>0.9148038691690424</v>
       </c>
       <c r="M9">
-        <v>0.9089343346629079</v>
+        <v>0.908934334662908</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8405347223874781</v>
+        <v>0.8405347223874788</v>
       </c>
       <c r="D10">
-        <v>0.9739154282037051</v>
+        <v>0.9739154282037058</v>
       </c>
       <c r="E10">
-        <v>0.8699552248494227</v>
+        <v>0.869955224849423</v>
       </c>
       <c r="F10">
-        <v>0.8580316625706899</v>
+        <v>0.8580316625706906</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024972414912414</v>
+        <v>1.024972414912415</v>
       </c>
       <c r="J10">
-        <v>0.8768971004785624</v>
+        <v>0.8768971004785632</v>
       </c>
       <c r="K10">
-        <v>0.9887721789786466</v>
+        <v>0.988772178978647</v>
       </c>
       <c r="L10">
-        <v>0.8871498309490971</v>
+        <v>0.8871498309490974</v>
       </c>
       <c r="M10">
-        <v>0.8755438085574164</v>
+        <v>0.8755438085574173</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8224200015028007</v>
+        <v>0.8224200015027994</v>
       </c>
       <c r="D11">
-        <v>0.9657619378546032</v>
+        <v>0.965761937854603</v>
       </c>
       <c r="E11">
-        <v>0.8545693391249479</v>
+        <v>0.8545693391249468</v>
       </c>
       <c r="F11">
-        <v>0.8395274432730712</v>
+        <v>0.8395274432730698</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021152471677349</v>
+        <v>1.021152471677348</v>
       </c>
       <c r="J11">
-        <v>0.8616371420855393</v>
+        <v>0.8616371420855381</v>
       </c>
       <c r="K11">
-        <v>0.9813597667782877</v>
+        <v>0.9813597667782874</v>
       </c>
       <c r="L11">
-        <v>0.8728763131722137</v>
+        <v>0.8728763131722126</v>
       </c>
       <c r="M11">
-        <v>0.8582770282141996</v>
+        <v>0.8582770282141985</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8150470238543619</v>
+        <v>0.8150470238543597</v>
       </c>
       <c r="D12">
-        <v>0.9624924016131222</v>
+        <v>0.9624924016131214</v>
       </c>
       <c r="E12">
-        <v>0.8483223031177562</v>
+        <v>0.8483223031177538</v>
       </c>
       <c r="F12">
-        <v>0.8320046573618038</v>
+        <v>0.8320046573618015</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.019611923709091</v>
       </c>
       <c r="J12">
-        <v>0.8554306853908473</v>
+        <v>0.8554306853908451</v>
       </c>
       <c r="K12">
-        <v>0.9783752818743791</v>
+        <v>0.9783752818743785</v>
       </c>
       <c r="L12">
-        <v>0.867073974503905</v>
+        <v>0.8670739745039028</v>
       </c>
       <c r="M12">
-        <v>0.8512556177156728</v>
+        <v>0.8512556177156707</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8166626709437932</v>
+        <v>0.8166626709437916</v>
       </c>
       <c r="D13">
-        <v>0.9632062972868808</v>
+        <v>0.9632062972868802</v>
       </c>
       <c r="E13">
-        <v>0.8496904297409037</v>
+        <v>0.8496904297409025</v>
       </c>
       <c r="F13">
-        <v>0.8336525839532132</v>
+        <v>0.833652583953212</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.019948711538154</v>
       </c>
       <c r="J13">
-        <v>0.8567904452844411</v>
+        <v>0.8567904452844398</v>
       </c>
       <c r="K13">
-        <v>0.9790275296707106</v>
+        <v>0.9790275296707097</v>
       </c>
       <c r="L13">
-        <v>0.8683450439621363</v>
+        <v>0.8683450439621351</v>
       </c>
       <c r="M13">
-        <v>0.8527937746617991</v>
+        <v>0.852793774661798</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8218254082527792</v>
+        <v>0.8218254082527798</v>
       </c>
       <c r="D14">
-        <v>0.9654971690340153</v>
+        <v>0.9654971690340155</v>
       </c>
       <c r="E14">
-        <v>0.8540652077252011</v>
+        <v>0.8540652077252018</v>
       </c>
       <c r="F14">
-        <v>0.8389205422103347</v>
+        <v>0.8389205422103352</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021027898539359</v>
       </c>
       <c r="J14">
-        <v>0.8611365110872842</v>
+        <v>0.8611365110872847</v>
       </c>
       <c r="K14">
-        <v>0.9811183397472254</v>
+        <v>0.981118339747226</v>
       </c>
       <c r="L14">
-        <v>0.872408214014492</v>
+        <v>0.8724082140144925</v>
       </c>
       <c r="M14">
-        <v>0.8577106040646224</v>
+        <v>0.857710604064623</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8249124128009576</v>
+        <v>0.8249124128009604</v>
       </c>
       <c r="D15">
-        <v>0.966873843687397</v>
+        <v>0.9668738436873987</v>
       </c>
       <c r="E15">
-        <v>0.856683188932971</v>
+        <v>0.8566831889329737</v>
       </c>
       <c r="F15">
-        <v>0.8420718389752041</v>
+        <v>0.842071838975207</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021675267172</v>
+        <v>1.021675267172001</v>
       </c>
       <c r="J15">
-        <v>0.863735883021252</v>
+        <v>0.8637358830212546</v>
       </c>
       <c r="K15">
-        <v>0.9823731515772749</v>
+        <v>0.9823731515772764</v>
       </c>
       <c r="L15">
-        <v>0.8748387965011263</v>
+        <v>0.8748387965011287</v>
       </c>
       <c r="M15">
-        <v>0.8606516647486008</v>
+        <v>0.8606516647486037</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8416606270141628</v>
+        <v>0.8416606270141633</v>
       </c>
       <c r="D16">
-        <v>0.9744275074455396</v>
+        <v>0.9744275074455403</v>
       </c>
       <c r="E16">
-        <v>0.8709131885496607</v>
+        <v>0.8709131885496609</v>
       </c>
       <c r="F16">
-        <v>0.8591824812972816</v>
+        <v>0.8591824812972819</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025211240514835</v>
+        <v>1.025211240514836</v>
       </c>
       <c r="J16">
-        <v>0.8778459965930567</v>
+        <v>0.8778459965930571</v>
       </c>
       <c r="K16">
-        <v>0.9892362712721688</v>
+        <v>0.9892362712721695</v>
       </c>
       <c r="L16">
-        <v>0.8880377027276979</v>
+        <v>0.8880377027276983</v>
       </c>
       <c r="M16">
-        <v>0.8766174091709638</v>
+        <v>0.8766174091709642</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8512727605434841</v>
+        <v>0.8512727605434826</v>
       </c>
       <c r="D17">
-        <v>0.9788226763410188</v>
+        <v>0.9788226763410178</v>
       </c>
       <c r="E17">
-        <v>0.8790990540632121</v>
+        <v>0.8790990540632105</v>
       </c>
       <c r="F17">
-        <v>0.8690091222264732</v>
+        <v>0.869009122226472</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.027255524638517</v>
       </c>
       <c r="J17">
-        <v>0.8859484675754867</v>
+        <v>0.8859484675754852</v>
       </c>
       <c r="K17">
-        <v>0.9932124969735946</v>
+        <v>0.9932124969735937</v>
       </c>
       <c r="L17">
-        <v>0.8956204849119033</v>
+        <v>0.8956204849119016</v>
       </c>
       <c r="M17">
-        <v>0.8857831203869028</v>
+        <v>0.8857831203869015</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.856613064781405</v>
+        <v>0.8566130647814039</v>
       </c>
       <c r="D18">
         <v>0.9812818293280778</v>
       </c>
       <c r="E18">
-        <v>0.8836525531166753</v>
+        <v>0.883652553116674</v>
       </c>
       <c r="F18">
-        <v>0.8744693298075955</v>
+        <v>0.8744693298075948</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028394850089598</v>
+        <v>1.028394850089599</v>
       </c>
       <c r="J18">
-        <v>0.8904509675392026</v>
+        <v>0.8904509675392017</v>
       </c>
       <c r="K18">
-        <v>0.9954316791317311</v>
+        <v>0.9954316791317313</v>
       </c>
       <c r="L18">
-        <v>0.8998352234741928</v>
+        <v>0.8998352234741914</v>
       </c>
       <c r="M18">
-        <v>0.8908747033419706</v>
+        <v>0.8908747033419698</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8583929911252238</v>
+        <v>0.8583929911252222</v>
       </c>
       <c r="D19">
-        <v>0.9821040704471123</v>
+        <v>0.9821040704471111</v>
       </c>
       <c r="E19">
-        <v>0.8851710944929995</v>
+        <v>0.885171094492998</v>
       </c>
       <c r="F19">
-        <v>0.8762892236848264</v>
+        <v>0.8762892236848246</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028775053043842</v>
+        <v>1.028775053043841</v>
       </c>
       <c r="J19">
-        <v>0.8919517630509025</v>
+        <v>0.8919517630509008</v>
       </c>
       <c r="K19">
-        <v>0.9961727845589597</v>
+        <v>0.9961727845589587</v>
       </c>
       <c r="L19">
-        <v>0.9012402561922216</v>
+        <v>0.9012402561922199</v>
       </c>
       <c r="M19">
-        <v>0.8925714890984635</v>
+        <v>0.8925714890984616</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8502700647746194</v>
+        <v>0.8502700647746193</v>
       </c>
       <c r="D20">
-        <v>0.9783622868449517</v>
+        <v>0.978362286844952</v>
       </c>
       <c r="E20">
-        <v>0.8782445268144812</v>
+        <v>0.8782445268144813</v>
       </c>
       <c r="F20">
-        <v>0.8679839425751337</v>
+        <v>0.8679839425751336</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.027041863062952</v>
       </c>
       <c r="J20">
-        <v>0.8851031424510349</v>
+        <v>0.8851031424510348</v>
       </c>
       <c r="K20">
-        <v>0.9927965877267131</v>
+        <v>0.9927965877267129</v>
       </c>
       <c r="L20">
-        <v>0.8948292655460495</v>
+        <v>0.8948292655460497</v>
       </c>
       <c r="M20">
         <v>0.8848270353224358</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8203252825643027</v>
+        <v>0.8203252825642995</v>
       </c>
       <c r="D21">
-        <v>0.9648300178018757</v>
+        <v>0.9648300178018748</v>
       </c>
       <c r="E21">
-        <v>0.8527935742865437</v>
+        <v>0.8527935742865407</v>
       </c>
       <c r="F21">
-        <v>0.8373895324957641</v>
+        <v>0.8373895324957614</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020713862665255</v>
+        <v>1.020713862665254</v>
       </c>
       <c r="J21">
-        <v>0.8598735311129722</v>
+        <v>0.8598735311129696</v>
       </c>
       <c r="K21">
-        <v>0.980509802328528</v>
+        <v>0.980509802328527</v>
       </c>
       <c r="L21">
-        <v>0.8712273550119224</v>
+        <v>0.8712273550119198</v>
       </c>
       <c r="M21">
-        <v>0.8562816802729282</v>
+        <v>0.8562816802729256</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7975197722825351</v>
+        <v>0.7975197722825327</v>
       </c>
       <c r="D22">
-        <v>0.9548449402680742</v>
+        <v>0.9548449402680729</v>
       </c>
       <c r="E22">
-        <v>0.8335102660907103</v>
+        <v>0.833510266090708</v>
       </c>
       <c r="F22">
-        <v>0.8141514444492469</v>
+        <v>0.8141514444492446</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015990132191371</v>
+        <v>1.01599013219137</v>
       </c>
       <c r="J22">
-        <v>0.8406905148855185</v>
+        <v>0.8406905148855165</v>
       </c>
       <c r="K22">
-        <v>0.9713673315739896</v>
+        <v>0.9713673315739886</v>
       </c>
       <c r="L22">
-        <v>0.853301084793761</v>
+        <v>0.8533010847937589</v>
       </c>
       <c r="M22">
-        <v>0.8345902679522995</v>
+        <v>0.8345902679522973</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.810104143744015</v>
+        <v>0.8101041437440133</v>
       </c>
       <c r="D23">
-        <v>0.9603174795238378</v>
+        <v>0.9603174795238366</v>
       </c>
       <c r="E23">
-        <v>0.8441395099923302</v>
+        <v>0.8441395099923287</v>
       </c>
       <c r="F23">
-        <v>0.8269651434684633</v>
+        <v>0.8269651434684617</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018584482901217</v>
       </c>
       <c r="J23">
-        <v>0.8512716613680298</v>
+        <v>0.8512716613680282</v>
       </c>
       <c r="K23">
-        <v>0.9763861290273147</v>
+        <v>0.9763861290273137</v>
       </c>
       <c r="L23">
-        <v>0.8631867722433224</v>
+        <v>0.863186772243321</v>
       </c>
       <c r="M23">
-        <v>0.846551618782187</v>
+        <v>0.8465516187821854</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8507239497777044</v>
+        <v>0.850723949777705</v>
       </c>
       <c r="D24">
-        <v>0.9785706354338257</v>
+        <v>0.9785706354338261</v>
       </c>
       <c r="E24">
-        <v>0.8786313237875909</v>
+        <v>0.8786313237875918</v>
       </c>
       <c r="F24">
-        <v>0.8684480033228286</v>
+        <v>0.8684480033228288</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.027138569312419</v>
       </c>
       <c r="J24">
-        <v>0.885485788524458</v>
+        <v>0.8854857885244587</v>
       </c>
       <c r="K24">
-        <v>0.9929848242050137</v>
+        <v>0.9929848242050138</v>
       </c>
       <c r="L24">
-        <v>0.8951874168515183</v>
+        <v>0.895187416851519</v>
       </c>
       <c r="M24">
-        <v>0.8852598238927922</v>
+        <v>0.8852598238927926</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.887346665288241</v>
+        <v>0.8873466652882412</v>
       </c>
       <c r="D25">
-        <v>0.9956397928786463</v>
+        <v>0.9956397928786457</v>
       </c>
       <c r="E25">
-        <v>0.9099285175050854</v>
+        <v>0.9099285175050857</v>
       </c>
       <c r="F25">
-        <v>0.9058758962980156</v>
+        <v>0.9058758962980161</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034975948145106</v>
       </c>
       <c r="J25">
-        <v>0.9163666095836946</v>
+        <v>0.9163666095836948</v>
       </c>
       <c r="K25">
-        <v>1.00830617465495</v>
+        <v>1.008306174654949</v>
       </c>
       <c r="L25">
-        <v>0.9241069800739334</v>
+        <v>0.9241069800739335</v>
       </c>
       <c r="M25">
-        <v>0.9201351776536959</v>
+        <v>0.9201351776536961</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.911742221417675</v>
+        <v>0.9118592257541766</v>
       </c>
       <c r="D2">
-        <v>1.007224882928929</v>
+        <v>1.007248690495032</v>
       </c>
       <c r="E2">
-        <v>0.9308598511186089</v>
+        <v>0.9309608754192749</v>
       </c>
       <c r="F2">
-        <v>0.9307383197275094</v>
+        <v>0.9308254689515628</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04018296491944</v>
+        <v>1.040195045049336</v>
       </c>
       <c r="J2">
-        <v>0.9369262205371135</v>
+        <v>0.9370386978441502</v>
       </c>
       <c r="K2">
-        <v>1.018584473013769</v>
+        <v>1.018607954878142</v>
       </c>
       <c r="L2">
-        <v>0.9433745491620709</v>
+        <v>0.9434738840938989</v>
       </c>
       <c r="M2">
-        <v>0.9432550506938693</v>
+        <v>0.9433407420551848</v>
+      </c>
+      <c r="N2">
+        <v>0.9590929690940663</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9275630689458566</v>
+        <v>0.9276578144523412</v>
       </c>
       <c r="D3">
-        <v>1.014788309291759</v>
+        <v>1.014807293544976</v>
       </c>
       <c r="E3">
-        <v>0.9444629681481364</v>
+        <v>0.9445449653960709</v>
       </c>
       <c r="F3">
-        <v>0.946801184314026</v>
+        <v>0.9468712607791373</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043521406024522</v>
+        <v>1.043531050847709</v>
       </c>
       <c r="J3">
-        <v>0.9502440899213196</v>
+        <v>0.9503356587744305</v>
       </c>
       <c r="K3">
-        <v>1.025235404000763</v>
+        <v>1.025254154085925</v>
       </c>
       <c r="L3">
-        <v>0.9558594899281549</v>
+        <v>0.9559402756450268</v>
       </c>
       <c r="M3">
-        <v>0.9581632628548997</v>
+        <v>0.9582323103875329</v>
+      </c>
+      <c r="N3">
+        <v>0.9682141399909836</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9371100221984499</v>
+        <v>0.9371921085219959</v>
       </c>
       <c r="D4">
-        <v>1.01935940164341</v>
+        <v>1.019375707718776</v>
       </c>
       <c r="E4">
-        <v>0.9526809461492733</v>
+        <v>0.9527520930637485</v>
       </c>
       <c r="F4">
-        <v>0.9564620110315137</v>
+        <v>0.9565224901211892</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045511455987694</v>
+        <v>1.045519746772894</v>
       </c>
       <c r="J4">
-        <v>0.9582717700352164</v>
+        <v>0.9583513493611076</v>
       </c>
       <c r="K4">
-        <v>1.029229658308866</v>
+        <v>1.02924577671418</v>
       </c>
       <c r="L4">
-        <v>0.9633861372109132</v>
+        <v>0.9634563149002081</v>
       </c>
       <c r="M4">
-        <v>0.9671159443553705</v>
+        <v>0.9671756077046427</v>
+      </c>
+      <c r="N4">
+        <v>0.9737101349868097</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9409792368351904</v>
+        <v>0.9410563405099504</v>
       </c>
       <c r="D5">
-        <v>1.021211745442638</v>
+        <v>1.021227010413073</v>
       </c>
       <c r="E5">
-        <v>0.9560133206511477</v>
+        <v>0.956080191272265</v>
       </c>
       <c r="F5">
-        <v>0.9603691785795434</v>
+        <v>0.9604259025229517</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046311288129991</v>
+        <v>1.04631905214283</v>
       </c>
       <c r="J5">
-        <v>0.9615229141453886</v>
+        <v>0.9615977542906806</v>
       </c>
       <c r="K5">
-        <v>1.030842374418754</v>
+        <v>1.030857468852659</v>
       </c>
       <c r="L5">
-        <v>0.9664345219959096</v>
+        <v>0.9665005125672573</v>
       </c>
       <c r="M5">
-        <v>0.9707333753225368</v>
+        <v>0.9707893611970946</v>
+      </c>
+      <c r="N5">
+        <v>0.9759354087415837</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9416209563619711</v>
+        <v>0.9416972414682807</v>
       </c>
       <c r="D6">
-        <v>1.021518897478068</v>
+        <v>1.021533992115347</v>
       </c>
       <c r="E6">
-        <v>0.9565660963971475</v>
+        <v>0.9566322641959859</v>
       </c>
       <c r="F6">
-        <v>0.9610166974737767</v>
+        <v>0.9610728057131853</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046443526189244</v>
+        <v>1.046451203994439</v>
       </c>
       <c r="J6">
-        <v>0.9620619822097308</v>
+        <v>0.9621360426858543</v>
       </c>
       <c r="K6">
-        <v>1.031109450601353</v>
+        <v>1.031124377452196</v>
       </c>
       <c r="L6">
-        <v>0.9669399775240606</v>
+        <v>0.9670052795800238</v>
       </c>
       <c r="M6">
-        <v>0.9713326791721822</v>
+        <v>0.9713880617629557</v>
+      </c>
+      <c r="N6">
+        <v>0.9763043437742089</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9371622656508002</v>
+        <v>0.9372442841493117</v>
       </c>
       <c r="D7">
-        <v>1.019384415897328</v>
+        <v>1.01940070775151</v>
       </c>
       <c r="E7">
-        <v>0.9527259344897175</v>
+        <v>0.9527970232152102</v>
       </c>
       <c r="F7">
-        <v>0.9565148001952953</v>
+        <v>0.956575228084266</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045522283307041</v>
+        <v>1.045530566898307</v>
       </c>
       <c r="J7">
-        <v>0.9583156776452302</v>
+        <v>0.9583951925370973</v>
       </c>
       <c r="K7">
-        <v>1.02925145980549</v>
+        <v>1.02926756422735</v>
       </c>
       <c r="L7">
-        <v>0.9634273059934169</v>
+        <v>0.9634974267315133</v>
       </c>
       <c r="M7">
-        <v>0.9671648323214985</v>
+        <v>0.9672244455511556</v>
+      </c>
+      <c r="N7">
+        <v>0.9737401902462123</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9172460443521298</v>
+        <v>0.9173551097670559</v>
       </c>
       <c r="D8">
-        <v>1.009853219407545</v>
+        <v>1.009875290121282</v>
       </c>
       <c r="E8">
-        <v>0.9355898201637903</v>
+        <v>0.9356840658229809</v>
       </c>
       <c r="F8">
-        <v>0.9363329722547366</v>
+        <v>0.9364140034744162</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041349098676142</v>
+        <v>1.041360302300246</v>
       </c>
       <c r="J8">
-        <v>0.9415610737489614</v>
+        <v>0.9416661185372023</v>
       </c>
       <c r="K8">
-        <v>1.020901356419846</v>
+        <v>1.02092313545403</v>
       </c>
       <c r="L8">
-        <v>0.9477192375306581</v>
+        <v>0.9478119715274967</v>
       </c>
       <c r="M8">
-        <v>0.9484504803542637</v>
+        <v>0.9485302144862969</v>
+      </c>
+      <c r="N8">
+        <v>0.9622676821547866</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.875569368142409</v>
+        <v>0.8757449812326389</v>
       </c>
       <c r="D9">
-        <v>0.9901002208757684</v>
+        <v>0.9901373888049027</v>
       </c>
       <c r="E9">
-        <v>0.8998459921604379</v>
+        <v>0.8999967945679733</v>
       </c>
       <c r="F9">
-        <v>0.8938471359801037</v>
+        <v>0.8939804032391081</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032452016482128</v>
+        <v>1.032470826591205</v>
       </c>
       <c r="J9">
-        <v>0.9064358757925723</v>
+        <v>0.9066024339689993</v>
       </c>
       <c r="K9">
-        <v>1.003355983438992</v>
+        <v>1.003392532743163</v>
       </c>
       <c r="L9">
-        <v>0.9148038691690424</v>
+        <v>0.9149514500566063</v>
       </c>
       <c r="M9">
-        <v>0.908934334662908</v>
+        <v>0.9090647039511662</v>
+      </c>
+      <c r="N9">
+        <v>0.9382035029182678</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8405347223874788</v>
+        <v>0.8407820906376154</v>
       </c>
       <c r="D10">
-        <v>0.9739154282037058</v>
+        <v>0.9739700793849504</v>
       </c>
       <c r="E10">
-        <v>0.869955224849423</v>
+        <v>0.8701663623960747</v>
       </c>
       <c r="F10">
-        <v>0.8580316625706906</v>
+        <v>0.8582234517643458</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024972414912415</v>
+        <v>1.025000010704366</v>
       </c>
       <c r="J10">
-        <v>0.8768971004785632</v>
+        <v>0.8771282415544631</v>
       </c>
       <c r="K10">
-        <v>0.988772178978647</v>
+        <v>0.9888257730086324</v>
       </c>
       <c r="L10">
-        <v>0.8871498309490974</v>
+        <v>0.8873554518775295</v>
       </c>
       <c r="M10">
-        <v>0.8755438085574173</v>
+        <v>0.8757303951086914</v>
+      </c>
+      <c r="N10">
+        <v>0.917970758090711</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8224200015027994</v>
+        <v>0.8227132348041249</v>
       </c>
       <c r="D11">
-        <v>0.965761937854603</v>
+        <v>0.9658282845843659</v>
       </c>
       <c r="E11">
-        <v>0.8545693391249468</v>
+        <v>0.8548187302671693</v>
       </c>
       <c r="F11">
-        <v>0.8395274432730698</v>
+        <v>0.8397576339291581</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021152471677348</v>
+        <v>1.021185937005364</v>
       </c>
       <c r="J11">
-        <v>0.8616371420855381</v>
+        <v>0.8619088115507864</v>
       </c>
       <c r="K11">
-        <v>0.9813597667782874</v>
+        <v>0.9814247425261141</v>
       </c>
       <c r="L11">
-        <v>0.8728763131722126</v>
+        <v>0.8731185455965638</v>
       </c>
       <c r="M11">
-        <v>0.8582770282141985</v>
+        <v>0.858500280936441</v>
+      </c>
+      <c r="N11">
+        <v>0.9075257058672306</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8150470238543597</v>
+        <v>0.8153612504720168</v>
       </c>
       <c r="D12">
-        <v>0.9624924016131214</v>
+        <v>0.9625642125699129</v>
       </c>
       <c r="E12">
-        <v>0.8483223031177538</v>
+        <v>0.8485891321844359</v>
       </c>
       <c r="F12">
-        <v>0.8320046573618015</v>
+        <v>0.8322526446777641</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019611923709091</v>
+        <v>1.0196481299092</v>
       </c>
       <c r="J12">
-        <v>0.8554306853908451</v>
+        <v>0.8557207436902231</v>
       </c>
       <c r="K12">
-        <v>0.9783752818743785</v>
+        <v>0.9784455715093713</v>
       </c>
       <c r="L12">
-        <v>0.8670739745039028</v>
+        <v>0.8673328583381623</v>
       </c>
       <c r="M12">
-        <v>0.8512556177156707</v>
+        <v>0.8514958144164957</v>
+      </c>
+      <c r="N12">
+        <v>0.9032797592045048</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8166626709437916</v>
+        <v>0.8169721660877274</v>
       </c>
       <c r="D13">
-        <v>0.9632062972868802</v>
+        <v>0.9632768711746706</v>
       </c>
       <c r="E13">
-        <v>0.8496904297409025</v>
+        <v>0.8499533323271348</v>
       </c>
       <c r="F13">
-        <v>0.833652583953212</v>
+        <v>0.8338965491266802</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019948711538154</v>
+        <v>1.019984297286875</v>
       </c>
       <c r="J13">
-        <v>0.8567904452844398</v>
+        <v>0.8570763672361951</v>
       </c>
       <c r="K13">
-        <v>0.9790275296707097</v>
+        <v>0.9790966164457826</v>
       </c>
       <c r="L13">
-        <v>0.8683450439621351</v>
+        <v>0.8686001802771562</v>
       </c>
       <c r="M13">
-        <v>0.852793774661798</v>
+        <v>0.8530301443745256</v>
+      </c>
+      <c r="N13">
+        <v>0.9042098683898155</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8218254082527798</v>
+        <v>0.8221202793798935</v>
       </c>
       <c r="D14">
-        <v>0.9654971690340155</v>
+        <v>0.9655639397305777</v>
       </c>
       <c r="E14">
-        <v>0.8540652077252018</v>
+        <v>0.8543159608526012</v>
       </c>
       <c r="F14">
-        <v>0.8389205422103352</v>
+        <v>0.8391521166289166</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021027898539359</v>
+        <v>1.021061576558403</v>
       </c>
       <c r="J14">
-        <v>0.8611365110872847</v>
+        <v>0.8614096186030025</v>
       </c>
       <c r="K14">
-        <v>0.981118339747226</v>
+        <v>0.9811837278707101</v>
       </c>
       <c r="L14">
-        <v>0.8724082140144925</v>
+        <v>0.8726517477814199</v>
       </c>
       <c r="M14">
-        <v>0.857710604064623</v>
+        <v>0.8579351752738134</v>
+      </c>
+      <c r="N14">
+        <v>0.9071831621646986</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8249124128009604</v>
+        <v>0.8251988802179061</v>
       </c>
       <c r="D15">
-        <v>0.9668738436873987</v>
+        <v>0.9669384433629782</v>
       </c>
       <c r="E15">
-        <v>0.8566831889329737</v>
+        <v>0.856926950854163</v>
       </c>
       <c r="F15">
-        <v>0.842071838975207</v>
+        <v>0.8422963219591211</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021675267172001</v>
+        <v>1.021707856003329</v>
       </c>
       <c r="J15">
-        <v>0.8637358830212546</v>
+        <v>0.8640016055088386</v>
       </c>
       <c r="K15">
-        <v>0.9823731515772764</v>
+        <v>0.9824364278936554</v>
       </c>
       <c r="L15">
-        <v>0.8748387965011287</v>
+        <v>0.8750756488624142</v>
       </c>
       <c r="M15">
-        <v>0.8606516647486037</v>
+        <v>0.8608694771421109</v>
+      </c>
+      <c r="N15">
+        <v>0.9089618102357968</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8416606270141633</v>
+        <v>0.8419053761506855</v>
       </c>
       <c r="D16">
-        <v>0.9744275074455403</v>
+        <v>0.9744815018493674</v>
       </c>
       <c r="E16">
-        <v>0.8709131885496609</v>
+        <v>0.8711221347196717</v>
       </c>
       <c r="F16">
-        <v>0.8591824812972819</v>
+        <v>0.8593720991856398</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025211240514836</v>
+        <v>1.025238506548362</v>
       </c>
       <c r="J16">
-        <v>0.8778459965930571</v>
+        <v>0.8780748072136561</v>
       </c>
       <c r="K16">
-        <v>0.9892362712721695</v>
+        <v>0.9892892257566692</v>
       </c>
       <c r="L16">
-        <v>0.8880377027276983</v>
+        <v>0.8882412224562679</v>
       </c>
       <c r="M16">
-        <v>0.8766174091709642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.876801917795251</v>
+      </c>
+      <c r="N16">
+        <v>0.9186204670531882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8512727605434826</v>
+        <v>0.8514960973571796</v>
       </c>
       <c r="D17">
-        <v>0.9788226763410178</v>
+        <v>0.9788713508954802</v>
       </c>
       <c r="E17">
-        <v>0.8790990540632105</v>
+        <v>0.8792900550130064</v>
       </c>
       <c r="F17">
-        <v>0.869009122226472</v>
+        <v>0.8691810837247519</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027255524638517</v>
+        <v>1.027280118946901</v>
       </c>
       <c r="J17">
-        <v>0.8859484675754852</v>
+        <v>0.8861581541709275</v>
       </c>
       <c r="K17">
-        <v>0.9932124969735937</v>
+        <v>0.9932602693085631</v>
       </c>
       <c r="L17">
-        <v>0.8956204849119016</v>
+        <v>0.8958067800617192</v>
       </c>
       <c r="M17">
-        <v>0.8857831203869015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8859507110278944</v>
+      </c>
+      <c r="N17">
+        <v>0.9241690438534642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8566130647814039</v>
+        <v>0.8568251821446375</v>
       </c>
       <c r="D18">
-        <v>0.9812818293280778</v>
+        <v>0.9813277534448525</v>
       </c>
       <c r="E18">
-        <v>0.883652553116674</v>
+        <v>0.8838341294353923</v>
       </c>
       <c r="F18">
-        <v>0.8744693298075948</v>
+        <v>0.8746321100994002</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028394850089599</v>
+        <v>1.028418062530811</v>
       </c>
       <c r="J18">
-        <v>0.8904509675392017</v>
+        <v>0.8906505803040259</v>
       </c>
       <c r="K18">
-        <v>0.9954316791317313</v>
+        <v>0.9954767707655826</v>
       </c>
       <c r="L18">
-        <v>0.8998352234741914</v>
+        <v>0.9000124589776308</v>
       </c>
       <c r="M18">
-        <v>0.8908747033419698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8910334812132825</v>
+      </c>
+      <c r="N18">
+        <v>0.9272529068984137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8583929911252222</v>
+        <v>0.8586014679157614</v>
       </c>
       <c r="D19">
-        <v>0.9821040704471111</v>
+        <v>0.9821491078195687</v>
       </c>
       <c r="E19">
-        <v>0.885171094492998</v>
+        <v>0.8853496093156187</v>
       </c>
       <c r="F19">
-        <v>0.8762892236848246</v>
+        <v>0.8764490355814759</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028775053043841</v>
+        <v>1.02879781988086</v>
       </c>
       <c r="J19">
-        <v>0.8919517630509008</v>
+        <v>0.8921480987139402</v>
       </c>
       <c r="K19">
-        <v>0.9961727845589587</v>
+        <v>0.9962170116960363</v>
       </c>
       <c r="L19">
-        <v>0.9012402561922199</v>
+        <v>0.9014145466402357</v>
       </c>
       <c r="M19">
-        <v>0.8925714890984616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8927274152943775</v>
+      </c>
+      <c r="N19">
+        <v>0.9282809088467142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8502700647746193</v>
+        <v>0.8504955597678427</v>
       </c>
       <c r="D20">
-        <v>0.978362286844952</v>
+        <v>0.9784114934696896</v>
       </c>
       <c r="E20">
-        <v>0.8782445268144813</v>
+        <v>0.8784373389422113</v>
       </c>
       <c r="F20">
-        <v>0.8679839425751336</v>
+        <v>0.8681576758314765</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027041863062952</v>
+        <v>1.027066724647021</v>
       </c>
       <c r="J20">
-        <v>0.8851031424510348</v>
+        <v>0.885314762537563</v>
       </c>
       <c r="K20">
-        <v>0.9927965877267129</v>
+        <v>0.9928448785202434</v>
       </c>
       <c r="L20">
-        <v>0.8948292655460497</v>
+        <v>0.8950173006349144</v>
       </c>
       <c r="M20">
-        <v>0.8848270353224358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8849963253629484</v>
+      </c>
+      <c r="N20">
+        <v>0.923590101907752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8203252825642995</v>
+        <v>0.8206243275561836</v>
       </c>
       <c r="D21">
-        <v>0.9648300178018748</v>
+        <v>0.9648978707686768</v>
       </c>
       <c r="E21">
-        <v>0.8527935742865407</v>
+        <v>0.8530477971257984</v>
       </c>
       <c r="F21">
-        <v>0.8373895324957614</v>
+        <v>0.8376246369621049</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020713862665254</v>
+        <v>1.020748083603513</v>
       </c>
       <c r="J21">
-        <v>0.8598735311129696</v>
+        <v>0.8601503007124426</v>
       </c>
       <c r="K21">
-        <v>0.980509802328527</v>
+        <v>0.9805762430746674</v>
       </c>
       <c r="L21">
-        <v>0.8712273550119198</v>
+        <v>0.8714742033824261</v>
       </c>
       <c r="M21">
-        <v>0.8562816802729256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8565096142088868</v>
+      </c>
+      <c r="N21">
+        <v>0.9063190412191334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7975197722825327</v>
+        <v>0.7978908336403944</v>
       </c>
       <c r="D22">
-        <v>0.9548449402680729</v>
+        <v>0.9549318357245946</v>
       </c>
       <c r="E22">
-        <v>0.833510266090708</v>
+        <v>0.8338241059868456</v>
       </c>
       <c r="F22">
-        <v>0.8141514444492446</v>
+        <v>0.8144482050429754</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01599013219137</v>
+        <v>1.016033901470596</v>
       </c>
       <c r="J22">
-        <v>0.8406905148855165</v>
+        <v>0.8410299269003169</v>
       </c>
       <c r="K22">
-        <v>0.9713673315739886</v>
+        <v>0.9714522819636162</v>
       </c>
       <c r="L22">
-        <v>0.8533010847937589</v>
+        <v>0.853604762892896</v>
       </c>
       <c r="M22">
-        <v>0.8345902679522973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8348767700621355</v>
+      </c>
+      <c r="N22">
+        <v>0.8932024008274263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8101041437440133</v>
+        <v>0.8104333371360986</v>
       </c>
       <c r="D23">
-        <v>0.9603174795238366</v>
+        <v>0.9603932237492504</v>
       </c>
       <c r="E23">
-        <v>0.8441395099923287</v>
+        <v>0.8444187458694362</v>
       </c>
       <c r="F23">
-        <v>0.8269651434684617</v>
+        <v>0.8272258945301675</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018584482901217</v>
+        <v>1.018622661597101</v>
       </c>
       <c r="J23">
-        <v>0.8512716613680282</v>
+        <v>0.851574774288545</v>
       </c>
       <c r="K23">
-        <v>0.9763861290273137</v>
+        <v>0.9764602425540267</v>
       </c>
       <c r="L23">
-        <v>0.863186772243321</v>
+        <v>0.863457490715551</v>
       </c>
       <c r="M23">
-        <v>0.8465516187821854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8468039509729164</v>
+      </c>
+      <c r="N23">
+        <v>0.9004353585486116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.850723949777705</v>
+        <v>0.8509484657589373</v>
       </c>
       <c r="D24">
-        <v>0.9785706354338261</v>
+        <v>0.9786196005784907</v>
       </c>
       <c r="E24">
-        <v>0.8786313237875918</v>
+        <v>0.8788233143824513</v>
       </c>
       <c r="F24">
-        <v>0.8684480033228288</v>
+        <v>0.8686209326358669</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027138569312419</v>
+        <v>1.027163309595193</v>
       </c>
       <c r="J24">
-        <v>0.8854857885244587</v>
+        <v>0.8856965316939125</v>
       </c>
       <c r="K24">
-        <v>0.9929848242050138</v>
+        <v>0.9930328797008392</v>
       </c>
       <c r="L24">
-        <v>0.895187416851519</v>
+        <v>0.8953746627637612</v>
       </c>
       <c r="M24">
-        <v>0.8852598238927926</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8854283428725537</v>
+      </c>
+      <c r="N24">
+        <v>0.9238521649259754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8873466652882412</v>
+        <v>0.8875018124023127</v>
       </c>
       <c r="D25">
-        <v>0.9956397928786457</v>
+        <v>0.9956721918059863</v>
       </c>
       <c r="E25">
-        <v>0.9099285175050857</v>
+        <v>0.9100619904135073</v>
       </c>
       <c r="F25">
-        <v>0.9058758962980161</v>
+        <v>0.9059928739314107</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034975948145106</v>
+        <v>1.034992358108285</v>
       </c>
       <c r="J25">
-        <v>0.9163666095836948</v>
+        <v>0.9165144336520965</v>
       </c>
       <c r="K25">
-        <v>1.008306174654949</v>
+        <v>1.00833806500051</v>
       </c>
       <c r="L25">
-        <v>0.9241069800739335</v>
+        <v>0.924237807306703</v>
       </c>
       <c r="M25">
-        <v>0.9201351776536961</v>
+        <v>0.9202498091443311</v>
+      </c>
+      <c r="N25">
+        <v>0.9450075269936675</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9118592257541766</v>
+        <v>0.9798906575194944</v>
       </c>
       <c r="D2">
-        <v>1.007248690495032</v>
+        <v>1.029481219910614</v>
       </c>
       <c r="E2">
-        <v>0.9309608754192749</v>
+        <v>0.9994810698302931</v>
       </c>
       <c r="F2">
-        <v>0.9308254689515628</v>
+        <v>1.017161158257422</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040195045049336</v>
+        <v>1.046474378521635</v>
       </c>
       <c r="J2">
-        <v>0.9370386978441502</v>
+        <v>1.002689934680764</v>
       </c>
       <c r="K2">
-        <v>1.018607954878142</v>
+        <v>1.040544562832225</v>
       </c>
       <c r="L2">
-        <v>0.9434738840938989</v>
+        <v>1.010947638911578</v>
       </c>
       <c r="M2">
-        <v>0.9433407420551848</v>
+        <v>1.028386478032668</v>
       </c>
       <c r="N2">
-        <v>0.9590929690940663</v>
+        <v>1.004113869398153</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9276578144523412</v>
+        <v>0.9946067180140755</v>
       </c>
       <c r="D3">
-        <v>1.014807293544976</v>
+        <v>1.036725916080496</v>
       </c>
       <c r="E3">
-        <v>0.9445449653960709</v>
+        <v>1.011693371144197</v>
       </c>
       <c r="F3">
-        <v>0.9468712607791373</v>
+        <v>1.028072023619824</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043531050847709</v>
+        <v>1.049071663621679</v>
       </c>
       <c r="J3">
-        <v>0.9503356587744305</v>
+        <v>1.015245496985775</v>
       </c>
       <c r="K3">
-        <v>1.025254154085925</v>
+        <v>1.046909495179403</v>
       </c>
       <c r="L3">
-        <v>0.9559402756450268</v>
+        <v>1.022178787828134</v>
       </c>
       <c r="M3">
-        <v>0.9582323103875329</v>
+        <v>1.038357888054284</v>
       </c>
       <c r="N3">
-        <v>0.9682141399909836</v>
+        <v>1.016687262041781</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9371921085219959</v>
+        <v>1.003633745395556</v>
       </c>
       <c r="D4">
-        <v>1.019375707718776</v>
+        <v>1.041186526022711</v>
       </c>
       <c r="E4">
-        <v>0.9527520930637485</v>
+        <v>1.019193901226839</v>
       </c>
       <c r="F4">
-        <v>0.9565224901211892</v>
+        <v>1.034778876316101</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045519746772894</v>
+        <v>1.050653139624249</v>
       </c>
       <c r="J4">
-        <v>0.9583513493611076</v>
+        <v>1.02294495413243</v>
       </c>
       <c r="K4">
-        <v>1.02924577671418</v>
+        <v>1.050812034363434</v>
       </c>
       <c r="L4">
-        <v>0.9634563149002081</v>
+        <v>1.029066063091015</v>
       </c>
       <c r="M4">
-        <v>0.9671756077046427</v>
+        <v>1.044474917054621</v>
       </c>
       <c r="N4">
-        <v>0.9737101349868097</v>
+        <v>1.024397653300724</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9410563405099504</v>
+        <v>1.007322302398721</v>
       </c>
       <c r="D5">
-        <v>1.021227010413073</v>
+        <v>1.043012276281496</v>
       </c>
       <c r="E5">
-        <v>0.956080191272265</v>
+        <v>1.022260509869063</v>
       </c>
       <c r="F5">
-        <v>0.9604259025229517</v>
+        <v>1.037522026252371</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04631905214283</v>
+        <v>1.051296222053604</v>
       </c>
       <c r="J5">
-        <v>0.9615977542906806</v>
+        <v>1.026090257843666</v>
       </c>
       <c r="K5">
-        <v>1.030857468852659</v>
+        <v>1.052405583905459</v>
       </c>
       <c r="L5">
-        <v>0.9665005125672573</v>
+        <v>1.031879436879702</v>
       </c>
       <c r="M5">
-        <v>0.9707893611970946</v>
+        <v>1.046973949380787</v>
       </c>
       <c r="N5">
-        <v>0.9759354087415837</v>
+        <v>1.027547423704002</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9416972414682807</v>
+        <v>1.007935703500086</v>
       </c>
       <c r="D6">
-        <v>1.021533992115347</v>
+        <v>1.043316053608959</v>
       </c>
       <c r="E6">
-        <v>0.9566322641959859</v>
+        <v>1.022770576152502</v>
       </c>
       <c r="F6">
-        <v>0.9610728057131853</v>
+        <v>1.037978344727951</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046451203994439</v>
+        <v>1.05140297308055</v>
       </c>
       <c r="J6">
-        <v>0.9621360426858543</v>
+        <v>1.026613263889749</v>
       </c>
       <c r="K6">
-        <v>1.031124377452196</v>
+        <v>1.052670508059519</v>
       </c>
       <c r="L6">
-        <v>0.9670052795800238</v>
+        <v>1.032347236761706</v>
       </c>
       <c r="M6">
-        <v>0.9713880617629557</v>
+        <v>1.047389492259431</v>
       </c>
       <c r="N6">
-        <v>0.9763043437742089</v>
+        <v>1.02807117247866</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9372442841493117</v>
+        <v>1.003683435623365</v>
       </c>
       <c r="D7">
-        <v>1.01940070775151</v>
+        <v>1.041211110356585</v>
       </c>
       <c r="E7">
-        <v>0.9527970232152102</v>
+        <v>1.019235206297789</v>
       </c>
       <c r="F7">
-        <v>0.956575228084266</v>
+        <v>1.034815820883317</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045530566898307</v>
+        <v>1.050661815703135</v>
       </c>
       <c r="J7">
-        <v>0.9583951925370973</v>
+        <v>1.022987329386668</v>
       </c>
       <c r="K7">
-        <v>1.02926756422735</v>
+        <v>1.050833506868184</v>
       </c>
       <c r="L7">
-        <v>0.9634974267315133</v>
+        <v>1.029103967156582</v>
       </c>
       <c r="M7">
-        <v>0.9672244455511556</v>
+        <v>1.044508585185158</v>
       </c>
       <c r="N7">
-        <v>0.9737401902462123</v>
+        <v>1.024440088732684</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9173551097670559</v>
+        <v>0.9849745839626016</v>
       </c>
       <c r="D8">
-        <v>1.009875290121282</v>
+        <v>1.031979860274493</v>
       </c>
       <c r="E8">
-        <v>0.9356840658229809</v>
+        <v>1.003697721930566</v>
       </c>
       <c r="F8">
-        <v>0.9364140034744162</v>
+        <v>1.020927031655876</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041360302300246</v>
+        <v>1.047373962281437</v>
       </c>
       <c r="J8">
-        <v>0.9416661185372023</v>
+        <v>1.007027804762028</v>
       </c>
       <c r="K8">
-        <v>1.02092313545403</v>
+        <v>1.042743390910129</v>
       </c>
       <c r="L8">
-        <v>0.9478119715274967</v>
+        <v>1.014827837114233</v>
       </c>
       <c r="M8">
-        <v>0.9485302144862969</v>
+        <v>1.031830802208316</v>
       </c>
       <c r="N8">
-        <v>0.9622676821547866</v>
+        <v>1.008457899752494</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8757449812326389</v>
+        <v>0.9475226072515273</v>
       </c>
       <c r="D9">
-        <v>0.9901373888049027</v>
+        <v>1.013697546382336</v>
       </c>
       <c r="E9">
-        <v>0.8999967945679733</v>
+        <v>0.9727021409639593</v>
       </c>
       <c r="F9">
-        <v>0.8939804032391081</v>
+        <v>0.9932877759675844</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032470826591205</v>
+        <v>1.040710417613731</v>
       </c>
       <c r="J9">
-        <v>0.9066024339689993</v>
+        <v>0.975075010875037</v>
       </c>
       <c r="K9">
-        <v>1.003392532743163</v>
+        <v>1.026572231860826</v>
       </c>
       <c r="L9">
-        <v>0.9149514500566063</v>
+        <v>0.9862541982717921</v>
       </c>
       <c r="M9">
-        <v>0.9090647039511662</v>
+        <v>1.006490701224029</v>
       </c>
       <c r="N9">
-        <v>0.9382035029182678</v>
+        <v>0.9764597292331464</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8407820906376154</v>
+        <v>0.9182267155683669</v>
       </c>
       <c r="D10">
-        <v>0.9739700793849504</v>
+        <v>0.9996382603802016</v>
       </c>
       <c r="E10">
-        <v>0.8701663623960747</v>
+        <v>0.9485866183563021</v>
       </c>
       <c r="F10">
-        <v>0.8582234517643458</v>
+        <v>0.9718672976831102</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025000010704366</v>
+        <v>1.035475904719148</v>
       </c>
       <c r="J10">
-        <v>0.8771282415544631</v>
+        <v>0.9501074667314988</v>
       </c>
       <c r="K10">
-        <v>0.9888257730086324</v>
+        <v>1.014014049220635</v>
       </c>
       <c r="L10">
-        <v>0.8873554518775295</v>
+        <v>0.9639506413479654</v>
       </c>
       <c r="M10">
-        <v>0.8757303951086914</v>
+        <v>0.9867637790995849</v>
       </c>
       <c r="N10">
-        <v>0.917970758090711</v>
+        <v>0.9514567283131071</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8227132348041249</v>
+        <v>0.9040593960458454</v>
       </c>
       <c r="D11">
-        <v>0.9658282845843659</v>
+        <v>0.9929309000486546</v>
       </c>
       <c r="E11">
-        <v>0.8548187302671693</v>
+        <v>0.9369742077771674</v>
       </c>
       <c r="F11">
-        <v>0.8397576339291581</v>
+        <v>0.9615847630681633</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021185937005364</v>
+        <v>1.032950717959509</v>
       </c>
       <c r="J11">
-        <v>0.8619088115507864</v>
+        <v>0.9380500724634102</v>
       </c>
       <c r="K11">
-        <v>0.9814247425261141</v>
+        <v>1.007987372011575</v>
       </c>
       <c r="L11">
-        <v>0.8731185455965638</v>
+        <v>0.9531913239180001</v>
       </c>
       <c r="M11">
-        <v>0.858500280936441</v>
+        <v>0.9772694123060164</v>
       </c>
       <c r="N11">
-        <v>0.9075257058672306</v>
+        <v>0.9393822111621554</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8153612504720168</v>
+        <v>0.8985154074848388</v>
       </c>
       <c r="D12">
-        <v>0.9625642125699129</v>
+        <v>0.9903239734819189</v>
       </c>
       <c r="E12">
-        <v>0.8485891321844359</v>
+        <v>0.9324397939485991</v>
       </c>
       <c r="F12">
-        <v>0.8322526446777641</v>
+        <v>0.9575759304751477</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0196481299092</v>
+        <v>1.031964867909443</v>
       </c>
       <c r="J12">
-        <v>0.8557207436902231</v>
+        <v>0.9333355683513882</v>
       </c>
       <c r="K12">
-        <v>0.9784455715093713</v>
+        <v>1.005638928777656</v>
       </c>
       <c r="L12">
-        <v>0.8673328583381623</v>
+        <v>0.9489868543492153</v>
       </c>
       <c r="M12">
-        <v>0.8514958144164957</v>
+        <v>0.9735636861866408</v>
       </c>
       <c r="N12">
-        <v>0.9032797592045048</v>
+        <v>0.9346610119135333</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8169721660877274</v>
+        <v>0.8997185766562769</v>
       </c>
       <c r="D13">
-        <v>0.9632768711746706</v>
+        <v>0.9908888561940519</v>
       </c>
       <c r="E13">
-        <v>0.8499533323271348</v>
+        <v>0.933423377746795</v>
       </c>
       <c r="F13">
-        <v>0.8338965491266802</v>
+        <v>0.9584451963924989</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019984297286875</v>
+        <v>1.032178688558287</v>
       </c>
       <c r="J13">
-        <v>0.8570763672361951</v>
+        <v>0.9343585230955647</v>
       </c>
       <c r="K13">
-        <v>0.9790966164457826</v>
+        <v>1.006148089594114</v>
       </c>
       <c r="L13">
-        <v>0.8686001802771562</v>
+        <v>0.9498990155302662</v>
       </c>
       <c r="M13">
-        <v>0.8530301443745256</v>
+        <v>0.9743674235984082</v>
       </c>
       <c r="N13">
-        <v>0.9042098683898155</v>
+        <v>0.9356854193707806</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8221202793798935</v>
+        <v>0.9036073029136239</v>
       </c>
       <c r="D14">
-        <v>0.9655639397305777</v>
+        <v>0.9927179294660838</v>
       </c>
       <c r="E14">
-        <v>0.8543159608526012</v>
+        <v>0.9366042297922231</v>
       </c>
       <c r="F14">
-        <v>0.8391521166289166</v>
+        <v>0.9612575327323919</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021061576558403</v>
+        <v>1.032870269478763</v>
       </c>
       <c r="J14">
-        <v>0.8614096186030025</v>
+        <v>0.937665535131337</v>
       </c>
       <c r="K14">
-        <v>0.9811837278707101</v>
+        <v>1.007795645200827</v>
       </c>
       <c r="L14">
-        <v>0.8726517477814199</v>
+        <v>0.9528483325375698</v>
       </c>
       <c r="M14">
-        <v>0.8579351752738134</v>
+        <v>0.9769670106501084</v>
       </c>
       <c r="N14">
-        <v>0.9071831621646986</v>
+        <v>0.9389971277429635</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8251988802179061</v>
+        <v>0.9059637799238354</v>
       </c>
       <c r="D15">
-        <v>0.9669384433629782</v>
+        <v>0.9938287517429802</v>
       </c>
       <c r="E15">
-        <v>0.856926950854163</v>
+        <v>0.9385330997371237</v>
       </c>
       <c r="F15">
-        <v>0.8422963219591211</v>
+        <v>0.9629638010988913</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021707856003329</v>
+        <v>1.033289698652938</v>
       </c>
       <c r="J15">
-        <v>0.8640016055088386</v>
+        <v>0.9396700483192025</v>
       </c>
       <c r="K15">
-        <v>0.9824364278936554</v>
+        <v>1.008795414067829</v>
       </c>
       <c r="L15">
-        <v>0.8750756488624142</v>
+        <v>0.9546363797097818</v>
       </c>
       <c r="M15">
-        <v>0.8608694771421109</v>
+        <v>0.9785436449443805</v>
       </c>
       <c r="N15">
-        <v>0.9089618102357968</v>
+        <v>0.9410044875694769</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8419053761506855</v>
+        <v>0.9191312140322346</v>
       </c>
       <c r="D16">
-        <v>0.9744815018493674</v>
+        <v>1.00006862747917</v>
       </c>
       <c r="E16">
-        <v>0.8711221347196717</v>
+        <v>0.9493291706164485</v>
       </c>
       <c r="F16">
-        <v>0.8593720991856398</v>
+        <v>0.9725255670995067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025238506548362</v>
+        <v>1.035637350396793</v>
       </c>
       <c r="J16">
-        <v>0.8780748072136561</v>
+        <v>0.9508776920711173</v>
       </c>
       <c r="K16">
-        <v>0.9892892257566692</v>
+        <v>1.014399968844396</v>
       </c>
       <c r="L16">
-        <v>0.8882412224562679</v>
+        <v>0.9646382331172227</v>
       </c>
       <c r="M16">
-        <v>0.876801917795251</v>
+        <v>0.9873710583914049</v>
       </c>
       <c r="N16">
-        <v>0.9186204670531882</v>
+        <v>0.9522280474610541</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8514960973571796</v>
+        <v>0.9269591445368375</v>
       </c>
       <c r="D17">
-        <v>0.9788713508954802</v>
+        <v>1.003803504269111</v>
       </c>
       <c r="E17">
-        <v>0.8792900550130064</v>
+        <v>0.9557611307600417</v>
       </c>
       <c r="F17">
-        <v>0.8691810837247519</v>
+        <v>0.9782310907968933</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027280118946901</v>
+        <v>1.037035360569413</v>
       </c>
       <c r="J17">
-        <v>0.8861581541709275</v>
+        <v>0.9575454868098275</v>
       </c>
       <c r="K17">
-        <v>0.9932602693085631</v>
+        <v>1.017745171326378</v>
       </c>
       <c r="L17">
-        <v>0.8958067800617192</v>
+        <v>0.9705919914822978</v>
       </c>
       <c r="M17">
-        <v>0.8859507110278944</v>
+        <v>0.9926318862732199</v>
       </c>
       <c r="N17">
-        <v>0.9241690438534642</v>
+        <v>0.9589053112331</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8568251821446375</v>
+        <v>0.9313869651951866</v>
       </c>
       <c r="D18">
-        <v>0.9813277534448525</v>
+        <v>1.00592407183573</v>
       </c>
       <c r="E18">
-        <v>0.8838341294353923</v>
+        <v>0.959403635638609</v>
       </c>
       <c r="F18">
-        <v>0.8746321100994002</v>
+        <v>0.981464998524275</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028418062530811</v>
+        <v>1.037826593178205</v>
       </c>
       <c r="J18">
-        <v>0.8906505803040259</v>
+        <v>0.9613184963471397</v>
       </c>
       <c r="K18">
-        <v>0.9954767707655826</v>
+        <v>1.019641325624278</v>
       </c>
       <c r="L18">
-        <v>0.9000124589776308</v>
+        <v>0.9739619481925142</v>
       </c>
       <c r="M18">
-        <v>0.8910334812132825</v>
+        <v>0.9956115285581485</v>
       </c>
       <c r="N18">
-        <v>0.9272529068984137</v>
+        <v>0.9626836788767252</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8586014679157614</v>
+        <v>0.9328747542934542</v>
       </c>
       <c r="D19">
-        <v>0.9821491078195687</v>
+        <v>1.006637856834488</v>
       </c>
       <c r="E19">
-        <v>0.8853496093156187</v>
+        <v>0.9606282283545318</v>
       </c>
       <c r="F19">
-        <v>0.8764490355814759</v>
+        <v>0.9825526622727248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02879781988086</v>
+        <v>1.03809249954363</v>
       </c>
       <c r="J19">
-        <v>0.8921480987139402</v>
+        <v>0.9625864723626977</v>
       </c>
       <c r="K19">
-        <v>0.9962170116960363</v>
+        <v>1.020279053480549</v>
       </c>
       <c r="L19">
-        <v>0.9014145466402357</v>
+        <v>0.9750946228855665</v>
       </c>
       <c r="M19">
-        <v>0.8927274152943775</v>
+        <v>0.9966133103945879</v>
       </c>
       <c r="N19">
-        <v>0.9282809088467142</v>
+        <v>0.9639534555636643</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8504955597678427</v>
+        <v>0.926133917560485</v>
       </c>
       <c r="D20">
-        <v>0.9784114934696896</v>
+        <v>1.003408914027067</v>
       </c>
       <c r="E20">
-        <v>0.8784373389422113</v>
+        <v>0.955082604204129</v>
       </c>
       <c r="F20">
-        <v>0.8681576758314765</v>
+        <v>0.9776288974238004</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027066724647021</v>
+        <v>1.036887925266857</v>
       </c>
       <c r="J20">
-        <v>0.885314762537563</v>
+        <v>0.9568424070148446</v>
       </c>
       <c r="K20">
-        <v>0.9928448785202434</v>
+        <v>1.017392085473016</v>
       </c>
       <c r="L20">
-        <v>0.8950173006349144</v>
+        <v>0.9699640949116819</v>
       </c>
       <c r="M20">
-        <v>0.8849963253629484</v>
+        <v>0.9920768623707517</v>
       </c>
       <c r="N20">
-        <v>0.923590101907752</v>
+        <v>0.9582012329841637</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8206243275561836</v>
+        <v>0.9024705416283524</v>
       </c>
       <c r="D21">
-        <v>0.9648978707686768</v>
+        <v>0.9921827274614112</v>
       </c>
       <c r="E21">
-        <v>0.8530477971257984</v>
+        <v>0.9356741073297374</v>
       </c>
       <c r="F21">
-        <v>0.8376246369621049</v>
+        <v>0.9604349837417275</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020748083603513</v>
+        <v>1.03266802887486</v>
       </c>
       <c r="J21">
-        <v>0.8601503007124426</v>
+        <v>0.9366987050897428</v>
       </c>
       <c r="K21">
-        <v>0.9805762430746674</v>
+        <v>1.007313729527547</v>
       </c>
       <c r="L21">
-        <v>0.8714742033824261</v>
+        <v>0.9519860026703156</v>
       </c>
       <c r="M21">
-        <v>0.8565096142088868</v>
+        <v>0.9762068043677796</v>
       </c>
       <c r="N21">
-        <v>0.9063190412191334</v>
+        <v>0.9380289246918136</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7978908336403944</v>
+        <v>0.8859125228331595</v>
       </c>
       <c r="D22">
-        <v>0.9549318357245946</v>
+        <v>0.9844371127735146</v>
       </c>
       <c r="E22">
-        <v>0.8338241059868456</v>
+        <v>0.9221537573897153</v>
       </c>
       <c r="F22">
-        <v>0.8144482050429754</v>
+        <v>0.948496091691728</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016033901470596</v>
+        <v>1.029730143249644</v>
       </c>
       <c r="J22">
-        <v>0.8410299269003169</v>
+        <v>0.9226274619340026</v>
       </c>
       <c r="K22">
-        <v>0.9714522819636162</v>
+        <v>1.000323308994944</v>
       </c>
       <c r="L22">
-        <v>0.853604762892896</v>
+        <v>0.9394429589927126</v>
       </c>
       <c r="M22">
-        <v>0.8348767700621355</v>
+        <v>0.965161882996883</v>
       </c>
       <c r="N22">
-        <v>0.8932024008274263</v>
+        <v>0.923937698756798</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8104333371360986</v>
+        <v>0.8948765011450491</v>
       </c>
       <c r="D23">
-        <v>0.9603932237492504</v>
+        <v>0.9886185313664508</v>
       </c>
       <c r="E23">
-        <v>0.8444187458694362</v>
+        <v>0.9294666757621204</v>
       </c>
       <c r="F23">
-        <v>0.8272258945301675</v>
+        <v>0.9549494325859839</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018622661597101</v>
+        <v>1.031318655505916</v>
       </c>
       <c r="J23">
-        <v>0.851574774288545</v>
+        <v>0.9302424011510321</v>
       </c>
       <c r="K23">
-        <v>0.9764602425540267</v>
+        <v>1.004100752490599</v>
       </c>
       <c r="L23">
-        <v>0.863457490715551</v>
+        <v>0.9462291379458696</v>
       </c>
       <c r="M23">
-        <v>0.8468039509729164</v>
+        <v>0.9711345262999543</v>
       </c>
       <c r="N23">
-        <v>0.9004353585486116</v>
+        <v>0.9315634520609615</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8509484657589373</v>
+        <v>0.9265072246727449</v>
       </c>
       <c r="D24">
-        <v>0.9786196005784907</v>
+        <v>1.00358738979144</v>
       </c>
       <c r="E24">
-        <v>0.8788233143824513</v>
+        <v>0.9553895352682708</v>
       </c>
       <c r="F24">
-        <v>0.8686209326358669</v>
+        <v>0.9779012905798148</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027163309595193</v>
+        <v>1.036954619092269</v>
       </c>
       <c r="J24">
-        <v>0.8856965316939125</v>
+        <v>0.9571604541930523</v>
       </c>
       <c r="K24">
-        <v>0.9930328797008392</v>
+        <v>1.017551798372815</v>
       </c>
       <c r="L24">
-        <v>0.8953746627637612</v>
+        <v>0.9702481289477259</v>
       </c>
       <c r="M24">
-        <v>0.8854283428725537</v>
+        <v>0.9923279260056068</v>
       </c>
       <c r="N24">
-        <v>0.9238521649259754</v>
+        <v>0.9585197318258452</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8875018124023127</v>
+        <v>0.9578493256158253</v>
       </c>
       <c r="D25">
-        <v>0.9956721918059863</v>
+        <v>1.018707610738616</v>
       </c>
       <c r="E25">
-        <v>0.9100619904135073</v>
+        <v>0.981231948734432</v>
       </c>
       <c r="F25">
-        <v>0.9059928739314107</v>
+        <v>1.000883258605421</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034992358108285</v>
+        <v>1.042554175721739</v>
       </c>
       <c r="J25">
-        <v>0.9165144336520965</v>
+        <v>0.9838835371875673</v>
       </c>
       <c r="K25">
-        <v>1.00833806500051</v>
+        <v>1.031022294066366</v>
       </c>
       <c r="L25">
-        <v>0.924237807306703</v>
+        <v>0.9941287734568872</v>
       </c>
       <c r="M25">
-        <v>0.9202498091443311</v>
+        <v>1.013467878578196</v>
       </c>
       <c r="N25">
-        <v>0.9450075269936675</v>
+        <v>0.9852807646633925</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9798906575194944</v>
+        <v>1.056917040774851</v>
       </c>
       <c r="D2">
-        <v>1.029481219910614</v>
+        <v>1.080868546646349</v>
       </c>
       <c r="E2">
-        <v>0.9994810698302931</v>
+        <v>1.065712736723784</v>
       </c>
       <c r="F2">
-        <v>1.017161158257422</v>
+        <v>1.082049347888282</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046474378521635</v>
+        <v>1.083088360970735</v>
       </c>
       <c r="J2">
-        <v>1.002689934680764</v>
+        <v>1.077519125929839</v>
       </c>
       <c r="K2">
-        <v>1.040544562832225</v>
+        <v>1.091305505466347</v>
       </c>
       <c r="L2">
-        <v>1.010947638911578</v>
+        <v>1.076326650954691</v>
       </c>
       <c r="M2">
-        <v>1.028386478032668</v>
+        <v>1.092472776901489</v>
       </c>
       <c r="N2">
-        <v>1.004113869398153</v>
+        <v>1.079049326681831</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9946067180140755</v>
+        <v>1.064385839022717</v>
       </c>
       <c r="D3">
-        <v>1.036725916080496</v>
+        <v>1.086173796293395</v>
       </c>
       <c r="E3">
-        <v>1.011693371144197</v>
+        <v>1.072150385849974</v>
       </c>
       <c r="F3">
-        <v>1.028072023619824</v>
+        <v>1.088276432933997</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049071663621679</v>
+        <v>1.086284780550771</v>
       </c>
       <c r="J3">
-        <v>1.015245496985775</v>
+        <v>1.083262922247959</v>
       </c>
       <c r="K3">
-        <v>1.046909495179403</v>
+        <v>1.095811166615974</v>
       </c>
       <c r="L3">
-        <v>1.022178787828134</v>
+        <v>1.081936385510412</v>
       </c>
       <c r="M3">
-        <v>1.038357888054284</v>
+        <v>1.097891921357742</v>
       </c>
       <c r="N3">
-        <v>1.016687262041781</v>
+        <v>1.084801279849545</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003633745395556</v>
+        <v>1.069077540972996</v>
       </c>
       <c r="D4">
-        <v>1.041186526022711</v>
+        <v>1.089510936852558</v>
       </c>
       <c r="E4">
-        <v>1.019193901226839</v>
+        <v>1.076195639404042</v>
       </c>
       <c r="F4">
-        <v>1.034778876316101</v>
+        <v>1.092193293618068</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050653139624249</v>
+        <v>1.088281779297268</v>
       </c>
       <c r="J4">
-        <v>1.02294495413243</v>
+        <v>1.086865334370264</v>
       </c>
       <c r="K4">
-        <v>1.050812034363434</v>
+        <v>1.098636971514291</v>
       </c>
       <c r="L4">
-        <v>1.029066063091015</v>
+        <v>1.085453849748844</v>
       </c>
       <c r="M4">
-        <v>1.044474917054621</v>
+        <v>1.101293174400002</v>
       </c>
       <c r="N4">
-        <v>1.024397653300724</v>
+        <v>1.088408807810266</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007322302398721</v>
+        <v>1.071017981204245</v>
       </c>
       <c r="D5">
-        <v>1.043012276281496</v>
+        <v>1.090892108164492</v>
       </c>
       <c r="E5">
-        <v>1.022260509869063</v>
+        <v>1.077868952147265</v>
       </c>
       <c r="F5">
-        <v>1.037522026252371</v>
+        <v>1.093814407839944</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051296222053604</v>
+        <v>1.089105043990445</v>
       </c>
       <c r="J5">
-        <v>1.026090257843666</v>
+        <v>1.08835384139064</v>
       </c>
       <c r="K5">
-        <v>1.052405583905459</v>
+        <v>1.099804522626511</v>
       </c>
       <c r="L5">
-        <v>1.031879436879702</v>
+        <v>1.086907035633266</v>
       </c>
       <c r="M5">
-        <v>1.046973949380787</v>
+        <v>1.102699119931169</v>
       </c>
       <c r="N5">
-        <v>1.027547423704002</v>
+        <v>1.089899428681345</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007935703500086</v>
+        <v>1.071341966514766</v>
       </c>
       <c r="D6">
-        <v>1.043316053608959</v>
+        <v>1.091122768529952</v>
       </c>
       <c r="E6">
-        <v>1.022770576152502</v>
+        <v>1.07814834846559</v>
       </c>
       <c r="F6">
-        <v>1.037978344727951</v>
+        <v>1.094085141220791</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05140297308055</v>
+        <v>1.089242341420764</v>
       </c>
       <c r="J6">
-        <v>1.026613263889749</v>
+        <v>1.088602285210478</v>
       </c>
       <c r="K6">
-        <v>1.052670508059519</v>
+        <v>1.099999391237739</v>
       </c>
       <c r="L6">
-        <v>1.032347236761706</v>
+        <v>1.087149570717698</v>
       </c>
       <c r="M6">
-        <v>1.047389492259431</v>
+        <v>1.10293381542236</v>
       </c>
       <c r="N6">
-        <v>1.02807117247866</v>
+        <v>1.090148225319904</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003683435623365</v>
+        <v>1.06910359246544</v>
       </c>
       <c r="D7">
-        <v>1.041211110356585</v>
+        <v>1.089529476187678</v>
       </c>
       <c r="E7">
-        <v>1.019235206297789</v>
+        <v>1.07621810371584</v>
       </c>
       <c r="F7">
-        <v>1.034815820883317</v>
+        <v>1.092215053594479</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050661815703135</v>
+        <v>1.088292842738992</v>
       </c>
       <c r="J7">
-        <v>1.022987329386668</v>
+        <v>1.086885324065957</v>
       </c>
       <c r="K7">
-        <v>1.050833506868184</v>
+        <v>1.098652651291109</v>
       </c>
       <c r="L7">
-        <v>1.029103967156582</v>
+        <v>1.085473365995359</v>
       </c>
       <c r="M7">
-        <v>1.044508585185158</v>
+        <v>1.101312053184396</v>
       </c>
       <c r="N7">
-        <v>1.024440088732684</v>
+        <v>1.08842882589362</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9849745839626016</v>
+        <v>1.059471524388752</v>
       </c>
       <c r="D8">
-        <v>1.031979860274493</v>
+        <v>1.082682020382642</v>
       </c>
       <c r="E8">
-        <v>1.003697721930566</v>
+        <v>1.067914226657292</v>
       </c>
       <c r="F8">
-        <v>1.020927031655876</v>
+        <v>1.0841779851646</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047373962281437</v>
+        <v>1.084183868307518</v>
       </c>
       <c r="J8">
-        <v>1.007027804762028</v>
+        <v>1.079484792407186</v>
       </c>
       <c r="K8">
-        <v>1.042743390910129</v>
+        <v>1.092847436841335</v>
       </c>
       <c r="L8">
-        <v>1.014827837114233</v>
+        <v>1.078246612989145</v>
       </c>
       <c r="M8">
-        <v>1.031830802208316</v>
+        <v>1.094326799778422</v>
       </c>
       <c r="N8">
-        <v>1.008457899752494</v>
+        <v>1.081017784631041</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9475226072515273</v>
+        <v>1.041326938977047</v>
       </c>
       <c r="D9">
-        <v>1.013697546382336</v>
+        <v>1.069825945681486</v>
       </c>
       <c r="E9">
-        <v>0.9727021409639593</v>
+        <v>1.052285924667406</v>
       </c>
       <c r="F9">
-        <v>0.9932877759675844</v>
+        <v>1.069085150004778</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040710417613731</v>
+        <v>1.076357837894733</v>
       </c>
       <c r="J9">
-        <v>0.975075010875037</v>
+        <v>1.065500236318458</v>
       </c>
       <c r="K9">
-        <v>1.026572231860826</v>
+        <v>1.081879342047304</v>
       </c>
       <c r="L9">
-        <v>0.9862541982717921</v>
+        <v>1.064584062971894</v>
       </c>
       <c r="M9">
-        <v>1.006490701224029</v>
+        <v>1.081148678357621</v>
       </c>
       <c r="N9">
-        <v>0.9764597292331464</v>
+        <v>1.067013368868615</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9182267155683669</v>
+        <v>1.028300013651049</v>
       </c>
       <c r="D10">
-        <v>0.9996382603802016</v>
+        <v>1.060635018821937</v>
       </c>
       <c r="E10">
-        <v>0.9485866183563021</v>
+        <v>1.041081326616151</v>
       </c>
       <c r="F10">
-        <v>0.9718672976831102</v>
+        <v>1.058289590759782</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035475904719148</v>
+        <v>1.070685053673391</v>
       </c>
       <c r="J10">
-        <v>0.9501074667314988</v>
+        <v>1.055434122706398</v>
       </c>
       <c r="K10">
-        <v>1.014014049220635</v>
+        <v>1.073989481071925</v>
       </c>
       <c r="L10">
-        <v>0.9639506413479654</v>
+        <v>1.054746451096251</v>
       </c>
       <c r="M10">
-        <v>0.9867637790995849</v>
+        <v>1.071680541667137</v>
       </c>
       <c r="N10">
-        <v>0.9514567283131071</v>
+        <v>1.056932960220627</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9040593960458454</v>
+        <v>1.022401169016753</v>
       </c>
       <c r="D11">
-        <v>0.9929309000486546</v>
+        <v>1.056484985359198</v>
       </c>
       <c r="E11">
-        <v>0.9369742077771674</v>
+        <v>1.036012970856128</v>
       </c>
       <c r="F11">
-        <v>0.9615847630681633</v>
+        <v>1.053412852825529</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032950717959509</v>
+        <v>1.068104557643092</v>
       </c>
       <c r="J11">
-        <v>0.9380500724634102</v>
+        <v>1.050870840059736</v>
       </c>
       <c r="K11">
-        <v>1.007987372011575</v>
+        <v>1.07041489354214</v>
       </c>
       <c r="L11">
-        <v>0.9531913239180001</v>
+        <v>1.050286257316734</v>
       </c>
       <c r="M11">
-        <v>0.9772694123060164</v>
+        <v>1.067393195034587</v>
       </c>
       <c r="N11">
-        <v>0.9393822111621554</v>
+        <v>1.052363197189191</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8985154074848388</v>
+        <v>1.020167622541448</v>
       </c>
       <c r="D12">
-        <v>0.9903239734819189</v>
+        <v>1.054915623003586</v>
       </c>
       <c r="E12">
-        <v>0.9324397939485991</v>
+        <v>1.034094829779885</v>
       </c>
       <c r="F12">
-        <v>0.9575759304751477</v>
+        <v>1.051568279361891</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031964867909443</v>
+        <v>1.067125815244084</v>
       </c>
       <c r="J12">
-        <v>0.9333355683513882</v>
+        <v>1.049142315344041</v>
       </c>
       <c r="K12">
-        <v>1.005638928777656</v>
+        <v>1.069061286494347</v>
       </c>
       <c r="L12">
-        <v>0.9489868543492153</v>
+        <v>1.048596734381815</v>
       </c>
       <c r="M12">
-        <v>0.9735636861866408</v>
+        <v>1.065769988289217</v>
       </c>
       <c r="N12">
-        <v>0.9346610119135333</v>
+        <v>1.050632217770136</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8997185766562769</v>
+        <v>1.020648711219781</v>
       </c>
       <c r="D13">
-        <v>0.9908888561940519</v>
+        <v>1.055253556640252</v>
       </c>
       <c r="E13">
-        <v>0.933423377746795</v>
+        <v>1.034507937175136</v>
       </c>
       <c r="F13">
-        <v>0.9584451963924989</v>
+        <v>1.051965494250924</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032178688558287</v>
+        <v>1.067336701903598</v>
       </c>
       <c r="J13">
-        <v>0.9343585230955647</v>
+        <v>1.049514655123682</v>
       </c>
       <c r="K13">
-        <v>1.006148089594114</v>
+        <v>1.069352845592196</v>
       </c>
       <c r="L13">
-        <v>0.9498990155302662</v>
+        <v>1.048960674477094</v>
       </c>
       <c r="M13">
-        <v>0.9743674235984082</v>
+        <v>1.066119604547782</v>
       </c>
       <c r="N13">
-        <v>0.9356854193707806</v>
+        <v>1.051005086314971</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9036073029136239</v>
+        <v>1.022217432364853</v>
       </c>
       <c r="D14">
-        <v>0.9927179294660838</v>
+        <v>1.056355843757256</v>
       </c>
       <c r="E14">
-        <v>0.9366042297922231</v>
+        <v>1.035855160023763</v>
       </c>
       <c r="F14">
-        <v>0.9612575327323919</v>
+        <v>1.05326107297487</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032870269478763</v>
+        <v>1.06802407705934</v>
       </c>
       <c r="J14">
-        <v>0.937665535131337</v>
+        <v>1.050728660790759</v>
       </c>
       <c r="K14">
-        <v>1.007795645200827</v>
+        <v>1.070303544149147</v>
       </c>
       <c r="L14">
-        <v>0.9528483325375698</v>
+        <v>1.050147286913369</v>
       </c>
       <c r="M14">
-        <v>0.9769670106501084</v>
+        <v>1.067259662110553</v>
       </c>
       <c r="N14">
-        <v>0.9389971277429635</v>
+        <v>1.052220816009344</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9059637799238354</v>
+        <v>1.02317822970539</v>
       </c>
       <c r="D15">
-        <v>0.9938287517429802</v>
+        <v>1.057031235415124</v>
       </c>
       <c r="E15">
-        <v>0.9385330997371237</v>
+        <v>1.036680425300615</v>
       </c>
       <c r="F15">
-        <v>0.9629638010988913</v>
+        <v>1.054054842479945</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033289698652938</v>
+        <v>1.068444860051643</v>
       </c>
       <c r="J15">
-        <v>0.9396700483192025</v>
+        <v>1.051472118977491</v>
       </c>
       <c r="K15">
-        <v>1.008795414067829</v>
+        <v>1.070885809526874</v>
       </c>
       <c r="L15">
-        <v>0.9546363797097818</v>
+        <v>1.050873964133249</v>
       </c>
       <c r="M15">
-        <v>0.9785436449443805</v>
+        <v>1.067957941155821</v>
       </c>
       <c r="N15">
-        <v>0.9410044875694769</v>
+        <v>1.052965329991977</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9191312140322346</v>
+        <v>1.028685759530363</v>
       </c>
       <c r="D16">
-        <v>1.00006862747917</v>
+        <v>1.06090666748768</v>
       </c>
       <c r="E16">
-        <v>0.9493291706164485</v>
+        <v>1.041412885973879</v>
       </c>
       <c r="F16">
-        <v>0.9725255670995067</v>
+        <v>1.058608756177708</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035637350396793</v>
+        <v>1.070853566746437</v>
       </c>
       <c r="J16">
-        <v>0.9508776920711173</v>
+        <v>1.055732432854613</v>
       </c>
       <c r="K16">
-        <v>1.014399968844396</v>
+        <v>1.07422320983099</v>
       </c>
       <c r="L16">
-        <v>0.9646382331172227</v>
+        <v>1.055038014072539</v>
       </c>
       <c r="M16">
-        <v>0.9873710583914049</v>
+        <v>1.071960919217597</v>
       </c>
       <c r="N16">
-        <v>0.9522280474610541</v>
+        <v>1.057231694003469</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9269591445368375</v>
+        <v>1.032068935860553</v>
       </c>
       <c r="D17">
-        <v>1.003803504269111</v>
+        <v>1.063290513390096</v>
       </c>
       <c r="E17">
-        <v>0.9557611307600417</v>
+        <v>1.044321435101925</v>
       </c>
       <c r="F17">
-        <v>0.9782310907968933</v>
+        <v>1.061409331871551</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037035360569413</v>
+        <v>1.072330193393392</v>
       </c>
       <c r="J17">
-        <v>0.9575454868098275</v>
+        <v>1.058348185322119</v>
       </c>
       <c r="K17">
-        <v>1.017745171326378</v>
+        <v>1.076272926306203</v>
       </c>
       <c r="L17">
-        <v>0.9705919914822978</v>
+        <v>1.057594550299296</v>
       </c>
       <c r="M17">
-        <v>0.9926318862732199</v>
+        <v>1.074419983066274</v>
       </c>
       <c r="N17">
-        <v>0.9589053112331</v>
+        <v>1.05985116113951</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9313869651951866</v>
+        <v>1.03401765443504</v>
       </c>
       <c r="D18">
-        <v>1.00592407183573</v>
+        <v>1.064664706176397</v>
       </c>
       <c r="E18">
-        <v>0.959403635638609</v>
+        <v>1.045997254629366</v>
       </c>
       <c r="F18">
-        <v>0.981464998524275</v>
+        <v>1.063023555621384</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037826593178205</v>
+        <v>1.073179623423466</v>
       </c>
       <c r="J18">
-        <v>0.9613184963471397</v>
+        <v>1.059854375127786</v>
       </c>
       <c r="K18">
-        <v>1.019641325624278</v>
+        <v>1.077453377905578</v>
       </c>
       <c r="L18">
-        <v>0.9739619481925142</v>
+        <v>1.059066593791492</v>
       </c>
       <c r="M18">
-        <v>0.9956115285581485</v>
+        <v>1.075836400157163</v>
       </c>
       <c r="N18">
-        <v>0.9626836788767252</v>
+        <v>1.061359489907463</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9328747542934542</v>
+        <v>1.034678043365711</v>
       </c>
       <c r="D19">
-        <v>1.006637856834488</v>
+        <v>1.065130576113585</v>
       </c>
       <c r="E19">
-        <v>0.9606282283545318</v>
+        <v>1.046565241030429</v>
       </c>
       <c r="F19">
-        <v>0.9825526622727248</v>
+        <v>1.063570768061116</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03809249954363</v>
+        <v>1.073467290039126</v>
       </c>
       <c r="J19">
-        <v>0.9625864723626977</v>
+        <v>1.060364712383282</v>
       </c>
       <c r="K19">
-        <v>1.020279053480549</v>
+        <v>1.077853376753713</v>
       </c>
       <c r="L19">
-        <v>0.9750946228855665</v>
+        <v>1.059565352344497</v>
       </c>
       <c r="M19">
-        <v>0.9966133103945879</v>
+        <v>1.076316394660313</v>
       </c>
       <c r="N19">
-        <v>0.9639534555636643</v>
+        <v>1.061870551900399</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.926133917560485</v>
+        <v>1.031708525817357</v>
       </c>
       <c r="D20">
-        <v>1.003408914027067</v>
+        <v>1.063036447069551</v>
       </c>
       <c r="E20">
-        <v>0.955082604204129</v>
+        <v>1.044011535452815</v>
       </c>
       <c r="F20">
-        <v>0.9776288974238004</v>
+        <v>1.061110872217344</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036887925266857</v>
+        <v>1.072173002987915</v>
       </c>
       <c r="J20">
-        <v>0.9568424070148446</v>
+        <v>1.058069579344842</v>
       </c>
       <c r="K20">
-        <v>1.017392085473016</v>
+        <v>1.076054588536355</v>
       </c>
       <c r="L20">
-        <v>0.9699640949116819</v>
+        <v>1.057322256372426</v>
       </c>
       <c r="M20">
-        <v>0.9920768623707517</v>
+        <v>1.0741580187983</v>
       </c>
       <c r="N20">
-        <v>0.9582012329841637</v>
+        <v>1.059572159509788</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9024705416283524</v>
+        <v>1.021756686931035</v>
       </c>
       <c r="D21">
-        <v>0.9921827274614112</v>
+        <v>1.056032036277503</v>
       </c>
       <c r="E21">
-        <v>0.9356741073297374</v>
+        <v>1.035459443006539</v>
       </c>
       <c r="F21">
-        <v>0.9604349837417275</v>
+        <v>1.052880495965784</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03266802887486</v>
+        <v>1.06782223439426</v>
       </c>
       <c r="J21">
-        <v>0.9366987050897428</v>
+        <v>1.050372115785498</v>
       </c>
       <c r="K21">
-        <v>1.007313729527547</v>
+        <v>1.070024318582847</v>
       </c>
       <c r="L21">
-        <v>0.9519860026703156</v>
+        <v>1.049798788167692</v>
       </c>
       <c r="M21">
-        <v>0.9762068043677796</v>
+        <v>1.066924812710399</v>
       </c>
       <c r="N21">
-        <v>0.9380289246918136</v>
+        <v>1.051863764669279</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8859125228331595</v>
+        <v>1.015251762190652</v>
       </c>
       <c r="D22">
-        <v>0.9844371127735146</v>
+        <v>1.05146558041789</v>
       </c>
       <c r="E22">
-        <v>0.9221537573897153</v>
+        <v>1.029875084684949</v>
       </c>
       <c r="F22">
-        <v>0.948496091691728</v>
+        <v>1.047512382343128</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029730143249644</v>
+        <v>1.064968744347794</v>
       </c>
       <c r="J22">
-        <v>0.9226274619340026</v>
+        <v>1.045336835954084</v>
       </c>
       <c r="K22">
-        <v>1.000323308994944</v>
+        <v>1.066082081503262</v>
       </c>
       <c r="L22">
-        <v>0.9394429589927126</v>
+        <v>1.044877067105021</v>
       </c>
       <c r="M22">
-        <v>0.965161882996883</v>
+        <v>1.062197924687345</v>
       </c>
       <c r="N22">
-        <v>0.923937698756798</v>
+        <v>1.04682133416295</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8948765011450491</v>
+        <v>1.018724993345018</v>
       </c>
       <c r="D23">
-        <v>0.9886185313664508</v>
+        <v>1.053902584228932</v>
       </c>
       <c r="E23">
-        <v>0.9294666757621204</v>
+        <v>1.032856206047802</v>
       </c>
       <c r="F23">
-        <v>0.9549494325859839</v>
+        <v>1.050377464910102</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031318655505916</v>
+        <v>1.066493199864959</v>
       </c>
       <c r="J23">
-        <v>0.9302424011510321</v>
+        <v>1.048025697699428</v>
       </c>
       <c r="K23">
-        <v>1.004100752490599</v>
+        <v>1.068186991284635</v>
       </c>
       <c r="L23">
-        <v>0.9462291379458696</v>
+        <v>1.047505302135929</v>
       </c>
       <c r="M23">
-        <v>0.9711345262999543</v>
+        <v>1.064721638980402</v>
       </c>
       <c r="N23">
-        <v>0.9315634520609615</v>
+        <v>1.049514014400388</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9265072246727449</v>
+        <v>1.031871455446786</v>
       </c>
       <c r="D24">
-        <v>1.00358738979144</v>
+        <v>1.063151298796951</v>
       </c>
       <c r="E24">
-        <v>0.9553895352682708</v>
+        <v>1.044151629476596</v>
       </c>
       <c r="F24">
-        <v>0.9779012905798148</v>
+        <v>1.061245792740973</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036954619092269</v>
+        <v>1.072244067103791</v>
       </c>
       <c r="J24">
-        <v>0.9571604541930523</v>
+        <v>1.058195529554406</v>
       </c>
       <c r="K24">
-        <v>1.017551798372815</v>
+        <v>1.076153292527383</v>
       </c>
       <c r="L24">
-        <v>0.9702481289477259</v>
+        <v>1.05744535322846</v>
       </c>
       <c r="M24">
-        <v>0.9923279260056068</v>
+        <v>1.074276444345978</v>
       </c>
       <c r="N24">
-        <v>0.9585197318258452</v>
+        <v>1.059698288583097</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9578493256158253</v>
+        <v>1.04617032019434</v>
       </c>
       <c r="D25">
-        <v>1.018707610738616</v>
+        <v>1.073251747193626</v>
       </c>
       <c r="E25">
-        <v>0.981231948734432</v>
+        <v>1.056455408883756</v>
       </c>
       <c r="F25">
-        <v>1.000883258605421</v>
+        <v>1.073107683156636</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042554175721739</v>
+        <v>1.078456384492722</v>
       </c>
       <c r="J25">
-        <v>0.9838835371875673</v>
+        <v>1.069237868322655</v>
       </c>
       <c r="K25">
-        <v>1.031022294066366</v>
+        <v>1.084810202412788</v>
       </c>
       <c r="L25">
-        <v>0.9941287734568872</v>
+        <v>1.068236272119919</v>
       </c>
       <c r="M25">
-        <v>1.013467878578196</v>
+        <v>1.084668008929788</v>
       </c>
       <c r="N25">
-        <v>0.9852807646633925</v>
+        <v>1.070756308738971</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.056917040774851</v>
+        <v>1.086674137469346</v>
       </c>
       <c r="D2">
-        <v>1.080868546646349</v>
+        <v>1.089176986687104</v>
       </c>
       <c r="E2">
-        <v>1.065712736723784</v>
+        <v>1.089112650765332</v>
       </c>
       <c r="F2">
-        <v>1.082049347888282</v>
+        <v>1.10028235738999</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.083088360970735</v>
+        <v>1.07130208120365</v>
       </c>
       <c r="J2">
-        <v>1.077519125929839</v>
+        <v>1.09152294714848</v>
       </c>
       <c r="K2">
-        <v>1.091305505466347</v>
+        <v>1.091827776155915</v>
       </c>
       <c r="L2">
-        <v>1.076326650954691</v>
+        <v>1.091763605515123</v>
       </c>
       <c r="M2">
-        <v>1.092472776901489</v>
+        <v>1.102904928915404</v>
       </c>
       <c r="N2">
-        <v>1.079049326681831</v>
+        <v>1.093073034932863</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.064385839022717</v>
+        <v>1.088138859816106</v>
       </c>
       <c r="D3">
-        <v>1.086173796293395</v>
+        <v>1.090206265893598</v>
       </c>
       <c r="E3">
-        <v>1.072150385849974</v>
+        <v>1.090392534083969</v>
       </c>
       <c r="F3">
-        <v>1.088276432933997</v>
+        <v>1.101525422823523</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.086284780550771</v>
+        <v>1.071829409084944</v>
       </c>
       <c r="J3">
-        <v>1.083262922247959</v>
+        <v>1.092648973132491</v>
       </c>
       <c r="K3">
-        <v>1.095811166615974</v>
+        <v>1.092676436901878</v>
       </c>
       <c r="L3">
-        <v>1.081936385510412</v>
+        <v>1.092862261228252</v>
       </c>
       <c r="M3">
-        <v>1.097891921357742</v>
+        <v>1.103968913522419</v>
       </c>
       <c r="N3">
-        <v>1.084801279849545</v>
+        <v>1.094200660002928</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.069077540972996</v>
+        <v>1.089085242288455</v>
       </c>
       <c r="D4">
-        <v>1.089510936852558</v>
+        <v>1.090871291718197</v>
       </c>
       <c r="E4">
-        <v>1.076195639404042</v>
+        <v>1.091219195359617</v>
       </c>
       <c r="F4">
-        <v>1.092193293618068</v>
+        <v>1.102328715229903</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.088281779297268</v>
+        <v>1.072168729291139</v>
       </c>
       <c r="J4">
-        <v>1.086865334370264</v>
+        <v>1.093375705332727</v>
       </c>
       <c r="K4">
-        <v>1.098636971514291</v>
+        <v>1.093223978314146</v>
       </c>
       <c r="L4">
-        <v>1.085453849748844</v>
+        <v>1.093571094736764</v>
       </c>
       <c r="M4">
-        <v>1.101293174400002</v>
+        <v>1.104655756013036</v>
       </c>
       <c r="N4">
-        <v>1.088408807810266</v>
+        <v>1.094928424246246</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.071017981204245</v>
+        <v>1.089482775171832</v>
       </c>
       <c r="D5">
-        <v>1.090892108164492</v>
+        <v>1.091150635698331</v>
       </c>
       <c r="E5">
-        <v>1.077868952147265</v>
+        <v>1.091566367948941</v>
       </c>
       <c r="F5">
-        <v>1.093814407839944</v>
+        <v>1.102666171606144</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.089105043990445</v>
+        <v>1.072310928051395</v>
       </c>
       <c r="J5">
-        <v>1.08835384139064</v>
+        <v>1.093680778117489</v>
       </c>
       <c r="K5">
-        <v>1.099804522626511</v>
+        <v>1.093453785250114</v>
       </c>
       <c r="L5">
-        <v>1.086907035633266</v>
+        <v>1.093868597784011</v>
       </c>
       <c r="M5">
-        <v>1.102699119931169</v>
+        <v>1.104944119503632</v>
       </c>
       <c r="N5">
-        <v>1.089899428681345</v>
+        <v>1.095233930269355</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.071341966514766</v>
+        <v>1.089549503750289</v>
       </c>
       <c r="D6">
-        <v>1.091122768529952</v>
+        <v>1.09119752522212</v>
       </c>
       <c r="E6">
-        <v>1.07814834846559</v>
+        <v>1.091624639045918</v>
       </c>
       <c r="F6">
-        <v>1.094085141220791</v>
+        <v>1.102722817621281</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.089242341420764</v>
+        <v>1.07233477744779</v>
       </c>
       <c r="J6">
-        <v>1.088602285210478</v>
+        <v>1.09373197520782</v>
       </c>
       <c r="K6">
-        <v>1.099999391237739</v>
+        <v>1.093492348688628</v>
       </c>
       <c r="L6">
-        <v>1.087149570717698</v>
+        <v>1.093918521234404</v>
       </c>
       <c r="M6">
-        <v>1.10293381542236</v>
+        <v>1.104992514546312</v>
       </c>
       <c r="N6">
-        <v>1.090148225319904</v>
+        <v>1.095285200065426</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.06910359246544</v>
+        <v>1.089090555416198</v>
       </c>
       <c r="D7">
-        <v>1.089529476187678</v>
+        <v>1.090875025237055</v>
       </c>
       <c r="E7">
-        <v>1.07621810371584</v>
+        <v>1.09122383568813</v>
       </c>
       <c r="F7">
-        <v>1.092215053594479</v>
+        <v>1.102333225306316</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.088292842738992</v>
+        <v>1.07217063112875</v>
       </c>
       <c r="J7">
-        <v>1.086885324065957</v>
+        <v>1.093379783474128</v>
       </c>
       <c r="K7">
-        <v>1.098652651291109</v>
+        <v>1.093227050492669</v>
       </c>
       <c r="L7">
-        <v>1.085473365995359</v>
+        <v>1.093575071908338</v>
       </c>
       <c r="M7">
-        <v>1.101312053184396</v>
+        <v>1.104659610647877</v>
       </c>
       <c r="N7">
-        <v>1.08842882589362</v>
+        <v>1.094932508179076</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.059471524388752</v>
+        <v>1.087169439241698</v>
       </c>
       <c r="D8">
-        <v>1.082682020382642</v>
+        <v>1.089525042716273</v>
       </c>
       <c r="E8">
-        <v>1.067914226657292</v>
+        <v>1.089545508994719</v>
       </c>
       <c r="F8">
-        <v>1.0841779851646</v>
+        <v>1.100702678191781</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.084183868307518</v>
+        <v>1.071480688257489</v>
       </c>
       <c r="J8">
-        <v>1.079484792407186</v>
+        <v>1.091903885640143</v>
       </c>
       <c r="K8">
-        <v>1.092847436841335</v>
+        <v>1.092114918065578</v>
       </c>
       <c r="L8">
-        <v>1.078246612989145</v>
+        <v>1.092135333053762</v>
       </c>
       <c r="M8">
-        <v>1.094326799778422</v>
+        <v>1.10326484693358</v>
       </c>
       <c r="N8">
-        <v>1.081017784631041</v>
+        <v>1.093454514400878</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.041326938977047</v>
+        <v>1.083773235947076</v>
       </c>
       <c r="D9">
-        <v>1.069825945681486</v>
+        <v>1.087138494432813</v>
       </c>
       <c r="E9">
-        <v>1.052285924667406</v>
+        <v>1.08657628443614</v>
       </c>
       <c r="F9">
-        <v>1.069085150004778</v>
+        <v>1.09782116657297</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.076357837894733</v>
+        <v>1.070250285764345</v>
       </c>
       <c r="J9">
-        <v>1.065500236318458</v>
+        <v>1.089288522725351</v>
       </c>
       <c r="K9">
-        <v>1.081879342047304</v>
+        <v>1.090142805227712</v>
       </c>
       <c r="L9">
-        <v>1.064584062971894</v>
+        <v>1.089582246996677</v>
       </c>
       <c r="M9">
-        <v>1.081148678357621</v>
+        <v>1.100794441212153</v>
       </c>
       <c r="N9">
-        <v>1.067013368868615</v>
+        <v>1.090835437370761</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.028300013651049</v>
+        <v>1.081501317524365</v>
       </c>
       <c r="D10">
-        <v>1.060635018821937</v>
+        <v>1.085542068436278</v>
       </c>
       <c r="E10">
-        <v>1.041081326616151</v>
+        <v>1.084588527265302</v>
       </c>
       <c r="F10">
-        <v>1.058289590759782</v>
+        <v>1.095894301205078</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.070685053673391</v>
+        <v>1.06942001914685</v>
       </c>
       <c r="J10">
-        <v>1.055434122706398</v>
+        <v>1.087534780377982</v>
       </c>
       <c r="K10">
-        <v>1.073989481071925</v>
+        <v>1.088819521427007</v>
       </c>
       <c r="L10">
-        <v>1.054746451096251</v>
+        <v>1.087869057646891</v>
       </c>
       <c r="M10">
-        <v>1.071680541667137</v>
+        <v>1.099138721152878</v>
       </c>
       <c r="N10">
-        <v>1.056932960220627</v>
+        <v>1.089079204508102</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.022401169016753</v>
+        <v>1.080515611773591</v>
       </c>
       <c r="D11">
-        <v>1.056484985359198</v>
+        <v>1.084849471005537</v>
       </c>
       <c r="E11">
-        <v>1.036012970856128</v>
+        <v>1.083725767345164</v>
       </c>
       <c r="F11">
-        <v>1.053412852825529</v>
+        <v>1.095058492387221</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.068104557643092</v>
+        <v>1.069058097373697</v>
       </c>
       <c r="J11">
-        <v>1.050870840059736</v>
+        <v>1.086772906776822</v>
       </c>
       <c r="K11">
-        <v>1.07041489354214</v>
+        <v>1.088244451709923</v>
       </c>
       <c r="L11">
-        <v>1.050286257316734</v>
+        <v>1.087124515801567</v>
       </c>
       <c r="M11">
-        <v>1.067393195034587</v>
+        <v>1.098419631026077</v>
       </c>
       <c r="N11">
-        <v>1.052363197189191</v>
+        <v>1.08831624895904</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.020167622541448</v>
+        <v>1.080149175613176</v>
       </c>
       <c r="D12">
-        <v>1.054915623003586</v>
+        <v>1.084592004768918</v>
       </c>
       <c r="E12">
-        <v>1.034094829779885</v>
+        <v>1.08340498552744</v>
       </c>
       <c r="F12">
-        <v>1.051568279361891</v>
+        <v>1.094747810185615</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.067125815244084</v>
+        <v>1.068923298166615</v>
       </c>
       <c r="J12">
-        <v>1.049142315344041</v>
+        <v>1.086489532349238</v>
       </c>
       <c r="K12">
-        <v>1.069061286494347</v>
+        <v>1.088030528699602</v>
       </c>
       <c r="L12">
-        <v>1.048596734381815</v>
+        <v>1.086847544972318</v>
       </c>
       <c r="M12">
-        <v>1.065769988289217</v>
+        <v>1.098152200139817</v>
       </c>
       <c r="N12">
-        <v>1.050632217770136</v>
+        <v>1.088032472107265</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.020648711219781</v>
+        <v>1.080227791173326</v>
       </c>
       <c r="D13">
-        <v>1.055253556640252</v>
+        <v>1.084647241482626</v>
       </c>
       <c r="E13">
-        <v>1.034507937175136</v>
+        <v>1.083473808649998</v>
       </c>
       <c r="F13">
-        <v>1.051965494250924</v>
+        <v>1.094814462873532</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.067336701903598</v>
+        <v>1.068952229637502</v>
       </c>
       <c r="J13">
-        <v>1.049514655123682</v>
+        <v>1.086550334452972</v>
       </c>
       <c r="K13">
-        <v>1.069352845592196</v>
+        <v>1.088076430301345</v>
       </c>
       <c r="L13">
-        <v>1.048960674477094</v>
+        <v>1.086906975028534</v>
       </c>
       <c r="M13">
-        <v>1.066119604547782</v>
+        <v>1.098209579938872</v>
       </c>
       <c r="N13">
-        <v>1.051005086314971</v>
+        <v>1.088093360556961</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.022217432364853</v>
+        <v>1.080485328237253</v>
       </c>
       <c r="D14">
-        <v>1.056355843757256</v>
+        <v>1.084828192966767</v>
       </c>
       <c r="E14">
-        <v>1.035855160023763</v>
+        <v>1.083699257871922</v>
       </c>
       <c r="F14">
-        <v>1.05326107297487</v>
+        <v>1.095032815934846</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.06802407705934</v>
+        <v>1.069046962300397</v>
       </c>
       <c r="J14">
-        <v>1.050728660790759</v>
+        <v>1.086749490760067</v>
       </c>
       <c r="K14">
-        <v>1.070303544149147</v>
+        <v>1.08822677524804</v>
       </c>
       <c r="L14">
-        <v>1.050147286913369</v>
+        <v>1.087101629805304</v>
       </c>
       <c r="M14">
-        <v>1.067259662110553</v>
+        <v>1.098397531844414</v>
       </c>
       <c r="N14">
-        <v>1.052220816009344</v>
+        <v>1.088292799688856</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.02317822970539</v>
+        <v>1.080643965170454</v>
       </c>
       <c r="D15">
-        <v>1.057031235415124</v>
+        <v>1.084939655894752</v>
       </c>
       <c r="E15">
-        <v>1.036680425300615</v>
+        <v>1.083838122720524</v>
       </c>
       <c r="F15">
-        <v>1.054054842479945</v>
+        <v>1.095167320397087</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.068444860051643</v>
+        <v>1.069105281714283</v>
       </c>
       <c r="J15">
-        <v>1.051472118977491</v>
+        <v>1.08687214690439</v>
       </c>
       <c r="K15">
-        <v>1.070885809526874</v>
+        <v>1.08831936566601</v>
       </c>
       <c r="L15">
-        <v>1.050873964133249</v>
+        <v>1.087221507879901</v>
       </c>
       <c r="M15">
-        <v>1.067957941155821</v>
+        <v>1.0985132914852</v>
       </c>
       <c r="N15">
-        <v>1.052965329991977</v>
+        <v>1.088415630018972</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.028685759530363</v>
+        <v>1.081566693785903</v>
       </c>
       <c r="D16">
-        <v>1.06090666748768</v>
+        <v>1.085588005371514</v>
       </c>
       <c r="E16">
-        <v>1.041412885973879</v>
+        <v>1.084645742082047</v>
       </c>
       <c r="F16">
-        <v>1.058608756177708</v>
+        <v>1.095949739763135</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.070853566746437</v>
+        <v>1.069443987641381</v>
       </c>
       <c r="J16">
-        <v>1.055732432854613</v>
+        <v>1.087585290386613</v>
       </c>
       <c r="K16">
-        <v>1.07422320983099</v>
+        <v>1.088857642752351</v>
       </c>
       <c r="L16">
-        <v>1.055038014072539</v>
+        <v>1.087918412606279</v>
       </c>
       <c r="M16">
-        <v>1.071960919217597</v>
+        <v>1.099186398985712</v>
       </c>
       <c r="N16">
-        <v>1.057231694003469</v>
+        <v>1.089129786246738</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.032068935860553</v>
+        <v>1.082144969218944</v>
       </c>
       <c r="D17">
-        <v>1.063290513390096</v>
+        <v>1.085994337627199</v>
       </c>
       <c r="E17">
-        <v>1.044321435101925</v>
+        <v>1.085151787369005</v>
       </c>
       <c r="F17">
-        <v>1.061409331871551</v>
+        <v>1.09644013493227</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.072330193393392</v>
+        <v>1.069655801256036</v>
       </c>
       <c r="J17">
-        <v>1.058348185322119</v>
+        <v>1.088031954936254</v>
       </c>
       <c r="K17">
-        <v>1.076272926306203</v>
+        <v>1.089194730192652</v>
       </c>
       <c r="L17">
-        <v>1.057594550299296</v>
+        <v>1.0883548300246</v>
       </c>
       <c r="M17">
-        <v>1.074419983066274</v>
+        <v>1.099608041460622</v>
       </c>
       <c r="N17">
-        <v>1.05985116113951</v>
+        <v>1.089577085111273</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.03401765443504</v>
+        <v>1.082482079896657</v>
       </c>
       <c r="D18">
-        <v>1.064664706176397</v>
+        <v>1.086231215891535</v>
       </c>
       <c r="E18">
-        <v>1.045997254629366</v>
+        <v>1.085446757880787</v>
       </c>
       <c r="F18">
-        <v>1.063023555621384</v>
+        <v>1.096726033331127</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.073179623423466</v>
+        <v>1.069779116155787</v>
       </c>
       <c r="J18">
-        <v>1.059854375127786</v>
+        <v>1.088292246838096</v>
       </c>
       <c r="K18">
-        <v>1.077453377905578</v>
+        <v>1.089391147273303</v>
       </c>
       <c r="L18">
-        <v>1.059066593791492</v>
+        <v>1.088609122949098</v>
       </c>
       <c r="M18">
-        <v>1.075836400157163</v>
+        <v>1.099853771074547</v>
       </c>
       <c r="N18">
-        <v>1.061359489907463</v>
+        <v>1.089837746657471</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.034678043365711</v>
+        <v>1.082596994352345</v>
       </c>
       <c r="D19">
-        <v>1.065130576113585</v>
+        <v>1.086311963595227</v>
       </c>
       <c r="E19">
-        <v>1.046565241030429</v>
+        <v>1.085547301965136</v>
       </c>
       <c r="F19">
-        <v>1.063570768061116</v>
+        <v>1.096823493586116</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.073467290039126</v>
+        <v>1.069821124025688</v>
       </c>
       <c r="J19">
-        <v>1.060364712383282</v>
+        <v>1.08838095913665</v>
       </c>
       <c r="K19">
-        <v>1.077853376753713</v>
+        <v>1.089458086568988</v>
       </c>
       <c r="L19">
-        <v>1.059565352344497</v>
+        <v>1.088695786018177</v>
       </c>
       <c r="M19">
-        <v>1.076316394660313</v>
+        <v>1.099937523522708</v>
       </c>
       <c r="N19">
-        <v>1.061870551900399</v>
+        <v>1.089926584937665</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.031708525817357</v>
+        <v>1.082082945201268</v>
       </c>
       <c r="D20">
-        <v>1.063036447069551</v>
+        <v>1.085950755340205</v>
       </c>
       <c r="E20">
-        <v>1.044011535452815</v>
+        <v>1.085097513938795</v>
       </c>
       <c r="F20">
-        <v>1.061110872217344</v>
+        <v>1.096387534777585</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.072173002987915</v>
+        <v>1.069633099720614</v>
       </c>
       <c r="J20">
-        <v>1.058069579344842</v>
+        <v>1.087984056924637</v>
       </c>
       <c r="K20">
-        <v>1.076054588536355</v>
+        <v>1.089158584650681</v>
       </c>
       <c r="L20">
-        <v>1.057322256372426</v>
+        <v>1.088308033708218</v>
       </c>
       <c r="M20">
-        <v>1.0741580187983</v>
+        <v>1.099562824695642</v>
       </c>
       <c r="N20">
-        <v>1.059572159509788</v>
+        <v>1.089529119078985</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.021756686931035</v>
+        <v>1.080409498370204</v>
       </c>
       <c r="D21">
-        <v>1.056032036277503</v>
+        <v>1.08477491295</v>
       </c>
       <c r="E21">
-        <v>1.035459443006539</v>
+        <v>1.083632877427304</v>
       </c>
       <c r="F21">
-        <v>1.052880495965784</v>
+        <v>1.094968522674304</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.06782223439426</v>
+        <v>1.069019076003016</v>
       </c>
       <c r="J21">
-        <v>1.050372115785498</v>
+        <v>1.086690854750206</v>
       </c>
       <c r="K21">
-        <v>1.070024318582847</v>
+        <v>1.088182511179279</v>
       </c>
       <c r="L21">
-        <v>1.049798788167692</v>
+        <v>1.08704432032717</v>
       </c>
       <c r="M21">
-        <v>1.066924812710399</v>
+        <v>1.098342193812902</v>
       </c>
       <c r="N21">
-        <v>1.051863764669279</v>
+        <v>1.088234080409134</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.015251762190652</v>
+        <v>1.079355589442367</v>
       </c>
       <c r="D22">
-        <v>1.05146558041789</v>
+        <v>1.084034427644236</v>
       </c>
       <c r="E22">
-        <v>1.029875084684949</v>
+        <v>1.08271018013346</v>
       </c>
       <c r="F22">
-        <v>1.047512382343128</v>
+        <v>1.094075025366734</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.064968744347794</v>
+        <v>1.068630899569041</v>
       </c>
       <c r="J22">
-        <v>1.045336835954084</v>
+        <v>1.085875561734428</v>
       </c>
       <c r="K22">
-        <v>1.066082081503262</v>
+        <v>1.087566981724887</v>
       </c>
       <c r="L22">
-        <v>1.044877067105021</v>
+        <v>1.086247370319332</v>
       </c>
       <c r="M22">
-        <v>1.062197924687345</v>
+        <v>1.097572829706997</v>
       </c>
       <c r="N22">
-        <v>1.04682133416295</v>
+        <v>1.087417629583759</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.018724993345018</v>
+        <v>1.079914454796121</v>
       </c>
       <c r="D23">
-        <v>1.053902584228932</v>
+        <v>1.084427086804483</v>
       </c>
       <c r="E23">
-        <v>1.032856206047802</v>
+        <v>1.083199494393251</v>
       </c>
       <c r="F23">
-        <v>1.050377464910102</v>
+        <v>1.094548811110063</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.066493199864959</v>
+        <v>1.068836880806989</v>
       </c>
       <c r="J23">
-        <v>1.048025697699428</v>
+        <v>1.08630797516144</v>
       </c>
       <c r="K23">
-        <v>1.068186991284635</v>
+        <v>1.087893460706394</v>
       </c>
       <c r="L23">
-        <v>1.047505302135929</v>
+        <v>1.086670078496041</v>
       </c>
       <c r="M23">
-        <v>1.064721638980402</v>
+        <v>1.097980866569505</v>
       </c>
       <c r="N23">
-        <v>1.049514014400388</v>
+        <v>1.087850657087436</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.031871455446786</v>
+        <v>1.082110971765011</v>
       </c>
       <c r="D24">
-        <v>1.063151298796951</v>
+        <v>1.085970448696984</v>
       </c>
       <c r="E24">
-        <v>1.044151629476596</v>
+        <v>1.085122038375184</v>
       </c>
       <c r="F24">
-        <v>1.061245792740973</v>
+        <v>1.096411302958747</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.072244067103791</v>
+        <v>1.069643358285537</v>
       </c>
       <c r="J24">
-        <v>1.058195529554406</v>
+        <v>1.088005700716091</v>
       </c>
       <c r="K24">
-        <v>1.076153292527383</v>
+        <v>1.08917491788445</v>
       </c>
       <c r="L24">
-        <v>1.05744535322846</v>
+        <v>1.08832917975899</v>
       </c>
       <c r="M24">
-        <v>1.074276444345978</v>
+        <v>1.099583256846242</v>
       </c>
       <c r="N24">
-        <v>1.059698288583097</v>
+        <v>1.089550793607106</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.04617032019434</v>
+        <v>1.084652576750772</v>
       </c>
       <c r="D25">
-        <v>1.073251747193626</v>
+        <v>1.087756409392577</v>
       </c>
       <c r="E25">
-        <v>1.056455408883756</v>
+        <v>1.087345333361903</v>
       </c>
       <c r="F25">
-        <v>1.073107683156636</v>
+        <v>1.098567117376155</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.078456384492722</v>
+        <v>1.070570124878832</v>
       </c>
       <c r="J25">
-        <v>1.069237868322655</v>
+        <v>1.089966424985054</v>
       </c>
       <c r="K25">
-        <v>1.084810202412788</v>
+        <v>1.090654133798796</v>
       </c>
       <c r="L25">
-        <v>1.068236272119919</v>
+        <v>1.090244219506251</v>
       </c>
       <c r="M25">
-        <v>1.084668008929788</v>
+        <v>1.101434628066126</v>
       </c>
       <c r="N25">
-        <v>1.070756308738971</v>
+        <v>1.091514302329429</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.086674137469346</v>
+        <v>1.056917040774852</v>
       </c>
       <c r="D2">
-        <v>1.089176986687104</v>
+        <v>1.08086854664635</v>
       </c>
       <c r="E2">
-        <v>1.089112650765332</v>
+        <v>1.065712736723786</v>
       </c>
       <c r="F2">
-        <v>1.10028235738999</v>
+        <v>1.082049347888284</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.07130208120365</v>
+        <v>1.083088360970736</v>
       </c>
       <c r="J2">
-        <v>1.09152294714848</v>
+        <v>1.077519125929841</v>
       </c>
       <c r="K2">
-        <v>1.091827776155915</v>
+        <v>1.091305505466348</v>
       </c>
       <c r="L2">
-        <v>1.091763605515123</v>
+        <v>1.076326650954692</v>
       </c>
       <c r="M2">
-        <v>1.102904928915404</v>
+        <v>1.092472776901491</v>
       </c>
       <c r="N2">
-        <v>1.093073034932863</v>
+        <v>1.079049326681832</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.088138859816106</v>
+        <v>1.064385839022718</v>
       </c>
       <c r="D3">
-        <v>1.090206265893598</v>
+        <v>1.086173796293396</v>
       </c>
       <c r="E3">
-        <v>1.090392534083969</v>
+        <v>1.072150385849975</v>
       </c>
       <c r="F3">
-        <v>1.101525422823523</v>
+        <v>1.088276432933998</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.071829409084944</v>
+        <v>1.086284780550772</v>
       </c>
       <c r="J3">
-        <v>1.092648973132491</v>
+        <v>1.083262922247961</v>
       </c>
       <c r="K3">
-        <v>1.092676436901878</v>
+        <v>1.095811166615975</v>
       </c>
       <c r="L3">
-        <v>1.092862261228252</v>
+        <v>1.081936385510413</v>
       </c>
       <c r="M3">
-        <v>1.103968913522419</v>
+        <v>1.097891921357743</v>
       </c>
       <c r="N3">
-        <v>1.094200660002928</v>
+        <v>1.084801279849547</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.089085242288455</v>
+        <v>1.069077540972996</v>
       </c>
       <c r="D4">
-        <v>1.090871291718197</v>
+        <v>1.089510936852558</v>
       </c>
       <c r="E4">
-        <v>1.091219195359617</v>
+        <v>1.076195639404041</v>
       </c>
       <c r="F4">
-        <v>1.102328715229903</v>
+        <v>1.092193293618068</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072168729291139</v>
+        <v>1.088281779297269</v>
       </c>
       <c r="J4">
-        <v>1.093375705332727</v>
+        <v>1.086865334370264</v>
       </c>
       <c r="K4">
-        <v>1.093223978314146</v>
+        <v>1.098636971514291</v>
       </c>
       <c r="L4">
-        <v>1.093571094736764</v>
+        <v>1.085453849748843</v>
       </c>
       <c r="M4">
-        <v>1.104655756013036</v>
+        <v>1.101293174400002</v>
       </c>
       <c r="N4">
-        <v>1.094928424246246</v>
+        <v>1.088408807810266</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.089482775171832</v>
+        <v>1.071017981204246</v>
       </c>
       <c r="D5">
-        <v>1.091150635698331</v>
+        <v>1.090892108164493</v>
       </c>
       <c r="E5">
-        <v>1.091566367948941</v>
+        <v>1.077868952147265</v>
       </c>
       <c r="F5">
-        <v>1.102666171606144</v>
+        <v>1.093814407839946</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.072310928051395</v>
+        <v>1.089105043990446</v>
       </c>
       <c r="J5">
-        <v>1.093680778117489</v>
+        <v>1.088353841390641</v>
       </c>
       <c r="K5">
-        <v>1.093453785250114</v>
+        <v>1.099804522626513</v>
       </c>
       <c r="L5">
-        <v>1.093868597784011</v>
+        <v>1.086907035633267</v>
       </c>
       <c r="M5">
-        <v>1.104944119503632</v>
+        <v>1.10269911993117</v>
       </c>
       <c r="N5">
-        <v>1.095233930269355</v>
+        <v>1.089899428681346</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.089549503750289</v>
+        <v>1.071341966514766</v>
       </c>
       <c r="D6">
-        <v>1.09119752522212</v>
+        <v>1.091122768529952</v>
       </c>
       <c r="E6">
-        <v>1.091624639045918</v>
+        <v>1.078148348465591</v>
       </c>
       <c r="F6">
-        <v>1.102722817621281</v>
+        <v>1.094085141220791</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07233477744779</v>
+        <v>1.089242341420764</v>
       </c>
       <c r="J6">
-        <v>1.09373197520782</v>
+        <v>1.088602285210478</v>
       </c>
       <c r="K6">
-        <v>1.093492348688628</v>
+        <v>1.099999391237739</v>
       </c>
       <c r="L6">
-        <v>1.093918521234404</v>
+        <v>1.087149570717698</v>
       </c>
       <c r="M6">
-        <v>1.104992514546312</v>
+        <v>1.10293381542236</v>
       </c>
       <c r="N6">
-        <v>1.095285200065426</v>
+        <v>1.090148225319905</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.089090555416198</v>
+        <v>1.069103592465438</v>
       </c>
       <c r="D7">
-        <v>1.090875025237055</v>
+        <v>1.089529476187676</v>
       </c>
       <c r="E7">
-        <v>1.09122383568813</v>
+        <v>1.076218103715838</v>
       </c>
       <c r="F7">
-        <v>1.102333225306316</v>
+        <v>1.092215053594477</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07217063112875</v>
+        <v>1.088292842738991</v>
       </c>
       <c r="J7">
-        <v>1.093379783474128</v>
+        <v>1.086885324065956</v>
       </c>
       <c r="K7">
-        <v>1.093227050492669</v>
+        <v>1.098652651291107</v>
       </c>
       <c r="L7">
-        <v>1.093575071908338</v>
+        <v>1.085473365995358</v>
       </c>
       <c r="M7">
-        <v>1.104659610647877</v>
+        <v>1.101312053184394</v>
       </c>
       <c r="N7">
-        <v>1.094932508179076</v>
+        <v>1.088428825893618</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.087169439241698</v>
+        <v>1.05947152438875</v>
       </c>
       <c r="D8">
-        <v>1.089525042716273</v>
+        <v>1.082682020382641</v>
       </c>
       <c r="E8">
-        <v>1.089545508994719</v>
+        <v>1.06791422665729</v>
       </c>
       <c r="F8">
-        <v>1.100702678191781</v>
+        <v>1.084177985164599</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.071480688257489</v>
+        <v>1.084183868307518</v>
       </c>
       <c r="J8">
-        <v>1.091903885640143</v>
+        <v>1.079484792407185</v>
       </c>
       <c r="K8">
-        <v>1.092114918065578</v>
+        <v>1.092847436841334</v>
       </c>
       <c r="L8">
-        <v>1.092135333053762</v>
+        <v>1.078246612989143</v>
       </c>
       <c r="M8">
-        <v>1.10326484693358</v>
+        <v>1.094326799778421</v>
       </c>
       <c r="N8">
-        <v>1.093454514400878</v>
+        <v>1.081017784631039</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.083773235947076</v>
+        <v>1.041326938977045</v>
       </c>
       <c r="D9">
-        <v>1.087138494432813</v>
+        <v>1.069825945681485</v>
       </c>
       <c r="E9">
-        <v>1.08657628443614</v>
+        <v>1.052285924667405</v>
       </c>
       <c r="F9">
-        <v>1.09782116657297</v>
+        <v>1.069085150004777</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.070250285764345</v>
+        <v>1.076357837894732</v>
       </c>
       <c r="J9">
-        <v>1.089288522725351</v>
+        <v>1.065500236318456</v>
       </c>
       <c r="K9">
-        <v>1.090142805227712</v>
+        <v>1.081879342047303</v>
       </c>
       <c r="L9">
-        <v>1.089582246996677</v>
+        <v>1.064584062971893</v>
       </c>
       <c r="M9">
-        <v>1.100794441212153</v>
+        <v>1.081148678357621</v>
       </c>
       <c r="N9">
-        <v>1.090835437370761</v>
+        <v>1.067013368868614</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.081501317524365</v>
+        <v>1.028300013651049</v>
       </c>
       <c r="D10">
-        <v>1.085542068436278</v>
+        <v>1.060635018821937</v>
       </c>
       <c r="E10">
-        <v>1.084588527265302</v>
+        <v>1.041081326616151</v>
       </c>
       <c r="F10">
-        <v>1.095894301205078</v>
+        <v>1.058289590759782</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.06942001914685</v>
+        <v>1.070685053673391</v>
       </c>
       <c r="J10">
-        <v>1.087534780377982</v>
+        <v>1.055434122706397</v>
       </c>
       <c r="K10">
-        <v>1.088819521427007</v>
+        <v>1.073989481071925</v>
       </c>
       <c r="L10">
-        <v>1.087869057646891</v>
+        <v>1.054746451096251</v>
       </c>
       <c r="M10">
-        <v>1.099138721152878</v>
+        <v>1.071680541667136</v>
       </c>
       <c r="N10">
-        <v>1.089079204508102</v>
+        <v>1.056932960220627</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.080515611773591</v>
+        <v>1.022401169016752</v>
       </c>
       <c r="D11">
-        <v>1.084849471005537</v>
+        <v>1.056484985359197</v>
       </c>
       <c r="E11">
-        <v>1.083725767345164</v>
+        <v>1.036012970856127</v>
       </c>
       <c r="F11">
-        <v>1.095058492387221</v>
+        <v>1.053412852825528</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.069058097373697</v>
+        <v>1.068104557643092</v>
       </c>
       <c r="J11">
-        <v>1.086772906776822</v>
+        <v>1.050870840059735</v>
       </c>
       <c r="K11">
-        <v>1.088244451709923</v>
+        <v>1.070414893542139</v>
       </c>
       <c r="L11">
-        <v>1.087124515801567</v>
+        <v>1.050286257316733</v>
       </c>
       <c r="M11">
-        <v>1.098419631026077</v>
+        <v>1.067393195034586</v>
       </c>
       <c r="N11">
-        <v>1.08831624895904</v>
+        <v>1.05236319718919</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.080149175613176</v>
+        <v>1.020167622541448</v>
       </c>
       <c r="D12">
-        <v>1.084592004768918</v>
+        <v>1.054915623003586</v>
       </c>
       <c r="E12">
-        <v>1.08340498552744</v>
+        <v>1.034094829779885</v>
       </c>
       <c r="F12">
-        <v>1.094747810185615</v>
+        <v>1.051568279361892</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.068923298166615</v>
+        <v>1.067125815244084</v>
       </c>
       <c r="J12">
-        <v>1.086489532349238</v>
+        <v>1.049142315344041</v>
       </c>
       <c r="K12">
-        <v>1.088030528699602</v>
+        <v>1.069061286494348</v>
       </c>
       <c r="L12">
-        <v>1.086847544972318</v>
+        <v>1.048596734381815</v>
       </c>
       <c r="M12">
-        <v>1.098152200139817</v>
+        <v>1.065769988289218</v>
       </c>
       <c r="N12">
-        <v>1.088032472107265</v>
+        <v>1.050632217770135</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.080227791173326</v>
+        <v>1.020648711219778</v>
       </c>
       <c r="D13">
-        <v>1.084647241482626</v>
+        <v>1.05525355664025</v>
       </c>
       <c r="E13">
-        <v>1.083473808649998</v>
+        <v>1.034507937175134</v>
       </c>
       <c r="F13">
-        <v>1.094814462873532</v>
+        <v>1.051965494250922</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.068952229637502</v>
+        <v>1.067336701903597</v>
       </c>
       <c r="J13">
-        <v>1.086550334452972</v>
+        <v>1.04951465512368</v>
       </c>
       <c r="K13">
-        <v>1.088076430301345</v>
+        <v>1.069352845592195</v>
       </c>
       <c r="L13">
-        <v>1.086906975028534</v>
+        <v>1.048960674477091</v>
       </c>
       <c r="M13">
-        <v>1.098209579938872</v>
+        <v>1.06611960454778</v>
       </c>
       <c r="N13">
-        <v>1.088093360556961</v>
+        <v>1.051005086314969</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.080485328237253</v>
+        <v>1.022217432364854</v>
       </c>
       <c r="D14">
-        <v>1.084828192966767</v>
+        <v>1.056355843757257</v>
       </c>
       <c r="E14">
-        <v>1.083699257871922</v>
+        <v>1.035855160023764</v>
       </c>
       <c r="F14">
-        <v>1.095032815934846</v>
+        <v>1.053261072974871</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.069046962300397</v>
+        <v>1.068024077059341</v>
       </c>
       <c r="J14">
-        <v>1.086749490760067</v>
+        <v>1.050728660790761</v>
       </c>
       <c r="K14">
-        <v>1.08822677524804</v>
+        <v>1.070303544149148</v>
       </c>
       <c r="L14">
-        <v>1.087101629805304</v>
+        <v>1.05014728691337</v>
       </c>
       <c r="M14">
-        <v>1.098397531844414</v>
+        <v>1.067259662110554</v>
       </c>
       <c r="N14">
-        <v>1.088292799688856</v>
+        <v>1.052220816009346</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.080643965170454</v>
+        <v>1.023178229705392</v>
       </c>
       <c r="D15">
-        <v>1.084939655894752</v>
+        <v>1.057031235415126</v>
       </c>
       <c r="E15">
-        <v>1.083838122720524</v>
+        <v>1.036680425300618</v>
       </c>
       <c r="F15">
-        <v>1.095167320397087</v>
+        <v>1.054054842479948</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.069105281714283</v>
+        <v>1.068444860051645</v>
       </c>
       <c r="J15">
-        <v>1.08687214690439</v>
+        <v>1.051472118977493</v>
       </c>
       <c r="K15">
-        <v>1.08831936566601</v>
+        <v>1.070885809526877</v>
       </c>
       <c r="L15">
-        <v>1.087221507879901</v>
+        <v>1.050873964133252</v>
       </c>
       <c r="M15">
-        <v>1.0985132914852</v>
+        <v>1.067957941155824</v>
       </c>
       <c r="N15">
-        <v>1.088415630018972</v>
+        <v>1.052965329991979</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.081566693785903</v>
+        <v>1.028685759530366</v>
       </c>
       <c r="D16">
-        <v>1.085588005371514</v>
+        <v>1.060906667487683</v>
       </c>
       <c r="E16">
-        <v>1.084645742082047</v>
+        <v>1.041412885973882</v>
       </c>
       <c r="F16">
-        <v>1.095949739763135</v>
+        <v>1.058608756177711</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.069443987641381</v>
+        <v>1.070853566746439</v>
       </c>
       <c r="J16">
-        <v>1.087585290386613</v>
+        <v>1.055732432854616</v>
       </c>
       <c r="K16">
-        <v>1.088857642752351</v>
+        <v>1.074223209830993</v>
       </c>
       <c r="L16">
-        <v>1.087918412606279</v>
+        <v>1.055038014072542</v>
       </c>
       <c r="M16">
-        <v>1.099186398985712</v>
+        <v>1.0719609192176</v>
       </c>
       <c r="N16">
-        <v>1.089129786246738</v>
+        <v>1.057231694003472</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.082144969218944</v>
+        <v>1.032068935860553</v>
       </c>
       <c r="D17">
-        <v>1.085994337627199</v>
+        <v>1.063290513390097</v>
       </c>
       <c r="E17">
-        <v>1.085151787369005</v>
+        <v>1.044321435101927</v>
       </c>
       <c r="F17">
-        <v>1.09644013493227</v>
+        <v>1.061409331871552</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.069655801256036</v>
+        <v>1.072330193393392</v>
       </c>
       <c r="J17">
-        <v>1.088031954936254</v>
+        <v>1.05834818532212</v>
       </c>
       <c r="K17">
-        <v>1.089194730192652</v>
+        <v>1.076272926306203</v>
       </c>
       <c r="L17">
-        <v>1.0883548300246</v>
+        <v>1.057594550299298</v>
       </c>
       <c r="M17">
-        <v>1.099608041460622</v>
+        <v>1.074419983066275</v>
       </c>
       <c r="N17">
-        <v>1.089577085111273</v>
+        <v>1.059851161139511</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.082482079896657</v>
+        <v>1.034017654435041</v>
       </c>
       <c r="D18">
-        <v>1.086231215891535</v>
+        <v>1.064664706176398</v>
       </c>
       <c r="E18">
-        <v>1.085446757880787</v>
+        <v>1.045997254629367</v>
       </c>
       <c r="F18">
-        <v>1.096726033331127</v>
+        <v>1.063023555621385</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.069779116155787</v>
+        <v>1.073179623423467</v>
       </c>
       <c r="J18">
-        <v>1.088292246838096</v>
+        <v>1.059854375127787</v>
       </c>
       <c r="K18">
-        <v>1.089391147273303</v>
+        <v>1.077453377905579</v>
       </c>
       <c r="L18">
-        <v>1.088609122949098</v>
+        <v>1.059066593791493</v>
       </c>
       <c r="M18">
-        <v>1.099853771074547</v>
+        <v>1.075836400157164</v>
       </c>
       <c r="N18">
-        <v>1.089837746657471</v>
+        <v>1.061359489907464</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.082596994352345</v>
+        <v>1.034678043365712</v>
       </c>
       <c r="D19">
-        <v>1.086311963595227</v>
+        <v>1.065130576113586</v>
       </c>
       <c r="E19">
-        <v>1.085547301965136</v>
+        <v>1.046565241030431</v>
       </c>
       <c r="F19">
-        <v>1.096823493586116</v>
+        <v>1.063570768061117</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.069821124025688</v>
+        <v>1.073467290039127</v>
       </c>
       <c r="J19">
-        <v>1.08838095913665</v>
+        <v>1.060364712383283</v>
       </c>
       <c r="K19">
-        <v>1.089458086568988</v>
+        <v>1.077853376753714</v>
       </c>
       <c r="L19">
-        <v>1.088695786018177</v>
+        <v>1.059565352344499</v>
       </c>
       <c r="M19">
-        <v>1.099937523522708</v>
+        <v>1.076316394660314</v>
       </c>
       <c r="N19">
-        <v>1.089926584937665</v>
+        <v>1.0618705519004</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.082082945201268</v>
+        <v>1.031708525817357</v>
       </c>
       <c r="D20">
-        <v>1.085950755340205</v>
+        <v>1.063036447069551</v>
       </c>
       <c r="E20">
-        <v>1.085097513938795</v>
+        <v>1.044011535452814</v>
       </c>
       <c r="F20">
-        <v>1.096387534777585</v>
+        <v>1.061110872217344</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.069633099720614</v>
+        <v>1.072173002987915</v>
       </c>
       <c r="J20">
-        <v>1.087984056924637</v>
+        <v>1.058069579344841</v>
       </c>
       <c r="K20">
-        <v>1.089158584650681</v>
+        <v>1.076054588536354</v>
       </c>
       <c r="L20">
-        <v>1.088308033708218</v>
+        <v>1.057322256372425</v>
       </c>
       <c r="M20">
-        <v>1.099562824695642</v>
+        <v>1.0741580187983</v>
       </c>
       <c r="N20">
-        <v>1.089529119078985</v>
+        <v>1.059572159509788</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.080409498370204</v>
+        <v>1.021756686931035</v>
       </c>
       <c r="D21">
-        <v>1.08477491295</v>
+        <v>1.056032036277503</v>
       </c>
       <c r="E21">
-        <v>1.083632877427304</v>
+        <v>1.035459443006538</v>
       </c>
       <c r="F21">
-        <v>1.094968522674304</v>
+        <v>1.052880495965784</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.069019076003016</v>
+        <v>1.06782223439426</v>
       </c>
       <c r="J21">
-        <v>1.086690854750206</v>
+        <v>1.050372115785498</v>
       </c>
       <c r="K21">
-        <v>1.088182511179279</v>
+        <v>1.070024318582847</v>
       </c>
       <c r="L21">
-        <v>1.08704432032717</v>
+        <v>1.049798788167691</v>
       </c>
       <c r="M21">
-        <v>1.098342193812902</v>
+        <v>1.066924812710399</v>
       </c>
       <c r="N21">
-        <v>1.088234080409134</v>
+        <v>1.051863764669278</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.079355589442367</v>
+        <v>1.015251762190653</v>
       </c>
       <c r="D22">
-        <v>1.084034427644236</v>
+        <v>1.051465580417891</v>
       </c>
       <c r="E22">
-        <v>1.08271018013346</v>
+        <v>1.02987508468495</v>
       </c>
       <c r="F22">
-        <v>1.094075025366734</v>
+        <v>1.047512382343129</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.068630899569041</v>
+        <v>1.064968744347794</v>
       </c>
       <c r="J22">
-        <v>1.085875561734428</v>
+        <v>1.045336835954085</v>
       </c>
       <c r="K22">
-        <v>1.087566981724887</v>
+        <v>1.066082081503263</v>
       </c>
       <c r="L22">
-        <v>1.086247370319332</v>
+        <v>1.044877067105022</v>
       </c>
       <c r="M22">
-        <v>1.097572829706997</v>
+        <v>1.062197924687346</v>
       </c>
       <c r="N22">
-        <v>1.087417629583759</v>
+        <v>1.046821334162951</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.079914454796121</v>
+        <v>1.018724993345017</v>
       </c>
       <c r="D23">
-        <v>1.084427086804483</v>
+        <v>1.053902584228932</v>
       </c>
       <c r="E23">
-        <v>1.083199494393251</v>
+        <v>1.032856206047801</v>
       </c>
       <c r="F23">
-        <v>1.094548811110063</v>
+        <v>1.050377464910101</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.068836880806989</v>
+        <v>1.066493199864958</v>
       </c>
       <c r="J23">
-        <v>1.08630797516144</v>
+        <v>1.048025697699426</v>
       </c>
       <c r="K23">
-        <v>1.087893460706394</v>
+        <v>1.068186991284634</v>
       </c>
       <c r="L23">
-        <v>1.086670078496041</v>
+        <v>1.047505302135928</v>
       </c>
       <c r="M23">
-        <v>1.097980866569505</v>
+        <v>1.064721638980401</v>
       </c>
       <c r="N23">
-        <v>1.087850657087436</v>
+        <v>1.049514014400387</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.082110971765011</v>
+        <v>1.031871455446787</v>
       </c>
       <c r="D24">
-        <v>1.085970448696984</v>
+        <v>1.063151298796951</v>
       </c>
       <c r="E24">
-        <v>1.085122038375184</v>
+        <v>1.044151629476596</v>
       </c>
       <c r="F24">
-        <v>1.096411302958747</v>
+        <v>1.061245792740973</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.069643358285537</v>
+        <v>1.072244067103792</v>
       </c>
       <c r="J24">
-        <v>1.088005700716091</v>
+        <v>1.058195529554407</v>
       </c>
       <c r="K24">
-        <v>1.08917491788445</v>
+        <v>1.076153292527384</v>
       </c>
       <c r="L24">
-        <v>1.08832917975899</v>
+        <v>1.057445353228461</v>
       </c>
       <c r="M24">
-        <v>1.099583256846242</v>
+        <v>1.074276444345978</v>
       </c>
       <c r="N24">
-        <v>1.089550793607106</v>
+        <v>1.059698288583098</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.084652576750772</v>
+        <v>1.046170320194342</v>
       </c>
       <c r="D25">
-        <v>1.087756409392577</v>
+        <v>1.073251747193627</v>
       </c>
       <c r="E25">
-        <v>1.087345333361903</v>
+        <v>1.056455408883757</v>
       </c>
       <c r="F25">
-        <v>1.098567117376155</v>
+        <v>1.073107683156637</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.070570124878832</v>
+        <v>1.078456384492723</v>
       </c>
       <c r="J25">
-        <v>1.089966424985054</v>
+        <v>1.069237868322657</v>
       </c>
       <c r="K25">
-        <v>1.090654133798796</v>
+        <v>1.084810202412789</v>
       </c>
       <c r="L25">
-        <v>1.090244219506251</v>
+        <v>1.06823627211992</v>
       </c>
       <c r="M25">
-        <v>1.101434628066126</v>
+        <v>1.084668008929789</v>
       </c>
       <c r="N25">
-        <v>1.091514302329429</v>
+        <v>1.070756308738972</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.056917040774852</v>
+        <v>0.9897354612009208</v>
       </c>
       <c r="D2">
-        <v>1.08086854664635</v>
+        <v>1.037660456037234</v>
       </c>
       <c r="E2">
-        <v>1.065712736723786</v>
+        <v>1.010770802054612</v>
       </c>
       <c r="F2">
-        <v>1.082049347888284</v>
+        <v>1.030488781344077</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.083088360970736</v>
+        <v>1.05025320640179</v>
       </c>
       <c r="J2">
-        <v>1.077519125929841</v>
+        <v>1.012227578074753</v>
       </c>
       <c r="K2">
-        <v>1.091305505466348</v>
+        <v>1.0486189167037</v>
       </c>
       <c r="L2">
-        <v>1.076326650954692</v>
+        <v>1.022082094520946</v>
       </c>
       <c r="M2">
-        <v>1.092472776901491</v>
+        <v>1.04153909182792</v>
       </c>
       <c r="N2">
-        <v>1.079049326681832</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.007021617500349</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041447794766206</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045448042590798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.064385839022718</v>
+        <v>0.9956463551609883</v>
       </c>
       <c r="D3">
-        <v>1.086173796293396</v>
+        <v>1.040065535759862</v>
       </c>
       <c r="E3">
-        <v>1.072150385849975</v>
+        <v>1.015254570013378</v>
       </c>
       <c r="F3">
-        <v>1.088276432933998</v>
+        <v>1.034070064048845</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.086284780550772</v>
+        <v>1.050816483666922</v>
       </c>
       <c r="J3">
-        <v>1.083262922247961</v>
+        <v>1.016256412675939</v>
       </c>
       <c r="K3">
-        <v>1.095811166615975</v>
+        <v>1.05021020470083</v>
       </c>
       <c r="L3">
-        <v>1.081936385510413</v>
+        <v>1.025695916615959</v>
       </c>
       <c r="M3">
-        <v>1.097891921357743</v>
+        <v>1.044284808762465</v>
       </c>
       <c r="N3">
-        <v>1.084801279849547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.008478600586989</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043620839516717</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046570560374435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.069077540972996</v>
+        <v>0.9993816579461094</v>
       </c>
       <c r="D4">
-        <v>1.089510936852558</v>
+        <v>1.041591778779704</v>
       </c>
       <c r="E4">
-        <v>1.076195639404041</v>
+        <v>1.018095034326538</v>
       </c>
       <c r="F4">
-        <v>1.092193293618068</v>
+        <v>1.036341253991995</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.088281779297269</v>
+        <v>1.051162261967969</v>
       </c>
       <c r="J4">
-        <v>1.086865334370264</v>
+        <v>1.018801194213117</v>
       </c>
       <c r="K4">
-        <v>1.098636971514291</v>
+        <v>1.051212862109259</v>
       </c>
       <c r="L4">
-        <v>1.085453849748843</v>
+        <v>1.02797986547279</v>
       </c>
       <c r="M4">
-        <v>1.101293174400002</v>
+        <v>1.046019997975982</v>
       </c>
       <c r="N4">
-        <v>1.088408807810266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009397286820592</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044994118234633</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047280398760327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.071017981204246</v>
+        <v>1.000933896869477</v>
       </c>
       <c r="D5">
-        <v>1.090892108164493</v>
+        <v>1.042231154179478</v>
       </c>
       <c r="E5">
-        <v>1.077868952147265</v>
+        <v>1.019277504846438</v>
       </c>
       <c r="F5">
-        <v>1.093814407839946</v>
+        <v>1.037287814606212</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.089105043990446</v>
+        <v>1.051305413191824</v>
       </c>
       <c r="J5">
-        <v>1.088353841390641</v>
+        <v>1.019859053435168</v>
       </c>
       <c r="K5">
-        <v>1.099804522626513</v>
+        <v>1.051632755169659</v>
       </c>
       <c r="L5">
-        <v>1.086907035633267</v>
+        <v>1.02892979357785</v>
       </c>
       <c r="M5">
-        <v>1.10269911993117</v>
+        <v>1.046742255155967</v>
       </c>
       <c r="N5">
-        <v>1.089899428681346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009779308709441</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045565732608833</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047584390725797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.071341966514766</v>
+        <v>1.001196223511132</v>
       </c>
       <c r="D6">
-        <v>1.091122768529952</v>
+        <v>1.042343844637893</v>
       </c>
       <c r="E6">
-        <v>1.078148348465591</v>
+        <v>1.019478041373758</v>
       </c>
       <c r="F6">
-        <v>1.094085141220791</v>
+        <v>1.037449031374446</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.089242341420764</v>
+        <v>1.051331856195828</v>
       </c>
       <c r="J6">
-        <v>1.088602285210478</v>
+        <v>1.020038653050454</v>
       </c>
       <c r="K6">
-        <v>1.099999391237739</v>
+        <v>1.051708572245334</v>
       </c>
       <c r="L6">
-        <v>1.087149570717698</v>
+        <v>1.029091336204618</v>
       </c>
       <c r="M6">
-        <v>1.10293381542236</v>
+        <v>1.046865839808433</v>
       </c>
       <c r="N6">
-        <v>1.090148225319905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009844792414712</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045663540887538</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04764665460581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.069103592465438</v>
+        <v>0.9994102423253496</v>
       </c>
       <c r="D7">
-        <v>1.089529476187676</v>
+        <v>1.041615723184306</v>
       </c>
       <c r="E7">
-        <v>1.076218103715838</v>
+        <v>1.018118430635857</v>
       </c>
       <c r="F7">
-        <v>1.092215053594477</v>
+        <v>1.03636169097827</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.088292842738991</v>
+        <v>1.051171336128617</v>
       </c>
       <c r="J7">
-        <v>1.086885324065956</v>
+        <v>1.018822949986213</v>
       </c>
       <c r="K7">
-        <v>1.098652651291107</v>
+        <v>1.05123370339352</v>
       </c>
       <c r="L7">
-        <v>1.085473365995358</v>
+        <v>1.028000061938215</v>
       </c>
       <c r="M7">
-        <v>1.101312053184394</v>
+        <v>1.046037348141228</v>
       </c>
       <c r="N7">
-        <v>1.088428825893618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009406921880567</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045007849642084</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047315044864202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05947152438875</v>
+        <v>0.9917621003758644</v>
       </c>
       <c r="D8">
-        <v>1.082682020382641</v>
+        <v>1.038498543138235</v>
       </c>
       <c r="E8">
-        <v>1.06791422665729</v>
+        <v>1.012308604584979</v>
       </c>
       <c r="F8">
-        <v>1.084177985164599</v>
+        <v>1.031718392195684</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.084183868307518</v>
+        <v>1.050456327258094</v>
       </c>
       <c r="J8">
-        <v>1.079484792407185</v>
+        <v>1.013611995561099</v>
       </c>
       <c r="K8">
-        <v>1.092847436841334</v>
+        <v>1.049181105809602</v>
       </c>
       <c r="L8">
-        <v>1.078246612989143</v>
+        <v>1.023324389783342</v>
       </c>
       <c r="M8">
-        <v>1.094326799778421</v>
+        <v>1.042485197109222</v>
       </c>
       <c r="N8">
-        <v>1.081017784631039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.007524950607995</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042196572291722</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045868239635105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041326938977045</v>
+        <v>0.9775401239595397</v>
       </c>
       <c r="D9">
-        <v>1.069825945681485</v>
+        <v>1.032741636611476</v>
       </c>
       <c r="E9">
-        <v>1.052285924667405</v>
+        <v>1.001563526871279</v>
       </c>
       <c r="F9">
-        <v>1.069085150004777</v>
+        <v>1.023150832391241</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.076357837894732</v>
+        <v>1.049038272831163</v>
       </c>
       <c r="J9">
-        <v>1.065500236318456</v>
+        <v>1.003911713147849</v>
       </c>
       <c r="K9">
-        <v>1.081879342047303</v>
+        <v>1.045324935232467</v>
       </c>
       <c r="L9">
-        <v>1.064584062971893</v>
+        <v>1.014631287774782</v>
       </c>
       <c r="M9">
-        <v>1.081148678357621</v>
+        <v>1.035879147008095</v>
       </c>
       <c r="N9">
-        <v>1.067013368868614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.00400659120221</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036968319862735</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043138572279308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028300013651049</v>
+        <v>0.9676005194653704</v>
       </c>
       <c r="D10">
-        <v>1.060635018821937</v>
+        <v>1.028803958988404</v>
       </c>
       <c r="E10">
-        <v>1.041081326616151</v>
+        <v>0.9941281120966287</v>
       </c>
       <c r="F10">
-        <v>1.058289590759782</v>
+        <v>1.01728202045647</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.070685053673391</v>
+        <v>1.048022983908966</v>
       </c>
       <c r="J10">
-        <v>1.055434122706397</v>
+        <v>0.9971613054084543</v>
       </c>
       <c r="K10">
-        <v>1.073989481071925</v>
+        <v>1.042671921043476</v>
       </c>
       <c r="L10">
-        <v>1.054746451096251</v>
+        <v>1.008604200851073</v>
       </c>
       <c r="M10">
-        <v>1.071680541667136</v>
+        <v>1.031346099368818</v>
       </c>
       <c r="N10">
-        <v>1.056932960220627</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001564910371606</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03343244507896</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041279428553957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022401169016752</v>
+        <v>0.9640061901604161</v>
       </c>
       <c r="D11">
-        <v>1.056484985359197</v>
+        <v>1.027664371941046</v>
       </c>
       <c r="E11">
-        <v>1.036012970856127</v>
+        <v>0.9916583038643398</v>
       </c>
       <c r="F11">
-        <v>1.053412852825528</v>
+        <v>1.015663437957782</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.068104557643092</v>
+        <v>1.047828647319463</v>
       </c>
       <c r="J11">
-        <v>1.050870840059735</v>
+        <v>0.9949569909839178</v>
       </c>
       <c r="K11">
-        <v>1.070414893542139</v>
+        <v>1.042082779209426</v>
       </c>
       <c r="L11">
-        <v>1.050286257316733</v>
+        <v>1.00673926575897</v>
       </c>
       <c r="M11">
-        <v>1.067393195034586</v>
+        <v>1.030295889009913</v>
       </c>
       <c r="N11">
-        <v>1.05236319718919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.000880836575289</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033040281030407</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040895472170662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020167622541448</v>
+        <v>0.9629848942163864</v>
       </c>
       <c r="D12">
-        <v>1.054915623003586</v>
+        <v>1.027466792033827</v>
       </c>
       <c r="E12">
-        <v>1.034094829779885</v>
+        <v>0.991053644103884</v>
       </c>
       <c r="F12">
-        <v>1.051568279361892</v>
+        <v>1.015431150355368</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.067125815244084</v>
+        <v>1.047854337355781</v>
       </c>
       <c r="J12">
-        <v>1.049142315344041</v>
+        <v>0.9944428291777128</v>
       </c>
       <c r="K12">
-        <v>1.069061286494348</v>
+        <v>1.04208603504734</v>
       </c>
       <c r="L12">
-        <v>1.048596734381815</v>
+        <v>1.006354272991608</v>
       </c>
       <c r="M12">
-        <v>1.065769988289218</v>
+        <v>1.030268567272797</v>
       </c>
       <c r="N12">
-        <v>1.050632217770135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.000790084641475</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033346908974812</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040897774119184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020648711219778</v>
+        <v>0.9638989044717411</v>
       </c>
       <c r="D13">
-        <v>1.05525355664025</v>
+        <v>1.028001530290307</v>
       </c>
       <c r="E13">
-        <v>1.034507937175134</v>
+        <v>0.991862286007681</v>
       </c>
       <c r="F13">
-        <v>1.051965494250922</v>
+        <v>1.016272076242771</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.067336701903597</v>
+        <v>1.04806515273044</v>
       </c>
       <c r="J13">
-        <v>1.04951465512368</v>
+        <v>0.9952152610517983</v>
       </c>
       <c r="K13">
-        <v>1.069352845592195</v>
+        <v>1.042568932218242</v>
       </c>
       <c r="L13">
-        <v>1.048960674477091</v>
+        <v>1.007102506034519</v>
       </c>
       <c r="M13">
-        <v>1.06611960454778</v>
+        <v>1.031051020319407</v>
       </c>
       <c r="N13">
-        <v>1.051005086314969</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.001158642046472</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.0342435518443</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041236720791055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022217432364854</v>
+        <v>0.9654119105555932</v>
       </c>
       <c r="D14">
-        <v>1.056355843757257</v>
+        <v>1.028708208929207</v>
       </c>
       <c r="E14">
-        <v>1.035855160023764</v>
+        <v>0.9930656092560561</v>
       </c>
       <c r="F14">
-        <v>1.053261072974871</v>
+        <v>1.017344863315221</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.068024077059341</v>
+        <v>1.048296450516777</v>
       </c>
       <c r="J14">
-        <v>1.050728660790761</v>
+        <v>0.9963357333870769</v>
       </c>
       <c r="K14">
-        <v>1.070303544149148</v>
+        <v>1.043124591290681</v>
       </c>
       <c r="L14">
-        <v>1.05014728691337</v>
+        <v>1.008136635965772</v>
       </c>
       <c r="M14">
-        <v>1.067259662110554</v>
+        <v>1.031963479757916</v>
       </c>
       <c r="N14">
-        <v>1.052220816009346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.001623625435718</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035138802726857</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.04163099667174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023178229705392</v>
+        <v>0.9662042632247636</v>
       </c>
       <c r="D15">
-        <v>1.057031235415126</v>
+        <v>1.029047024113509</v>
       </c>
       <c r="E15">
-        <v>1.036680425300618</v>
+        <v>0.9936721639516499</v>
       </c>
       <c r="F15">
-        <v>1.054054842479948</v>
+        <v>1.017850396936468</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.068444860051645</v>
+        <v>1.048396607890968</v>
       </c>
       <c r="J15">
-        <v>1.051472118977493</v>
+        <v>0.9968937796081053</v>
       </c>
       <c r="K15">
-        <v>1.070885809526877</v>
+        <v>1.043372181522815</v>
       </c>
       <c r="L15">
-        <v>1.050873964133252</v>
+        <v>1.008641811388755</v>
       </c>
       <c r="M15">
-        <v>1.067957941155824</v>
+        <v>1.03237325056117</v>
       </c>
       <c r="N15">
-        <v>1.052965329991979</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.001838875265642</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035500341046701</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.0418118690569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028685759530366</v>
+        <v>0.9702622203682201</v>
       </c>
       <c r="D16">
-        <v>1.060906667487683</v>
+        <v>1.030621165310386</v>
       </c>
       <c r="E16">
-        <v>1.041412885973882</v>
+        <v>0.9966821435111878</v>
       </c>
       <c r="F16">
-        <v>1.058608756177711</v>
+        <v>1.020205692924748</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.070853566746439</v>
+        <v>1.048804381228297</v>
       </c>
       <c r="J16">
-        <v>1.055732432854616</v>
+        <v>0.9996267381713615</v>
       </c>
       <c r="K16">
-        <v>1.074223209830993</v>
+        <v>1.044423591022289</v>
       </c>
       <c r="L16">
-        <v>1.055038014072542</v>
+        <v>1.011074707653841</v>
       </c>
       <c r="M16">
-        <v>1.0719609192176</v>
+        <v>1.03418382994101</v>
       </c>
       <c r="N16">
-        <v>1.057231694003472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.002808625994996</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036892585669207</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042558380051474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032068935860553</v>
+        <v>0.9725774259348802</v>
       </c>
       <c r="D17">
-        <v>1.063290513390097</v>
+        <v>1.031458065351028</v>
       </c>
       <c r="E17">
-        <v>1.044321435101927</v>
+        <v>0.9983579216164906</v>
       </c>
       <c r="F17">
-        <v>1.061409331871552</v>
+        <v>1.02144464929829</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.072330193393392</v>
+        <v>1.048992872564659</v>
       </c>
       <c r="J17">
-        <v>1.05834818532212</v>
+        <v>1.001131787357225</v>
       </c>
       <c r="K17">
-        <v>1.076272926306203</v>
+        <v>1.044936121757844</v>
       </c>
       <c r="L17">
-        <v>1.057594550299298</v>
+        <v>1.012394803803858</v>
       </c>
       <c r="M17">
-        <v>1.074419983066275</v>
+        <v>1.03508684105923</v>
       </c>
       <c r="N17">
-        <v>1.059851161139511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.003307153022455</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037476957096338</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042923318483581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034017654435041</v>
+        <v>0.9736122856192442</v>
       </c>
       <c r="D18">
-        <v>1.064664706176398</v>
+        <v>1.031718345951647</v>
       </c>
       <c r="E18">
-        <v>1.045997254629367</v>
+        <v>0.9990286671845335</v>
       </c>
       <c r="F18">
-        <v>1.063023555621385</v>
+        <v>1.021807824881466</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.073179623423467</v>
+        <v>1.04900210659403</v>
       </c>
       <c r="J18">
-        <v>1.059854375127787</v>
+        <v>1.001710639103725</v>
       </c>
       <c r="K18">
-        <v>1.077453377905579</v>
+        <v>1.04501115361893</v>
       </c>
       <c r="L18">
-        <v>1.059066593791493</v>
+        <v>1.01286418818822</v>
       </c>
       <c r="M18">
-        <v>1.075836400157164</v>
+        <v>1.035260452787532</v>
       </c>
       <c r="N18">
-        <v>1.061359489907464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.003441471986916</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037375795513213</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042964834745268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034678043365712</v>
+        <v>0.9735084725134453</v>
       </c>
       <c r="D19">
-        <v>1.065130576113586</v>
+        <v>1.031488176904885</v>
       </c>
       <c r="E19">
-        <v>1.046565241030431</v>
+        <v>0.99880459296871</v>
       </c>
       <c r="F19">
-        <v>1.063570768061117</v>
+        <v>1.021392084122976</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.073467290039127</v>
+        <v>1.048864459978304</v>
       </c>
       <c r="J19">
-        <v>1.060364712383283</v>
+        <v>1.001470326867771</v>
       </c>
       <c r="K19">
-        <v>1.077853376753714</v>
+        <v>1.044722899792965</v>
       </c>
       <c r="L19">
-        <v>1.059565352344499</v>
+        <v>1.012579338233087</v>
       </c>
       <c r="M19">
-        <v>1.076316394660314</v>
+        <v>1.034788883392243</v>
       </c>
       <c r="N19">
-        <v>1.0618705519004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.003264810707255</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036676272318348</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042767373417459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031708525817357</v>
+        <v>0.9702135897659725</v>
       </c>
       <c r="D20">
-        <v>1.063036447069551</v>
+        <v>1.02986548359618</v>
       </c>
       <c r="E20">
-        <v>1.044011535452814</v>
+        <v>0.9960841767855876</v>
       </c>
       <c r="F20">
-        <v>1.061110872217344</v>
+        <v>1.01882907888424</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.072173002987915</v>
+        <v>1.04830970210226</v>
       </c>
       <c r="J20">
-        <v>1.058069579344841</v>
+        <v>0.9989430619786663</v>
       </c>
       <c r="K20">
-        <v>1.076054588536354</v>
+        <v>1.043402754543049</v>
       </c>
       <c r="L20">
-        <v>1.057322256372425</v>
+        <v>1.010196232475676</v>
       </c>
       <c r="M20">
-        <v>1.0741580187983</v>
+        <v>1.032548729177974</v>
       </c>
       <c r="N20">
-        <v>1.059572159509788</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.002215815814794</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034373592413832</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041837886928532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021756686931035</v>
+        <v>0.962523543230158</v>
       </c>
       <c r="D21">
-        <v>1.056032036277503</v>
+        <v>1.026784660782854</v>
       </c>
       <c r="E21">
-        <v>1.035459443006538</v>
+        <v>0.990310395555468</v>
       </c>
       <c r="F21">
-        <v>1.052880495965784</v>
+        <v>1.014215772628064</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.06782223439426</v>
+        <v>1.047472051672383</v>
       </c>
       <c r="J21">
-        <v>1.050372115785498</v>
+        <v>0.9936762257700127</v>
       </c>
       <c r="K21">
-        <v>1.070024318582847</v>
+        <v>1.041275757233146</v>
       </c>
       <c r="L21">
-        <v>1.049798788167691</v>
+        <v>1.005477695506265</v>
       </c>
       <c r="M21">
-        <v>1.066924812710399</v>
+        <v>1.028932736692909</v>
       </c>
       <c r="N21">
-        <v>1.051863764669278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.000288245287883</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031470653349216</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040337247277584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015251762190653</v>
+        <v>0.9575872185214245</v>
       </c>
       <c r="D22">
-        <v>1.051465580417891</v>
+        <v>1.024826306297568</v>
       </c>
       <c r="E22">
-        <v>1.02987508468495</v>
+        <v>0.9866283704844506</v>
       </c>
       <c r="F22">
-        <v>1.047512382343129</v>
+        <v>1.011299066564584</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.064968744347794</v>
+        <v>1.046930586263102</v>
       </c>
       <c r="J22">
-        <v>1.045336835954085</v>
+        <v>0.9903088015404212</v>
       </c>
       <c r="K22">
-        <v>1.066082081503263</v>
+        <v>1.039921487041165</v>
       </c>
       <c r="L22">
-        <v>1.044877067105022</v>
+        <v>1.002469458944629</v>
       </c>
       <c r="M22">
-        <v>1.062197924687346</v>
+        <v>1.026649961440525</v>
       </c>
       <c r="N22">
-        <v>1.046821334162951</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9990588058712945</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029663964437094</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039366326589879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018724993345017</v>
+        <v>0.9602102134391923</v>
       </c>
       <c r="D23">
-        <v>1.053902584228932</v>
+        <v>1.025855094902177</v>
       </c>
       <c r="E23">
-        <v>1.032856206047801</v>
+        <v>0.9885821544883934</v>
       </c>
       <c r="F23">
-        <v>1.050377464910101</v>
+        <v>1.012845435277937</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.066493199864958</v>
+        <v>1.047213519418661</v>
       </c>
       <c r="J23">
-        <v>1.048025697699426</v>
+        <v>0.9920957806639772</v>
       </c>
       <c r="K23">
-        <v>1.068186991284634</v>
+        <v>1.040629818783497</v>
       </c>
       <c r="L23">
-        <v>1.047505302135928</v>
+        <v>1.004065101047172</v>
       </c>
       <c r="M23">
-        <v>1.064721638980401</v>
+        <v>1.027859625403808</v>
       </c>
       <c r="N23">
-        <v>1.049514014400387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.999709232320208</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030621346379452</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039857574076208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031871455446787</v>
+        <v>0.970245824171208</v>
       </c>
       <c r="D24">
-        <v>1.063151298796951</v>
+        <v>1.0298373828465</v>
       </c>
       <c r="E24">
-        <v>1.044151629476596</v>
+        <v>0.9960860668364556</v>
       </c>
       <c r="F24">
-        <v>1.061245792740973</v>
+        <v>1.018797232664208</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.072244067103792</v>
+        <v>1.048287603114406</v>
       </c>
       <c r="J24">
-        <v>1.058195529554407</v>
+        <v>0.9989393822782677</v>
       </c>
       <c r="K24">
-        <v>1.076153292527384</v>
+        <v>1.043360026544706</v>
       </c>
       <c r="L24">
-        <v>1.057445353228461</v>
+        <v>1.010182265934717</v>
       </c>
       <c r="M24">
-        <v>1.074276444345978</v>
+        <v>1.032502097749387</v>
       </c>
       <c r="N24">
-        <v>1.059698288583098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.002201588006694</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034295593582883</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041780489124168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046170320194342</v>
+        <v>0.9813236884772217</v>
       </c>
       <c r="D25">
-        <v>1.073251747193627</v>
+        <v>1.034283615722929</v>
       </c>
       <c r="E25">
-        <v>1.056455408883757</v>
+        <v>1.004416779834729</v>
       </c>
       <c r="F25">
-        <v>1.073107683156637</v>
+        <v>1.025424776598436</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.078456384492723</v>
+        <v>1.049433968498382</v>
       </c>
       <c r="J25">
-        <v>1.069237868322657</v>
+        <v>1.006496357075229</v>
       </c>
       <c r="K25">
-        <v>1.084810202412789</v>
+        <v>1.046372053133382</v>
       </c>
       <c r="L25">
-        <v>1.06823627211992</v>
+        <v>1.016946915740661</v>
       </c>
       <c r="M25">
-        <v>1.084668008929789</v>
+        <v>1.037640822067505</v>
       </c>
       <c r="N25">
-        <v>1.070756308738972</v>
+        <v>1.004948520721881</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038362573067306</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043907273597741</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9897354612009208</v>
+        <v>0.990638126556443</v>
       </c>
       <c r="D2">
-        <v>1.037660456037234</v>
+        <v>1.035513703106251</v>
       </c>
       <c r="E2">
-        <v>1.010770802054612</v>
+        <v>1.01115003195404</v>
       </c>
       <c r="F2">
-        <v>1.030488781344077</v>
+        <v>1.029882033216674</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05025320640179</v>
+        <v>1.049381595303202</v>
       </c>
       <c r="J2">
-        <v>1.012227578074753</v>
+        <v>1.013102501320577</v>
       </c>
       <c r="K2">
-        <v>1.0486189167037</v>
+        <v>1.046499491193696</v>
       </c>
       <c r="L2">
-        <v>1.022082094520946</v>
+        <v>1.022456184297727</v>
       </c>
       <c r="M2">
-        <v>1.04153909182792</v>
+        <v>1.040940187943128</v>
       </c>
       <c r="N2">
-        <v>1.007021617500349</v>
+        <v>1.00990865090411</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041447794766206</v>
+        <v>1.040973802963522</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045448042590798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043958148627504</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024388469230715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9956463551609883</v>
+        <v>0.9962839586418208</v>
       </c>
       <c r="D3">
-        <v>1.040065535759862</v>
+        <v>1.037697128238624</v>
       </c>
       <c r="E3">
-        <v>1.015254570013378</v>
+        <v>1.015416013870736</v>
       </c>
       <c r="F3">
-        <v>1.034070064048845</v>
+        <v>1.033276124415051</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050816483666922</v>
+        <v>1.049850657840019</v>
       </c>
       <c r="J3">
-        <v>1.016256412675939</v>
+        <v>1.016876441876224</v>
       </c>
       <c r="K3">
-        <v>1.05021020470083</v>
+        <v>1.047869359730472</v>
       </c>
       <c r="L3">
-        <v>1.025695916615959</v>
+        <v>1.025855371709122</v>
       </c>
       <c r="M3">
-        <v>1.044284808762465</v>
+        <v>1.043500224283457</v>
       </c>
       <c r="N3">
-        <v>1.008478600586989</v>
+        <v>1.010998304982133</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043620839516717</v>
+        <v>1.042999895915089</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046570560374435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044923831395189</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024653835359209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9993816579461094</v>
+        <v>0.9998549638056484</v>
       </c>
       <c r="D4">
-        <v>1.041591778779704</v>
+        <v>1.039084170229529</v>
       </c>
       <c r="E4">
-        <v>1.018095034326538</v>
+        <v>1.018121021225673</v>
       </c>
       <c r="F4">
-        <v>1.036341253991995</v>
+        <v>1.035430358697261</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051162261967969</v>
+        <v>1.050137157242799</v>
       </c>
       <c r="J4">
-        <v>1.018801194213117</v>
+        <v>1.019262380351642</v>
       </c>
       <c r="K4">
-        <v>1.051212862109259</v>
+        <v>1.048732702530803</v>
       </c>
       <c r="L4">
-        <v>1.02797986547279</v>
+        <v>1.028005552368417</v>
       </c>
       <c r="M4">
-        <v>1.046019997975982</v>
+        <v>1.045119179210005</v>
       </c>
       <c r="N4">
-        <v>1.009397286820592</v>
+        <v>1.011686022800695</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044994118234633</v>
+        <v>1.044281184641286</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047280398760327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045535248465542</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024818372451339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000933896869477</v>
+        <v>1.001339453319693</v>
       </c>
       <c r="D5">
-        <v>1.042231154179478</v>
+        <v>1.039665797682094</v>
       </c>
       <c r="E5">
-        <v>1.019277504846438</v>
+        <v>1.019247530381056</v>
       </c>
       <c r="F5">
-        <v>1.037287814606212</v>
+        <v>1.03632851209097</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051305413191824</v>
+        <v>1.050255663986987</v>
       </c>
       <c r="J5">
-        <v>1.019859053435168</v>
+        <v>1.020254549895649</v>
       </c>
       <c r="K5">
-        <v>1.051632755169659</v>
+        <v>1.04909474305893</v>
       </c>
       <c r="L5">
-        <v>1.02892979357785</v>
+        <v>1.028900155565048</v>
       </c>
       <c r="M5">
-        <v>1.046742255155967</v>
+        <v>1.045793278249375</v>
       </c>
       <c r="N5">
-        <v>1.009779308709441</v>
+        <v>1.011972107589503</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045565732608833</v>
+        <v>1.044814685859814</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047584390725797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045799049861901</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024887247107672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001196223511132</v>
+        <v>1.001590138229008</v>
       </c>
       <c r="D6">
-        <v>1.042343844637893</v>
+        <v>1.039768609533402</v>
       </c>
       <c r="E6">
-        <v>1.019478041373758</v>
+        <v>1.019438441721949</v>
       </c>
       <c r="F6">
-        <v>1.037449031374446</v>
+        <v>1.036481435765645</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051331856195828</v>
+        <v>1.050277857098707</v>
       </c>
       <c r="J6">
-        <v>1.020038653050454</v>
+        <v>1.020422849129375</v>
       </c>
       <c r="K6">
-        <v>1.051708572245334</v>
+        <v>1.049160662823419</v>
       </c>
       <c r="L6">
-        <v>1.029091336204618</v>
+        <v>1.029052178928723</v>
       </c>
       <c r="M6">
-        <v>1.046865839808433</v>
+        <v>1.045908610754558</v>
       </c>
       <c r="N6">
-        <v>1.009844792414712</v>
+        <v>1.012021107935335</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045663540887538</v>
+        <v>1.044905963257039</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04764665460581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045855188973481</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024900399624429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9994102423253496</v>
+        <v>0.9999001117246168</v>
       </c>
       <c r="D7">
-        <v>1.041615723184306</v>
+        <v>1.039112106465145</v>
       </c>
       <c r="E7">
-        <v>1.018118430635857</v>
+        <v>1.018158362550323</v>
       </c>
       <c r="F7">
-        <v>1.03636169097827</v>
+        <v>1.035460295053255</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051171336128617</v>
+        <v>1.05014791902729</v>
       </c>
       <c r="J7">
-        <v>1.018822949986213</v>
+        <v>1.019300281374029</v>
       </c>
       <c r="K7">
-        <v>1.05123370339352</v>
+        <v>1.048757481159912</v>
       </c>
       <c r="L7">
-        <v>1.028000061938215</v>
+        <v>1.028039533050313</v>
       </c>
       <c r="M7">
-        <v>1.046037348141228</v>
+        <v>1.045145919745264</v>
       </c>
       <c r="N7">
-        <v>1.009406921880567</v>
+        <v>1.011725687557684</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045007849642084</v>
+        <v>1.044302347871477</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047315044864202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045574687158177</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024825371655304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9917621003758644</v>
+        <v>0.9926297528046839</v>
       </c>
       <c r="D8">
-        <v>1.038498543138235</v>
+        <v>1.036292520973012</v>
       </c>
       <c r="E8">
-        <v>1.012308604584979</v>
+        <v>1.012660628159309</v>
       </c>
       <c r="F8">
-        <v>1.031718392195684</v>
+        <v>1.031080739004851</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050456327258094</v>
+        <v>1.049559669447835</v>
       </c>
       <c r="J8">
-        <v>1.013611995561099</v>
+        <v>1.014453932080207</v>
       </c>
       <c r="K8">
-        <v>1.049181105809602</v>
+        <v>1.047002342449542</v>
       </c>
       <c r="L8">
-        <v>1.023324389783342</v>
+        <v>1.023671791261086</v>
       </c>
       <c r="M8">
-        <v>1.042485197109222</v>
+        <v>1.041855537720105</v>
       </c>
       <c r="N8">
-        <v>1.007524950607995</v>
+        <v>1.010384703661187</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042196572291722</v>
+        <v>1.041698240100694</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045868239635105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044338666743742</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024490208060525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9775401239595397</v>
+        <v>0.9790772846501546</v>
       </c>
       <c r="D9">
-        <v>1.032741636611476</v>
+        <v>1.031078496274802</v>
       </c>
       <c r="E9">
-        <v>1.001563526871279</v>
+        <v>1.00246328420238</v>
       </c>
       <c r="F9">
-        <v>1.023150832391241</v>
+        <v>1.022979625261286</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049038272831163</v>
+        <v>1.048371802510166</v>
       </c>
       <c r="J9">
-        <v>1.003911713147849</v>
+        <v>1.00539114537082</v>
       </c>
       <c r="K9">
-        <v>1.045324935232467</v>
+        <v>1.043686696016148</v>
       </c>
       <c r="L9">
-        <v>1.014631287774782</v>
+        <v>1.015516522363161</v>
       </c>
       <c r="M9">
-        <v>1.035879147008095</v>
+        <v>1.035710560095166</v>
       </c>
       <c r="N9">
-        <v>1.00400659120221</v>
+        <v>1.007771648473723</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036968319862735</v>
+        <v>1.036834893954093</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043138572279308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04199089578159</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023830954628668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9676005194653704</v>
+        <v>0.9697097241183925</v>
       </c>
       <c r="D10">
-        <v>1.028803958988404</v>
+        <v>1.027548270064941</v>
       </c>
       <c r="E10">
-        <v>0.9941281120966287</v>
+        <v>0.995495723341759</v>
       </c>
       <c r="F10">
-        <v>1.01728202045647</v>
+        <v>1.017496370208955</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048022983908966</v>
+        <v>1.047528313131734</v>
       </c>
       <c r="J10">
-        <v>0.9971613054084543</v>
+        <v>0.999178892316602</v>
       </c>
       <c r="K10">
-        <v>1.042671921043476</v>
+        <v>1.04143733002275</v>
       </c>
       <c r="L10">
-        <v>1.008604200851073</v>
+        <v>1.009946782935647</v>
       </c>
       <c r="M10">
-        <v>1.031346099368818</v>
+        <v>1.031556748197316</v>
       </c>
       <c r="N10">
-        <v>1.001564910371606</v>
+        <v>1.006106040181459</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03343244507896</v>
+        <v>1.033599150619962</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041279428553957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040418833986144</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023378279042506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9640061901604161</v>
+        <v>0.9664225898264213</v>
       </c>
       <c r="D11">
-        <v>1.027664371941046</v>
+        <v>1.026558461971886</v>
       </c>
       <c r="E11">
-        <v>0.9916583038643398</v>
+        <v>0.9932810742096327</v>
       </c>
       <c r="F11">
-        <v>1.015663437957782</v>
+        <v>1.016078701389949</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047828647319463</v>
+        <v>1.04739252390805</v>
       </c>
       <c r="J11">
-        <v>0.9949569909839178</v>
+        <v>0.9972621591661763</v>
       </c>
       <c r="K11">
-        <v>1.042082779209426</v>
+        <v>1.040996322413662</v>
       </c>
       <c r="L11">
-        <v>1.00673926575897</v>
+        <v>1.008330821809654</v>
       </c>
       <c r="M11">
-        <v>1.030295889009913</v>
+        <v>1.030703636154495</v>
       </c>
       <c r="N11">
-        <v>1.000880836575289</v>
+        <v>1.005886195978459</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033040281030407</v>
+        <v>1.03336280425959</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040895472170662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040142831440492</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023336174057419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9629848942163864</v>
+        <v>0.9654935689364641</v>
       </c>
       <c r="D12">
-        <v>1.027466792033827</v>
+        <v>1.026389051345259</v>
       </c>
       <c r="E12">
-        <v>0.991053644103884</v>
+        <v>0.9927532888518482</v>
       </c>
       <c r="F12">
-        <v>1.015431150355368</v>
+        <v>1.015906693019283</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047854337355781</v>
+        <v>1.04742647822423</v>
       </c>
       <c r="J12">
-        <v>0.9944428291777128</v>
+        <v>0.9968336629997196</v>
       </c>
       <c r="K12">
-        <v>1.04208603504734</v>
+        <v>1.041027560012589</v>
       </c>
       <c r="L12">
-        <v>1.006354272991608</v>
+        <v>1.008020653905543</v>
       </c>
       <c r="M12">
-        <v>1.030268567272797</v>
+        <v>1.030735361831287</v>
       </c>
       <c r="N12">
-        <v>1.000790084641475</v>
+        <v>1.005943515728325</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033346908974812</v>
+        <v>1.033716011645351</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040897774119184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040164916690403</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023375554244442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9638989044717411</v>
+        <v>0.9663066488046639</v>
       </c>
       <c r="D13">
-        <v>1.028001530290307</v>
+        <v>1.026848553026996</v>
       </c>
       <c r="E13">
-        <v>0.991862286007681</v>
+        <v>0.993477209002311</v>
       </c>
       <c r="F13">
-        <v>1.016272076242771</v>
+        <v>1.016681915274964</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04806515273044</v>
+        <v>1.047602642513514</v>
       </c>
       <c r="J13">
-        <v>0.9952152610517983</v>
+        <v>0.9975106130563659</v>
       </c>
       <c r="K13">
-        <v>1.042568932218242</v>
+        <v>1.041436471014379</v>
       </c>
       <c r="L13">
-        <v>1.007102506034519</v>
+        <v>1.008685993522919</v>
       </c>
       <c r="M13">
-        <v>1.031051020319407</v>
+        <v>1.031453360705621</v>
       </c>
       <c r="N13">
-        <v>1.001158642046472</v>
+        <v>1.00617851293105</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.0342435518443</v>
+        <v>1.034561608817403</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041236720791055</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040451305336656</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02348553339826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9654119105555932</v>
+        <v>0.9676630647922709</v>
       </c>
       <c r="D14">
-        <v>1.028708208929207</v>
+        <v>1.027457249360431</v>
       </c>
       <c r="E14">
-        <v>0.9930656092560561</v>
+        <v>0.9945497477242347</v>
       </c>
       <c r="F14">
-        <v>1.017344863315221</v>
+        <v>1.017653230400383</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048296450516777</v>
+        <v>1.047791106194347</v>
       </c>
       <c r="J14">
-        <v>0.9963357333870769</v>
+        <v>0.9984835206676581</v>
       </c>
       <c r="K14">
-        <v>1.043124591290681</v>
+        <v>1.041895611082841</v>
       </c>
       <c r="L14">
-        <v>1.008136635965772</v>
+        <v>1.009592289872528</v>
       </c>
       <c r="M14">
-        <v>1.031963479757916</v>
+        <v>1.032266281316596</v>
       </c>
       <c r="N14">
-        <v>1.001623625435718</v>
+        <v>1.006424788824328</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035138802726857</v>
+        <v>1.035378140082376</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04163099667174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040777472952418</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023595024556817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9662042632247636</v>
+        <v>0.9683771016079201</v>
       </c>
       <c r="D15">
-        <v>1.029047024113509</v>
+        <v>1.027750432328446</v>
       </c>
       <c r="E15">
-        <v>0.9936721639516499</v>
+        <v>0.9950910649299795</v>
       </c>
       <c r="F15">
-        <v>1.017850396936468</v>
+        <v>1.018108044733763</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048396607890968</v>
+        <v>1.047871791080347</v>
       </c>
       <c r="J15">
-        <v>0.9968937796081053</v>
+        <v>0.9989678204430897</v>
       </c>
       <c r="K15">
-        <v>1.043372181522815</v>
+        <v>1.042098197741772</v>
       </c>
       <c r="L15">
-        <v>1.008641811388755</v>
+        <v>1.01003370800971</v>
       </c>
       <c r="M15">
-        <v>1.03237325056117</v>
+        <v>1.032626285649787</v>
       </c>
       <c r="N15">
-        <v>1.001838875265642</v>
+        <v>1.006528866050284</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035500341046701</v>
+        <v>1.035700337228167</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.0418118690569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040927096381691</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023639765601883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9702622203682201</v>
+        <v>0.9720755059358658</v>
       </c>
       <c r="D16">
-        <v>1.030621165310386</v>
+        <v>1.029123693021144</v>
       </c>
       <c r="E16">
-        <v>0.9966821435111878</v>
+        <v>0.9978026348860131</v>
       </c>
       <c r="F16">
-        <v>1.020205692924748</v>
+        <v>1.020229206459517</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048804381228297</v>
+        <v>1.048195899681809</v>
       </c>
       <c r="J16">
-        <v>0.9996267381713615</v>
+        <v>1.00136209301857</v>
       </c>
       <c r="K16">
-        <v>1.044423591022289</v>
+        <v>1.042951099318956</v>
       </c>
       <c r="L16">
-        <v>1.011074707653841</v>
+        <v>1.012174882323762</v>
       </c>
       <c r="M16">
-        <v>1.03418382994101</v>
+        <v>1.034206941577362</v>
       </c>
       <c r="N16">
-        <v>1.002808625994996</v>
+        <v>1.006982033810137</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036892585669207</v>
+        <v>1.036910853390228</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042558380051474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041533557736893</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023808020205377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9725774259348802</v>
+        <v>0.9742212872037626</v>
       </c>
       <c r="D17">
-        <v>1.031458065351028</v>
+        <v>1.029864934205585</v>
       </c>
       <c r="E17">
-        <v>0.9983579216164906</v>
+        <v>0.9993385613168876</v>
       </c>
       <c r="F17">
-        <v>1.02144464929829</v>
+        <v>1.021356293190283</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048992872564659</v>
+        <v>1.048345354450204</v>
       </c>
       <c r="J17">
-        <v>1.001131787357225</v>
+        <v>1.002707462478867</v>
       </c>
       <c r="K17">
-        <v>1.044936121757844</v>
+        <v>1.043368830242216</v>
       </c>
       <c r="L17">
-        <v>1.012394803803858</v>
+        <v>1.013358197896977</v>
       </c>
       <c r="M17">
-        <v>1.03508684105923</v>
+        <v>1.034999951687987</v>
       </c>
       <c r="N17">
-        <v>1.003307153022455</v>
+        <v>1.007234913061432</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037476957096338</v>
+        <v>1.037408271772747</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042923318483581</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041831719355525</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023880081820978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9736122856192442</v>
+        <v>0.9752044516549369</v>
       </c>
       <c r="D18">
-        <v>1.031718345951647</v>
+        <v>1.030102373697755</v>
       </c>
       <c r="E18">
-        <v>0.9990286671845335</v>
+        <v>0.9999669600122257</v>
       </c>
       <c r="F18">
-        <v>1.021807824881466</v>
+        <v>1.021683663353771</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04900210659403</v>
+        <v>1.048346958059784</v>
       </c>
       <c r="J18">
-        <v>1.001710639103725</v>
+        <v>1.003238078839047</v>
       </c>
       <c r="K18">
-        <v>1.04501115361893</v>
+        <v>1.043420972016983</v>
       </c>
       <c r="L18">
-        <v>1.01286418818822</v>
+        <v>1.013786263793751</v>
       </c>
       <c r="M18">
-        <v>1.035260452787532</v>
+        <v>1.035138318801637</v>
       </c>
       <c r="N18">
-        <v>1.003441471986916</v>
+        <v>1.007288166482519</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037375795513213</v>
+        <v>1.037279229356588</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042964834745268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041855914844683</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023867173951929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9735084725134453</v>
+        <v>0.9751361643368267</v>
       </c>
       <c r="D19">
-        <v>1.031488176904885</v>
+        <v>1.029907947636069</v>
       </c>
       <c r="E19">
-        <v>0.99880459296871</v>
+        <v>0.9997727691320054</v>
       </c>
       <c r="F19">
-        <v>1.021392084122976</v>
+        <v>1.021289842252969</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048864459978304</v>
+        <v>1.048227096886117</v>
       </c>
       <c r="J19">
-        <v>1.001470326867771</v>
+        <v>1.003032221449243</v>
       </c>
       <c r="K19">
-        <v>1.044722899792965</v>
+        <v>1.043167769756896</v>
       </c>
       <c r="L19">
-        <v>1.012579338233087</v>
+        <v>1.01353086153307</v>
       </c>
       <c r="M19">
-        <v>1.034788883392243</v>
+        <v>1.034688303902196</v>
       </c>
       <c r="N19">
-        <v>1.003264810707255</v>
+        <v>1.007149541746941</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036676272318348</v>
+        <v>1.036596722207302</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042767373417459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041683863799378</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023784776277879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9702135897659725</v>
+        <v>0.9721145209287941</v>
       </c>
       <c r="D20">
-        <v>1.02986548359618</v>
+        <v>1.028483233618275</v>
       </c>
       <c r="E20">
-        <v>0.9960841767855876</v>
+        <v>0.9972791887285062</v>
       </c>
       <c r="F20">
-        <v>1.01882907888424</v>
+        <v>1.018906608083075</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04830970210226</v>
+        <v>1.047761028255309</v>
       </c>
       <c r="J20">
-        <v>0.9989430619786663</v>
+        <v>1.000764377058235</v>
       </c>
       <c r="K20">
-        <v>1.043402754543049</v>
+        <v>1.042043070981313</v>
       </c>
       <c r="L20">
-        <v>1.010196232475676</v>
+        <v>1.011370049636577</v>
       </c>
       <c r="M20">
-        <v>1.032548729177974</v>
+        <v>1.032624959426423</v>
       </c>
       <c r="N20">
-        <v>1.002215815814794</v>
+        <v>1.006461267688104</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034373592413832</v>
+        <v>1.034433921038046</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041837886928532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04089295651087</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023503939354798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.962523543230158</v>
+        <v>0.965150998530919</v>
       </c>
       <c r="D21">
-        <v>1.026784660782854</v>
+        <v>1.025818491480666</v>
       </c>
       <c r="E21">
-        <v>0.990310395555468</v>
+        <v>0.9921130220510551</v>
       </c>
       <c r="F21">
-        <v>1.014215772628064</v>
+        <v>1.014769766414388</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047472051672383</v>
+        <v>1.047100816696897</v>
       </c>
       <c r="J21">
-        <v>0.9936762257700127</v>
+        <v>0.9961816226774657</v>
       </c>
       <c r="K21">
-        <v>1.041275757233146</v>
+        <v>1.040326695579221</v>
       </c>
       <c r="L21">
-        <v>1.005477695506265</v>
+        <v>1.007245372240883</v>
       </c>
       <c r="M21">
-        <v>1.028932736692909</v>
+        <v>1.029476621585456</v>
       </c>
       <c r="N21">
-        <v>1.000288245287883</v>
+        <v>1.00558007430672</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031470653349216</v>
+        <v>1.031901107124697</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040337247277584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039682966279</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023151992926923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9575872185214245</v>
+        <v>0.9606859670329472</v>
       </c>
       <c r="D22">
-        <v>1.024826306297568</v>
+        <v>1.024131415227569</v>
       </c>
       <c r="E22">
-        <v>0.9866283704844506</v>
+        <v>0.9888272438351476</v>
       </c>
       <c r="F22">
-        <v>1.011299066564584</v>
+        <v>1.012165913963968</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046930586263102</v>
+        <v>1.046674818921345</v>
       </c>
       <c r="J22">
-        <v>0.9903088015404212</v>
+        <v>0.9932542081616107</v>
       </c>
       <c r="K22">
-        <v>1.039921487041165</v>
+        <v>1.039239517222156</v>
       </c>
       <c r="L22">
-        <v>1.002469458944629</v>
+        <v>1.004623332696908</v>
       </c>
       <c r="M22">
-        <v>1.026649961440525</v>
+        <v>1.027500153914413</v>
       </c>
       <c r="N22">
-        <v>0.9990588058712945</v>
+        <v>1.005014816942938</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029663964437094</v>
+        <v>1.030336844768782</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039366326589879</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038899587517927</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022927762532789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9602102134391923</v>
+        <v>0.9630261382617136</v>
       </c>
       <c r="D23">
-        <v>1.025855094902177</v>
+        <v>1.025004419617157</v>
       </c>
       <c r="E23">
-        <v>0.9885821544883934</v>
+        <v>0.9905416830267241</v>
       </c>
       <c r="F23">
-        <v>1.012845435277937</v>
+        <v>1.013524544627894</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047213519418661</v>
+        <v>1.046891509725847</v>
       </c>
       <c r="J23">
-        <v>0.9920957806639772</v>
+        <v>0.9947769179295336</v>
       </c>
       <c r="K23">
-        <v>1.040629818783497</v>
+        <v>1.03979456010039</v>
       </c>
       <c r="L23">
-        <v>1.004065101047172</v>
+        <v>1.005985651996952</v>
       </c>
       <c r="M23">
-        <v>1.027859625403808</v>
+        <v>1.028526036029393</v>
       </c>
       <c r="N23">
-        <v>0.999709232320208</v>
+        <v>1.005260286234744</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030621346379452</v>
+        <v>1.03114877286876</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039857574076208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039281511358719</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023040171429325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.970245824171208</v>
+        <v>0.9721484201721738</v>
       </c>
       <c r="D24">
-        <v>1.0298373828465</v>
+        <v>1.028458024574624</v>
       </c>
       <c r="E24">
-        <v>0.9960860668364556</v>
+        <v>0.9972826382964936</v>
       </c>
       <c r="F24">
-        <v>1.018797232664208</v>
+        <v>1.018875766294671</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048287603114406</v>
+        <v>1.047740801020833</v>
       </c>
       <c r="J24">
-        <v>0.9989393822782677</v>
+        <v>1.00076241300717</v>
       </c>
       <c r="K24">
-        <v>1.043360026544706</v>
+        <v>1.042003160184896</v>
       </c>
       <c r="L24">
-        <v>1.010182265934717</v>
+        <v>1.011357642493113</v>
       </c>
       <c r="M24">
-        <v>1.032502097749387</v>
+        <v>1.032579317183944</v>
       </c>
       <c r="N24">
-        <v>1.002201588006694</v>
+        <v>1.006446822888831</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034295593582883</v>
+        <v>1.034356708117332</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041780489124168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040834872479957</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02348935551217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9813236884772217</v>
+        <v>0.982654712050813</v>
       </c>
       <c r="D25">
-        <v>1.034283615722929</v>
+        <v>1.032467230004611</v>
       </c>
       <c r="E25">
-        <v>1.004416779834729</v>
+        <v>1.00514757956345</v>
       </c>
       <c r="F25">
-        <v>1.025424776598436</v>
+        <v>1.025113267289701</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049433968498382</v>
+        <v>1.048702314142276</v>
       </c>
       <c r="J25">
-        <v>1.006496357075229</v>
+        <v>1.007780254234921</v>
       </c>
       <c r="K25">
-        <v>1.046372053133382</v>
+        <v>1.044581605809246</v>
       </c>
       <c r="L25">
-        <v>1.016946915740661</v>
+        <v>1.017666508114617</v>
       </c>
       <c r="M25">
-        <v>1.037640822067505</v>
+        <v>1.037333850840796</v>
       </c>
       <c r="N25">
-        <v>1.004948520721881</v>
+        <v>1.008431075821351</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038362573067306</v>
+        <v>1.038119625158673</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043907273597741</v>
+        <v>1.042654791135831</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024013252444873</v>
       </c>
     </row>
   </sheetData>
